--- a/data/132/DOUANES/Merchandise Trade NSA_historical.xlsx
+++ b/data/132/DOUANES/Merchandise Trade NSA_historical.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Merchandise Trade NSA" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,890 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="293">
-  <si>
-    <t>1999-01</t>
-  </si>
-  <si>
-    <t>1999-02</t>
-  </si>
-  <si>
-    <t>1999-03</t>
-  </si>
-  <si>
-    <t>1999-04</t>
-  </si>
-  <si>
-    <t>1999-05</t>
-  </si>
-  <si>
-    <t>1999-06</t>
-  </si>
-  <si>
-    <t>1999-07</t>
-  </si>
-  <si>
-    <t>1999-08</t>
-  </si>
-  <si>
-    <t>1999-09</t>
-  </si>
-  <si>
-    <t>1999-10</t>
-  </si>
-  <si>
-    <t>1999-11</t>
-  </si>
-  <si>
-    <t>1999-12</t>
-  </si>
-  <si>
-    <t>2000-01</t>
-  </si>
-  <si>
-    <t>2000-02</t>
-  </si>
-  <si>
-    <t>2000-03</t>
-  </si>
-  <si>
-    <t>2000-04</t>
-  </si>
-  <si>
-    <t>2000-05</t>
-  </si>
-  <si>
-    <t>2000-06</t>
-  </si>
-  <si>
-    <t>2000-07</t>
-  </si>
-  <si>
-    <t>2000-08</t>
-  </si>
-  <si>
-    <t>2000-09</t>
-  </si>
-  <si>
-    <t>2000-10</t>
-  </si>
-  <si>
-    <t>2000-11</t>
-  </si>
-  <si>
-    <t>2000-12</t>
-  </si>
-  <si>
-    <t>2001-01</t>
-  </si>
-  <si>
-    <t>2001-02</t>
-  </si>
-  <si>
-    <t>2001-03</t>
-  </si>
-  <si>
-    <t>2001-04</t>
-  </si>
-  <si>
-    <t>2001-05</t>
-  </si>
-  <si>
-    <t>2001-06</t>
-  </si>
-  <si>
-    <t>2001-07</t>
-  </si>
-  <si>
-    <t>2001-08</t>
-  </si>
-  <si>
-    <t>2001-09</t>
-  </si>
-  <si>
-    <t>2001-10</t>
-  </si>
-  <si>
-    <t>2001-11</t>
-  </si>
-  <si>
-    <t>2001-12</t>
-  </si>
-  <si>
-    <t>2002-01</t>
-  </si>
-  <si>
-    <t>2002-02</t>
-  </si>
-  <si>
-    <t>2002-03</t>
-  </si>
-  <si>
-    <t>2002-04</t>
-  </si>
-  <si>
-    <t>2002-05</t>
-  </si>
-  <si>
-    <t>2002-06</t>
-  </si>
-  <si>
-    <t>2002-07</t>
-  </si>
-  <si>
-    <t>2002-08</t>
-  </si>
-  <si>
-    <t>2002-09</t>
-  </si>
-  <si>
-    <t>2002-10</t>
-  </si>
-  <si>
-    <t>2002-11</t>
-  </si>
-  <si>
-    <t>2002-12</t>
-  </si>
-  <si>
-    <t>2003-01</t>
-  </si>
-  <si>
-    <t>2003-02</t>
-  </si>
-  <si>
-    <t>2003-03</t>
-  </si>
-  <si>
-    <t>2003-04</t>
-  </si>
-  <si>
-    <t>2003-05</t>
-  </si>
-  <si>
-    <t>2003-06</t>
-  </si>
-  <si>
-    <t>2003-07</t>
-  </si>
-  <si>
-    <t>2003-08</t>
-  </si>
-  <si>
-    <t>2003-09</t>
-  </si>
-  <si>
-    <t>2003-10</t>
-  </si>
-  <si>
-    <t>2003-11</t>
-  </si>
-  <si>
-    <t>2003-12</t>
-  </si>
-  <si>
-    <t>2004-01</t>
-  </si>
-  <si>
-    <t>2004-02</t>
-  </si>
-  <si>
-    <t>2004-03</t>
-  </si>
-  <si>
-    <t>2004-04</t>
-  </si>
-  <si>
-    <t>2004-05</t>
-  </si>
-  <si>
-    <t>2004-06</t>
-  </si>
-  <si>
-    <t>2004-07</t>
-  </si>
-  <si>
-    <t>2004-08</t>
-  </si>
-  <si>
-    <t>2004-09</t>
-  </si>
-  <si>
-    <t>2004-10</t>
-  </si>
-  <si>
-    <t>2004-11</t>
-  </si>
-  <si>
-    <t>2004-12</t>
-  </si>
-  <si>
-    <t>2005-01</t>
-  </si>
-  <si>
-    <t>2005-02</t>
-  </si>
-  <si>
-    <t>2005-03</t>
-  </si>
-  <si>
-    <t>2005-04</t>
-  </si>
-  <si>
-    <t>2005-05</t>
-  </si>
-  <si>
-    <t>2005-06</t>
-  </si>
-  <si>
-    <t>2005-07</t>
-  </si>
-  <si>
-    <t>2005-08</t>
-  </si>
-  <si>
-    <t>2005-09</t>
-  </si>
-  <si>
-    <t>2005-10</t>
-  </si>
-  <si>
-    <t>2005-11</t>
-  </si>
-  <si>
-    <t>2005-12</t>
-  </si>
-  <si>
-    <t>2006-01</t>
-  </si>
-  <si>
-    <t>2006-02</t>
-  </si>
-  <si>
-    <t>2006-03</t>
-  </si>
-  <si>
-    <t>2006-04</t>
-  </si>
-  <si>
-    <t>2006-05</t>
-  </si>
-  <si>
-    <t>2006-06</t>
-  </si>
-  <si>
-    <t>2006-07</t>
-  </si>
-  <si>
-    <t>2006-08</t>
-  </si>
-  <si>
-    <t>2006-09</t>
-  </si>
-  <si>
-    <t>2006-10</t>
-  </si>
-  <si>
-    <t>2006-11</t>
-  </si>
-  <si>
-    <t>2006-12</t>
-  </si>
-  <si>
-    <t>2007-01</t>
-  </si>
-  <si>
-    <t>2007-02</t>
-  </si>
-  <si>
-    <t>2007-03</t>
-  </si>
-  <si>
-    <t>2007-04</t>
-  </si>
-  <si>
-    <t>2007-05</t>
-  </si>
-  <si>
-    <t>2007-06</t>
-  </si>
-  <si>
-    <t>2007-07</t>
-  </si>
-  <si>
-    <t>2007-08</t>
-  </si>
-  <si>
-    <t>2007-09</t>
-  </si>
-  <si>
-    <t>2007-10</t>
-  </si>
-  <si>
-    <t>2007-11</t>
-  </si>
-  <si>
-    <t>2007-12</t>
-  </si>
-  <si>
-    <t>2008-01</t>
-  </si>
-  <si>
-    <t>2008-02</t>
-  </si>
-  <si>
-    <t>2008-03</t>
-  </si>
-  <si>
-    <t>2008-04</t>
-  </si>
-  <si>
-    <t>2008-05</t>
-  </si>
-  <si>
-    <t>2008-06</t>
-  </si>
-  <si>
-    <t>2008-07</t>
-  </si>
-  <si>
-    <t>2008-08</t>
-  </si>
-  <si>
-    <t>2008-09</t>
-  </si>
-  <si>
-    <t>2008-10</t>
-  </si>
-  <si>
-    <t>2008-11</t>
-  </si>
-  <si>
-    <t>2008-12</t>
-  </si>
-  <si>
-    <t>2009-01</t>
-  </si>
-  <si>
-    <t>2009-02</t>
-  </si>
-  <si>
-    <t>2009-03</t>
-  </si>
-  <si>
-    <t>2009-04</t>
-  </si>
-  <si>
-    <t>2009-05</t>
-  </si>
-  <si>
-    <t>2009-06</t>
-  </si>
-  <si>
-    <t>2009-07</t>
-  </si>
-  <si>
-    <t>2009-08</t>
-  </si>
-  <si>
-    <t>2009-09</t>
-  </si>
-  <si>
-    <t>2009-10</t>
-  </si>
-  <si>
-    <t>2009-11</t>
-  </si>
-  <si>
-    <t>2009-12</t>
-  </si>
-  <si>
-    <t>2010-01</t>
-  </si>
-  <si>
-    <t>2010-02</t>
-  </si>
-  <si>
-    <t>2010-03</t>
-  </si>
-  <si>
-    <t>2010-04</t>
-  </si>
-  <si>
-    <t>2010-05</t>
-  </si>
-  <si>
-    <t>2010-06</t>
-  </si>
-  <si>
-    <t>2010-07</t>
-  </si>
-  <si>
-    <t>2010-08</t>
-  </si>
-  <si>
-    <t>2010-09</t>
-  </si>
-  <si>
-    <t>2010-10</t>
-  </si>
-  <si>
-    <t>2010-11</t>
-  </si>
-  <si>
-    <t>2010-12</t>
-  </si>
-  <si>
-    <t>2011-01</t>
-  </si>
-  <si>
-    <t>2011-02</t>
-  </si>
-  <si>
-    <t>2011-03</t>
-  </si>
-  <si>
-    <t>2011-04</t>
-  </si>
-  <si>
-    <t>2011-05</t>
-  </si>
-  <si>
-    <t>2011-06</t>
-  </si>
-  <si>
-    <t>2011-07</t>
-  </si>
-  <si>
-    <t>2011-08</t>
-  </si>
-  <si>
-    <t>2011-09</t>
-  </si>
-  <si>
-    <t>2011-10</t>
-  </si>
-  <si>
-    <t>2011-11</t>
-  </si>
-  <si>
-    <t>2011-12</t>
-  </si>
-  <si>
-    <t>2012-01</t>
-  </si>
-  <si>
-    <t>2012-02</t>
-  </si>
-  <si>
-    <t>2012-03</t>
-  </si>
-  <si>
-    <t>2012-04</t>
-  </si>
-  <si>
-    <t>2012-05</t>
-  </si>
-  <si>
-    <t>2012-06</t>
-  </si>
-  <si>
-    <t>2012-07</t>
-  </si>
-  <si>
-    <t>2012-08</t>
-  </si>
-  <si>
-    <t>2012-09</t>
-  </si>
-  <si>
-    <t>2012-10</t>
-  </si>
-  <si>
-    <t>2012-11</t>
-  </si>
-  <si>
-    <t>2012-12</t>
-  </si>
-  <si>
-    <t>2013-01</t>
-  </si>
-  <si>
-    <t>2013-02</t>
-  </si>
-  <si>
-    <t>2013-03</t>
-  </si>
-  <si>
-    <t>2013-04</t>
-  </si>
-  <si>
-    <t>2013-05</t>
-  </si>
-  <si>
-    <t>2013-06</t>
-  </si>
-  <si>
-    <t>2013-07</t>
-  </si>
-  <si>
-    <t>2013-08</t>
-  </si>
-  <si>
-    <t>2013-09</t>
-  </si>
-  <si>
-    <t>2013-10</t>
-  </si>
-  <si>
-    <t>2013-11</t>
-  </si>
-  <si>
-    <t>2013-12</t>
-  </si>
-  <si>
-    <t>2014-01</t>
-  </si>
-  <si>
-    <t>2014-02</t>
-  </si>
-  <si>
-    <t>2014-03</t>
-  </si>
-  <si>
-    <t>2014-04</t>
-  </si>
-  <si>
-    <t>2014-05</t>
-  </si>
-  <si>
-    <t>2014-06</t>
-  </si>
-  <si>
-    <t>2014-07</t>
-  </si>
-  <si>
-    <t>2014-08</t>
-  </si>
-  <si>
-    <t>2014-09</t>
-  </si>
-  <si>
-    <t>2014-10</t>
-  </si>
-  <si>
-    <t>2014-11</t>
-  </si>
-  <si>
-    <t>2014-12</t>
-  </si>
-  <si>
-    <t>2015-01</t>
-  </si>
-  <si>
-    <t>2015-02</t>
-  </si>
-  <si>
-    <t>2015-03</t>
-  </si>
-  <si>
-    <t>2015-04</t>
-  </si>
-  <si>
-    <t>2015-05</t>
-  </si>
-  <si>
-    <t>2015-06</t>
-  </si>
-  <si>
-    <t>2015-07</t>
-  </si>
-  <si>
-    <t>2015-08</t>
-  </si>
-  <si>
-    <t>2015-09</t>
-  </si>
-  <si>
-    <t>2015-10</t>
-  </si>
-  <si>
-    <t>2015-11</t>
-  </si>
-  <si>
-    <t>2015-12</t>
-  </si>
-  <si>
-    <t>2016-01</t>
-  </si>
-  <si>
-    <t>2016-02</t>
-  </si>
-  <si>
-    <t>2016-03</t>
-  </si>
-  <si>
-    <t>2016-04</t>
-  </si>
-  <si>
-    <t>2016-05</t>
-  </si>
-  <si>
-    <t>2016-06</t>
-  </si>
-  <si>
-    <t>2016-07</t>
-  </si>
-  <si>
-    <t>2016-08</t>
-  </si>
-  <si>
-    <t>2016-09</t>
-  </si>
-  <si>
-    <t>2016-10</t>
-  </si>
-  <si>
-    <t>2016-11</t>
-  </si>
-  <si>
-    <t>2016-12</t>
-  </si>
-  <si>
-    <t>2017-01</t>
-  </si>
-  <si>
-    <t>2017-02</t>
-  </si>
-  <si>
-    <t>2017-03</t>
-  </si>
-  <si>
-    <t>2017-04</t>
-  </si>
-  <si>
-    <t>2017-05</t>
-  </si>
-  <si>
-    <t>2017-06</t>
-  </si>
-  <si>
-    <t>2017-07</t>
-  </si>
-  <si>
-    <t>2017-08</t>
-  </si>
-  <si>
-    <t>2017-09</t>
-  </si>
-  <si>
-    <t>2017-10</t>
-  </si>
-  <si>
-    <t>2017-11</t>
-  </si>
-  <si>
-    <t>2017-12</t>
-  </si>
-  <si>
-    <t>2018-01</t>
-  </si>
-  <si>
-    <t>2018-02</t>
-  </si>
-  <si>
-    <t>2018-03</t>
-  </si>
-  <si>
-    <t>2018-04</t>
-  </si>
-  <si>
-    <t>2018-05</t>
-  </si>
-  <si>
-    <t>2018-06</t>
-  </si>
-  <si>
-    <t>2018-07</t>
-  </si>
-  <si>
-    <t>2018-08</t>
-  </si>
-  <si>
-    <t>2018-09</t>
-  </si>
-  <si>
-    <t>2018-10</t>
-  </si>
-  <si>
-    <t>2018-11</t>
-  </si>
-  <si>
-    <t>2018-12</t>
-  </si>
-  <si>
-    <t>2019-01</t>
-  </si>
-  <si>
-    <t>2019-02</t>
-  </si>
-  <si>
-    <t>2019-03</t>
-  </si>
-  <si>
-    <t>2019-04</t>
-  </si>
-  <si>
-    <t>2019-05</t>
-  </si>
-  <si>
-    <t>2019-06</t>
-  </si>
-  <si>
-    <t>2019-07</t>
-  </si>
-  <si>
-    <t>2019-08</t>
-  </si>
-  <si>
-    <t>2019-09</t>
-  </si>
-  <si>
-    <t>2019-10</t>
-  </si>
-  <si>
-    <t>2019-11</t>
-  </si>
-  <si>
-    <t>2019-12</t>
-  </si>
-  <si>
-    <t>2020-01</t>
-  </si>
-  <si>
-    <t>2020-02</t>
-  </si>
-  <si>
-    <t>2020-03</t>
-  </si>
-  <si>
-    <t>2020-04</t>
-  </si>
-  <si>
-    <t>2020-05</t>
-  </si>
-  <si>
-    <t>2020-06</t>
-  </si>
-  <si>
-    <t>2020-07</t>
-  </si>
-  <si>
-    <t>2020-08</t>
-  </si>
-  <si>
-    <t>2020-09</t>
-  </si>
-  <si>
-    <t>2020-10</t>
-  </si>
-  <si>
-    <t>2020-11</t>
-  </si>
-  <si>
-    <t>2020-12</t>
-  </si>
-  <si>
-    <t>2021-01</t>
-  </si>
-  <si>
-    <t>2021-02</t>
-  </si>
-  <si>
-    <t>2021-03</t>
-  </si>
-  <si>
-    <t>2021-04</t>
-  </si>
-  <si>
-    <t>2021-05</t>
-  </si>
-  <si>
-    <t>2021-06</t>
-  </si>
-  <si>
-    <t>2021-07</t>
-  </si>
-  <si>
-    <t>2021-08</t>
-  </si>
-  <si>
-    <t>2021-09</t>
-  </si>
-  <si>
-    <t>2021-10</t>
-  </si>
-  <si>
-    <t>Union européenne//Export</t>
-  </si>
-  <si>
-    <t>Union européenne//Import</t>
-  </si>
-  <si>
-    <t>Afrique//Export</t>
-  </si>
-  <si>
-    <t>Afrique//Import</t>
-  </si>
-  <si>
-    <t>Allemagne//Export</t>
-  </si>
-  <si>
-    <t>Allemagne//Import</t>
-  </si>
-  <si>
-    <t>Italie//Export</t>
-  </si>
-  <si>
-    <t>Italie//Import</t>
-  </si>
-  <si>
-    <t>Royaume-Uni//Export</t>
-  </si>
-  <si>
-    <t>Royaume-Uni//Import</t>
-  </si>
-  <si>
-    <t>EUAN (Etats Unis d'Amérique du Nord)//Export</t>
-  </si>
-  <si>
-    <t>Canada//Export</t>
-  </si>
-  <si>
-    <t>Canada//Import</t>
-  </si>
-  <si>
-    <t>Australie//Export</t>
-  </si>
-  <si>
-    <t>Australie//Import</t>
-  </si>
-  <si>
-    <t>Japon//Export</t>
-  </si>
-  <si>
-    <t>Japon//Import</t>
-  </si>
-  <si>
-    <t>Chine//Export</t>
-  </si>
-  <si>
-    <t>Chine//Import</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1250,846 +366,1396 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:275">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CV1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="CX1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="CY1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="CZ1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="DA1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="DB1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="DC1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="DD1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="DE1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DF1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="DG1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="DH1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="DI1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="DJ1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="DK1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="DL1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="DM1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="DN1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="DO1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="DP1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="DQ1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="DR1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="DS1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="DT1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="DU1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DV1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="DW1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="DX1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="DY1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="DZ1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="EA1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="EB1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="EC1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="ED1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="EE1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="EF1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="EG1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="EH1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="EI1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="EJ1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="EK1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="EL1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="EM1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="EN1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="EO1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="EP1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="EQ1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="ER1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="ES1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="ET1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="EU1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="EV1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="EW1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="EX1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="EY1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="EZ1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="FA1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="FB1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="FC1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="FD1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="FE1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="FF1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="FG1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="FH1" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="FI1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="FJ1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="FK1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="FL1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="FM1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="FN1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="FO1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="FP1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="FQ1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="FR1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="FS1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="FT1" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="FU1" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="FV1" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="FW1" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="FX1" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="FY1" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="FZ1" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="GA1" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="GB1" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="GC1" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="GD1" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="GE1" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="GF1" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="GG1" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="GH1" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="GI1" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="GJ1" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="GK1" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="GL1" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="GM1" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="GN1" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="GO1" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="GP1" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="GQ1" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="GR1" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="GS1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="GT1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="GU1" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="GV1" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="GW1" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="GX1" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="GY1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="GZ1" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="HA1" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="HB1" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="HC1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="HD1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="HE1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="HF1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="HG1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="HH1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="HI1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="HJ1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="HK1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="HL1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="HM1" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="HN1" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="HO1" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="HP1" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="HQ1" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="HR1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="HS1" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="HT1" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="HU1" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="HV1" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="HW1" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="HX1" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="HY1" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="HZ1" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="IA1" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="IB1" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="IC1" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="ID1" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="IE1" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="IF1" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="IG1" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="IH1" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="II1" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="IJ1" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="IK1" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="IL1" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="IM1" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="IN1" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="IO1" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="IP1" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="IQ1" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="IR1" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="IS1" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="IT1" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="IU1" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="IV1" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="IW1" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="IX1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="IY1" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="IZ1" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="JA1" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="JB1" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="JC1" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="JD1" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="JE1" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="JF1" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="JG1" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="JH1" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="JI1" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="JJ1" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="JK1" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="JL1" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="JM1" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="JN1" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="JO1" s="1" t="s">
-        <v>273</v>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>1999-01</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>1999-02</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>1999-03</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>1999-04</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>1999-05</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>1999-06</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>1999-07</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>1999-08</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>1999-09</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>1999-10</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>1999-11</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>1999-12</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>2000-01</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>2000-02</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>2000-03</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>2000-04</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>2000-05</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>2000-06</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>2000-07</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>2000-08</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>2000-09</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>2000-10</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>2000-11</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>2000-12</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>2001-01</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>2001-02</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>2001-03</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>2001-04</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>2001-05</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>2001-06</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>2001-07</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>2001-08</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>2001-09</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>2001-10</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>2001-11</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>2001-12</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>2002-01</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>2002-02</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>2002-03</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>2002-04</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>2002-05</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>2002-06</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>2002-07</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>2002-08</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>2002-09</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>2002-10</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>2002-11</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>2002-12</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>2003-01</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>2003-02</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>2003-03</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>2003-04</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>2003-05</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>2003-06</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>2003-07</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>2003-08</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>2003-09</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>2003-10</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>2003-11</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>2003-12</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>2004-01</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>2004-02</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>2004-03</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>2004-04</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>2004-05</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>2004-06</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>2004-07</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>2004-08</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>2004-09</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>2004-10</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>2004-11</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>2004-12</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>2005-01</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>2005-02</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>2005-03</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>2005-04</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>2005-05</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>2005-06</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>2005-07</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>2005-08</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>2005-09</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>2005-10</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>2005-11</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>2005-12</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>2006-01</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>2006-02</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>2006-03</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>2006-04</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>2006-05</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>2006-06</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>2006-07</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>2006-08</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>2006-09</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>2006-10</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>2006-11</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>2006-12</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>2007-01</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>2007-02</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>2007-03</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>2007-04</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>2007-05</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>2007-06</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>2007-07</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>2007-08</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>2007-09</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>2007-10</t>
+        </is>
+      </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>2007-11</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>2007-12</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>2008-01</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>2008-02</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>2008-03</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>2008-04</t>
+        </is>
+      </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>2008-05</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>2008-06</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>2008-07</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>2008-08</t>
+        </is>
+      </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>2008-09</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
+          <t>2008-10</t>
+        </is>
+      </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>2008-11</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
+          <t>2008-12</t>
+        </is>
+      </c>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>2009-01</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>2009-02</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>2009-03</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr">
+        <is>
+          <t>2009-04</t>
+        </is>
+      </c>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>2009-05</t>
+        </is>
+      </c>
+      <c r="DW1" s="1" t="inlineStr">
+        <is>
+          <t>2009-06</t>
+        </is>
+      </c>
+      <c r="DX1" s="1" t="inlineStr">
+        <is>
+          <t>2009-07</t>
+        </is>
+      </c>
+      <c r="DY1" s="1" t="inlineStr">
+        <is>
+          <t>2009-08</t>
+        </is>
+      </c>
+      <c r="DZ1" s="1" t="inlineStr">
+        <is>
+          <t>2009-09</t>
+        </is>
+      </c>
+      <c r="EA1" s="1" t="inlineStr">
+        <is>
+          <t>2009-10</t>
+        </is>
+      </c>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
+          <t>2009-11</t>
+        </is>
+      </c>
+      <c r="EC1" s="1" t="inlineStr">
+        <is>
+          <t>2009-12</t>
+        </is>
+      </c>
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
+          <t>2010-01</t>
+        </is>
+      </c>
+      <c r="EE1" s="1" t="inlineStr">
+        <is>
+          <t>2010-02</t>
+        </is>
+      </c>
+      <c r="EF1" s="1" t="inlineStr">
+        <is>
+          <t>2010-03</t>
+        </is>
+      </c>
+      <c r="EG1" s="1" t="inlineStr">
+        <is>
+          <t>2010-04</t>
+        </is>
+      </c>
+      <c r="EH1" s="1" t="inlineStr">
+        <is>
+          <t>2010-05</t>
+        </is>
+      </c>
+      <c r="EI1" s="1" t="inlineStr">
+        <is>
+          <t>2010-06</t>
+        </is>
+      </c>
+      <c r="EJ1" s="1" t="inlineStr">
+        <is>
+          <t>2010-07</t>
+        </is>
+      </c>
+      <c r="EK1" s="1" t="inlineStr">
+        <is>
+          <t>2010-08</t>
+        </is>
+      </c>
+      <c r="EL1" s="1" t="inlineStr">
+        <is>
+          <t>2010-09</t>
+        </is>
+      </c>
+      <c r="EM1" s="1" t="inlineStr">
+        <is>
+          <t>2010-10</t>
+        </is>
+      </c>
+      <c r="EN1" s="1" t="inlineStr">
+        <is>
+          <t>2010-11</t>
+        </is>
+      </c>
+      <c r="EO1" s="1" t="inlineStr">
+        <is>
+          <t>2010-12</t>
+        </is>
+      </c>
+      <c r="EP1" s="1" t="inlineStr">
+        <is>
+          <t>2011-01</t>
+        </is>
+      </c>
+      <c r="EQ1" s="1" t="inlineStr">
+        <is>
+          <t>2011-02</t>
+        </is>
+      </c>
+      <c r="ER1" s="1" t="inlineStr">
+        <is>
+          <t>2011-03</t>
+        </is>
+      </c>
+      <c r="ES1" s="1" t="inlineStr">
+        <is>
+          <t>2011-04</t>
+        </is>
+      </c>
+      <c r="ET1" s="1" t="inlineStr">
+        <is>
+          <t>2011-05</t>
+        </is>
+      </c>
+      <c r="EU1" s="1" t="inlineStr">
+        <is>
+          <t>2011-06</t>
+        </is>
+      </c>
+      <c r="EV1" s="1" t="inlineStr">
+        <is>
+          <t>2011-07</t>
+        </is>
+      </c>
+      <c r="EW1" s="1" t="inlineStr">
+        <is>
+          <t>2011-08</t>
+        </is>
+      </c>
+      <c r="EX1" s="1" t="inlineStr">
+        <is>
+          <t>2011-09</t>
+        </is>
+      </c>
+      <c r="EY1" s="1" t="inlineStr">
+        <is>
+          <t>2011-10</t>
+        </is>
+      </c>
+      <c r="EZ1" s="1" t="inlineStr">
+        <is>
+          <t>2011-11</t>
+        </is>
+      </c>
+      <c r="FA1" s="1" t="inlineStr">
+        <is>
+          <t>2011-12</t>
+        </is>
+      </c>
+      <c r="FB1" s="1" t="inlineStr">
+        <is>
+          <t>2012-01</t>
+        </is>
+      </c>
+      <c r="FC1" s="1" t="inlineStr">
+        <is>
+          <t>2012-02</t>
+        </is>
+      </c>
+      <c r="FD1" s="1" t="inlineStr">
+        <is>
+          <t>2012-03</t>
+        </is>
+      </c>
+      <c r="FE1" s="1" t="inlineStr">
+        <is>
+          <t>2012-04</t>
+        </is>
+      </c>
+      <c r="FF1" s="1" t="inlineStr">
+        <is>
+          <t>2012-05</t>
+        </is>
+      </c>
+      <c r="FG1" s="1" t="inlineStr">
+        <is>
+          <t>2012-06</t>
+        </is>
+      </c>
+      <c r="FH1" s="1" t="inlineStr">
+        <is>
+          <t>2012-07</t>
+        </is>
+      </c>
+      <c r="FI1" s="1" t="inlineStr">
+        <is>
+          <t>2012-08</t>
+        </is>
+      </c>
+      <c r="FJ1" s="1" t="inlineStr">
+        <is>
+          <t>2012-09</t>
+        </is>
+      </c>
+      <c r="FK1" s="1" t="inlineStr">
+        <is>
+          <t>2012-10</t>
+        </is>
+      </c>
+      <c r="FL1" s="1" t="inlineStr">
+        <is>
+          <t>2012-11</t>
+        </is>
+      </c>
+      <c r="FM1" s="1" t="inlineStr">
+        <is>
+          <t>2012-12</t>
+        </is>
+      </c>
+      <c r="FN1" s="1" t="inlineStr">
+        <is>
+          <t>2013-01</t>
+        </is>
+      </c>
+      <c r="FO1" s="1" t="inlineStr">
+        <is>
+          <t>2013-02</t>
+        </is>
+      </c>
+      <c r="FP1" s="1" t="inlineStr">
+        <is>
+          <t>2013-03</t>
+        </is>
+      </c>
+      <c r="FQ1" s="1" t="inlineStr">
+        <is>
+          <t>2013-04</t>
+        </is>
+      </c>
+      <c r="FR1" s="1" t="inlineStr">
+        <is>
+          <t>2013-05</t>
+        </is>
+      </c>
+      <c r="FS1" s="1" t="inlineStr">
+        <is>
+          <t>2013-06</t>
+        </is>
+      </c>
+      <c r="FT1" s="1" t="inlineStr">
+        <is>
+          <t>2013-07</t>
+        </is>
+      </c>
+      <c r="FU1" s="1" t="inlineStr">
+        <is>
+          <t>2013-08</t>
+        </is>
+      </c>
+      <c r="FV1" s="1" t="inlineStr">
+        <is>
+          <t>2013-09</t>
+        </is>
+      </c>
+      <c r="FW1" s="1" t="inlineStr">
+        <is>
+          <t>2013-10</t>
+        </is>
+      </c>
+      <c r="FX1" s="1" t="inlineStr">
+        <is>
+          <t>2013-11</t>
+        </is>
+      </c>
+      <c r="FY1" s="1" t="inlineStr">
+        <is>
+          <t>2013-12</t>
+        </is>
+      </c>
+      <c r="FZ1" s="1" t="inlineStr">
+        <is>
+          <t>2014-01</t>
+        </is>
+      </c>
+      <c r="GA1" s="1" t="inlineStr">
+        <is>
+          <t>2014-02</t>
+        </is>
+      </c>
+      <c r="GB1" s="1" t="inlineStr">
+        <is>
+          <t>2014-03</t>
+        </is>
+      </c>
+      <c r="GC1" s="1" t="inlineStr">
+        <is>
+          <t>2014-04</t>
+        </is>
+      </c>
+      <c r="GD1" s="1" t="inlineStr">
+        <is>
+          <t>2014-05</t>
+        </is>
+      </c>
+      <c r="GE1" s="1" t="inlineStr">
+        <is>
+          <t>2014-06</t>
+        </is>
+      </c>
+      <c r="GF1" s="1" t="inlineStr">
+        <is>
+          <t>2014-07</t>
+        </is>
+      </c>
+      <c r="GG1" s="1" t="inlineStr">
+        <is>
+          <t>2014-08</t>
+        </is>
+      </c>
+      <c r="GH1" s="1" t="inlineStr">
+        <is>
+          <t>2014-09</t>
+        </is>
+      </c>
+      <c r="GI1" s="1" t="inlineStr">
+        <is>
+          <t>2014-10</t>
+        </is>
+      </c>
+      <c r="GJ1" s="1" t="inlineStr">
+        <is>
+          <t>2014-11</t>
+        </is>
+      </c>
+      <c r="GK1" s="1" t="inlineStr">
+        <is>
+          <t>2014-12</t>
+        </is>
+      </c>
+      <c r="GL1" s="1" t="inlineStr">
+        <is>
+          <t>2015-01</t>
+        </is>
+      </c>
+      <c r="GM1" s="1" t="inlineStr">
+        <is>
+          <t>2015-02</t>
+        </is>
+      </c>
+      <c r="GN1" s="1" t="inlineStr">
+        <is>
+          <t>2015-03</t>
+        </is>
+      </c>
+      <c r="GO1" s="1" t="inlineStr">
+        <is>
+          <t>2015-04</t>
+        </is>
+      </c>
+      <c r="GP1" s="1" t="inlineStr">
+        <is>
+          <t>2015-05</t>
+        </is>
+      </c>
+      <c r="GQ1" s="1" t="inlineStr">
+        <is>
+          <t>2015-06</t>
+        </is>
+      </c>
+      <c r="GR1" s="1" t="inlineStr">
+        <is>
+          <t>2015-07</t>
+        </is>
+      </c>
+      <c r="GS1" s="1" t="inlineStr">
+        <is>
+          <t>2015-08</t>
+        </is>
+      </c>
+      <c r="GT1" s="1" t="inlineStr">
+        <is>
+          <t>2015-09</t>
+        </is>
+      </c>
+      <c r="GU1" s="1" t="inlineStr">
+        <is>
+          <t>2015-10</t>
+        </is>
+      </c>
+      <c r="GV1" s="1" t="inlineStr">
+        <is>
+          <t>2015-11</t>
+        </is>
+      </c>
+      <c r="GW1" s="1" t="inlineStr">
+        <is>
+          <t>2015-12</t>
+        </is>
+      </c>
+      <c r="GX1" s="1" t="inlineStr">
+        <is>
+          <t>2016-01</t>
+        </is>
+      </c>
+      <c r="GY1" s="1" t="inlineStr">
+        <is>
+          <t>2016-02</t>
+        </is>
+      </c>
+      <c r="GZ1" s="1" t="inlineStr">
+        <is>
+          <t>2016-03</t>
+        </is>
+      </c>
+      <c r="HA1" s="1" t="inlineStr">
+        <is>
+          <t>2016-04</t>
+        </is>
+      </c>
+      <c r="HB1" s="1" t="inlineStr">
+        <is>
+          <t>2016-05</t>
+        </is>
+      </c>
+      <c r="HC1" s="1" t="inlineStr">
+        <is>
+          <t>2016-06</t>
+        </is>
+      </c>
+      <c r="HD1" s="1" t="inlineStr">
+        <is>
+          <t>2016-07</t>
+        </is>
+      </c>
+      <c r="HE1" s="1" t="inlineStr">
+        <is>
+          <t>2016-08</t>
+        </is>
+      </c>
+      <c r="HF1" s="1" t="inlineStr">
+        <is>
+          <t>2016-09</t>
+        </is>
+      </c>
+      <c r="HG1" s="1" t="inlineStr">
+        <is>
+          <t>2016-10</t>
+        </is>
+      </c>
+      <c r="HH1" s="1" t="inlineStr">
+        <is>
+          <t>2016-11</t>
+        </is>
+      </c>
+      <c r="HI1" s="1" t="inlineStr">
+        <is>
+          <t>2016-12</t>
+        </is>
+      </c>
+      <c r="HJ1" s="1" t="inlineStr">
+        <is>
+          <t>2017-01</t>
+        </is>
+      </c>
+      <c r="HK1" s="1" t="inlineStr">
+        <is>
+          <t>2017-02</t>
+        </is>
+      </c>
+      <c r="HL1" s="1" t="inlineStr">
+        <is>
+          <t>2017-03</t>
+        </is>
+      </c>
+      <c r="HM1" s="1" t="inlineStr">
+        <is>
+          <t>2017-04</t>
+        </is>
+      </c>
+      <c r="HN1" s="1" t="inlineStr">
+        <is>
+          <t>2017-05</t>
+        </is>
+      </c>
+      <c r="HO1" s="1" t="inlineStr">
+        <is>
+          <t>2017-06</t>
+        </is>
+      </c>
+      <c r="HP1" s="1" t="inlineStr">
+        <is>
+          <t>2017-07</t>
+        </is>
+      </c>
+      <c r="HQ1" s="1" t="inlineStr">
+        <is>
+          <t>2017-08</t>
+        </is>
+      </c>
+      <c r="HR1" s="1" t="inlineStr">
+        <is>
+          <t>2017-09</t>
+        </is>
+      </c>
+      <c r="HS1" s="1" t="inlineStr">
+        <is>
+          <t>2017-10</t>
+        </is>
+      </c>
+      <c r="HT1" s="1" t="inlineStr">
+        <is>
+          <t>2017-11</t>
+        </is>
+      </c>
+      <c r="HU1" s="1" t="inlineStr">
+        <is>
+          <t>2017-12</t>
+        </is>
+      </c>
+      <c r="HV1" s="1" t="inlineStr">
+        <is>
+          <t>2018-01</t>
+        </is>
+      </c>
+      <c r="HW1" s="1" t="inlineStr">
+        <is>
+          <t>2018-02</t>
+        </is>
+      </c>
+      <c r="HX1" s="1" t="inlineStr">
+        <is>
+          <t>2018-03</t>
+        </is>
+      </c>
+      <c r="HY1" s="1" t="inlineStr">
+        <is>
+          <t>2018-04</t>
+        </is>
+      </c>
+      <c r="HZ1" s="1" t="inlineStr">
+        <is>
+          <t>2018-05</t>
+        </is>
+      </c>
+      <c r="IA1" s="1" t="inlineStr">
+        <is>
+          <t>2018-06</t>
+        </is>
+      </c>
+      <c r="IB1" s="1" t="inlineStr">
+        <is>
+          <t>2018-07</t>
+        </is>
+      </c>
+      <c r="IC1" s="1" t="inlineStr">
+        <is>
+          <t>2018-08</t>
+        </is>
+      </c>
+      <c r="ID1" s="1" t="inlineStr">
+        <is>
+          <t>2018-09</t>
+        </is>
+      </c>
+      <c r="IE1" s="1" t="inlineStr">
+        <is>
+          <t>2018-10</t>
+        </is>
+      </c>
+      <c r="IF1" s="1" t="inlineStr">
+        <is>
+          <t>2018-11</t>
+        </is>
+      </c>
+      <c r="IG1" s="1" t="inlineStr">
+        <is>
+          <t>2018-12</t>
+        </is>
+      </c>
+      <c r="IH1" s="1" t="inlineStr">
+        <is>
+          <t>2019-01</t>
+        </is>
+      </c>
+      <c r="II1" s="1" t="inlineStr">
+        <is>
+          <t>2019-02</t>
+        </is>
+      </c>
+      <c r="IJ1" s="1" t="inlineStr">
+        <is>
+          <t>2019-03</t>
+        </is>
+      </c>
+      <c r="IK1" s="1" t="inlineStr">
+        <is>
+          <t>2019-04</t>
+        </is>
+      </c>
+      <c r="IL1" s="1" t="inlineStr">
+        <is>
+          <t>2019-05</t>
+        </is>
+      </c>
+      <c r="IM1" s="1" t="inlineStr">
+        <is>
+          <t>2019-06</t>
+        </is>
+      </c>
+      <c r="IN1" s="1" t="inlineStr">
+        <is>
+          <t>2019-07</t>
+        </is>
+      </c>
+      <c r="IO1" s="1" t="inlineStr">
+        <is>
+          <t>2019-08</t>
+        </is>
+      </c>
+      <c r="IP1" s="1" t="inlineStr">
+        <is>
+          <t>2019-09</t>
+        </is>
+      </c>
+      <c r="IQ1" s="1" t="inlineStr">
+        <is>
+          <t>2019-10</t>
+        </is>
+      </c>
+      <c r="IR1" s="1" t="inlineStr">
+        <is>
+          <t>2019-11</t>
+        </is>
+      </c>
+      <c r="IS1" s="1" t="inlineStr">
+        <is>
+          <t>2019-12</t>
+        </is>
+      </c>
+      <c r="IT1" s="1" t="inlineStr">
+        <is>
+          <t>2020-01</t>
+        </is>
+      </c>
+      <c r="IU1" s="1" t="inlineStr">
+        <is>
+          <t>2020-02</t>
+        </is>
+      </c>
+      <c r="IV1" s="1" t="inlineStr">
+        <is>
+          <t>2020-03</t>
+        </is>
+      </c>
+      <c r="IW1" s="1" t="inlineStr">
+        <is>
+          <t>2020-04</t>
+        </is>
+      </c>
+      <c r="IX1" s="1" t="inlineStr">
+        <is>
+          <t>2020-05</t>
+        </is>
+      </c>
+      <c r="IY1" s="1" t="inlineStr">
+        <is>
+          <t>2020-06</t>
+        </is>
+      </c>
+      <c r="IZ1" s="1" t="inlineStr">
+        <is>
+          <t>2020-07</t>
+        </is>
+      </c>
+      <c r="JA1" s="1" t="inlineStr">
+        <is>
+          <t>2020-08</t>
+        </is>
+      </c>
+      <c r="JB1" s="1" t="inlineStr">
+        <is>
+          <t>2020-09</t>
+        </is>
+      </c>
+      <c r="JC1" s="1" t="inlineStr">
+        <is>
+          <t>2020-10</t>
+        </is>
+      </c>
+      <c r="JD1" s="1" t="inlineStr">
+        <is>
+          <t>2020-11</t>
+        </is>
+      </c>
+      <c r="JE1" s="1" t="inlineStr">
+        <is>
+          <t>2020-12</t>
+        </is>
+      </c>
+      <c r="JF1" s="1" t="inlineStr">
+        <is>
+          <t>2021-01</t>
+        </is>
+      </c>
+      <c r="JG1" s="1" t="inlineStr">
+        <is>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="JH1" s="1" t="inlineStr">
+        <is>
+          <t>2021-03</t>
+        </is>
+      </c>
+      <c r="JI1" s="1" t="inlineStr">
+        <is>
+          <t>2021-04</t>
+        </is>
+      </c>
+      <c r="JJ1" s="1" t="inlineStr">
+        <is>
+          <t>2021-05</t>
+        </is>
+      </c>
+      <c r="JK1" s="1" t="inlineStr">
+        <is>
+          <t>2021-06</t>
+        </is>
+      </c>
+      <c r="JL1" s="1" t="inlineStr">
+        <is>
+          <t>2021-07</t>
+        </is>
+      </c>
+      <c r="JM1" s="1" t="inlineStr">
+        <is>
+          <t>2021-08</t>
+        </is>
+      </c>
+      <c r="JN1" s="1" t="inlineStr">
+        <is>
+          <t>2021-09</t>
+        </is>
+      </c>
+      <c r="JO1" s="1" t="inlineStr">
+        <is>
+          <t>2021-10</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:275">
-      <c r="A2" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
-      <c r="D2" t="s"/>
-      <c r="E2" t="s"/>
-      <c r="F2" t="s"/>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
-      <c r="J2" t="s"/>
-      <c r="K2" t="s"/>
-      <c r="L2" t="s"/>
-      <c r="M2" t="s"/>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Union européenne//Export</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
       <c r="N2" t="n">
         <v>15754</v>
       </c>
@@ -2877,22 +2543,24 @@
         <v>24113.243044</v>
       </c>
     </row>
-    <row r="3" spans="1:275">
-      <c r="A3" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
-      <c r="D3" t="s"/>
-      <c r="E3" t="s"/>
-      <c r="F3" t="s"/>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s"/>
-      <c r="I3" t="s"/>
-      <c r="J3" t="s"/>
-      <c r="K3" t="s"/>
-      <c r="L3" t="s"/>
-      <c r="M3" t="s"/>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Union européenne//Import</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
       <c r="N3" t="n">
         <v>15217</v>
       </c>
@@ -3680,22 +3348,24 @@
         <v>28491.58510399999</v>
       </c>
     </row>
-    <row r="4" spans="1:275">
-      <c r="A4" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
-      <c r="D4" t="s"/>
-      <c r="E4" t="s"/>
-      <c r="F4" t="s"/>
-      <c r="G4" t="s"/>
-      <c r="H4" t="s"/>
-      <c r="I4" t="s"/>
-      <c r="J4" t="s"/>
-      <c r="K4" t="s"/>
-      <c r="L4" t="s"/>
-      <c r="M4" t="s"/>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Afrique//Export</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
       <c r="N4" t="n">
         <v>1266</v>
       </c>
@@ -4483,22 +4153,24 @@
         <v>1909.699226</v>
       </c>
     </row>
-    <row r="5" spans="1:275">
-      <c r="A5" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
-      <c r="D5" t="s"/>
-      <c r="E5" t="s"/>
-      <c r="F5" t="s"/>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s"/>
-      <c r="J5" t="s"/>
-      <c r="K5" t="s"/>
-      <c r="L5" t="s"/>
-      <c r="M5" t="s"/>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Afrique//Import</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
         <v>989</v>
       </c>
@@ -5286,95 +4958,97 @@
         <v>2227.870571</v>
       </c>
     </row>
-    <row r="6" spans="1:275">
-      <c r="A6" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
-      <c r="D6" t="s"/>
-      <c r="E6" t="s"/>
-      <c r="F6" t="s"/>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s"/>
-      <c r="J6" t="s"/>
-      <c r="K6" t="s"/>
-      <c r="L6" t="s"/>
-      <c r="M6" t="s"/>
-      <c r="N6" t="s"/>
-      <c r="O6" t="s"/>
-      <c r="P6" t="s"/>
-      <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
-      <c r="S6" t="s"/>
-      <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
-      <c r="V6" t="s"/>
-      <c r="W6" t="s"/>
-      <c r="X6" t="s"/>
-      <c r="Y6" t="s"/>
-      <c r="Z6" t="s"/>
-      <c r="AA6" t="s"/>
-      <c r="AB6" t="s"/>
-      <c r="AC6" t="s"/>
-      <c r="AD6" t="s"/>
-      <c r="AE6" t="s"/>
-      <c r="AF6" t="s"/>
-      <c r="AG6" t="s"/>
-      <c r="AH6" t="s"/>
-      <c r="AI6" t="s"/>
-      <c r="AJ6" t="s"/>
-      <c r="AK6" t="s"/>
-      <c r="AL6" t="s"/>
-      <c r="AM6" t="s"/>
-      <c r="AN6" t="s"/>
-      <c r="AO6" t="s"/>
-      <c r="AP6" t="s"/>
-      <c r="AQ6" t="s"/>
-      <c r="AR6" t="s"/>
-      <c r="AS6" t="s"/>
-      <c r="AT6" t="s"/>
-      <c r="AU6" t="s"/>
-      <c r="AV6" t="s"/>
-      <c r="AW6" t="s"/>
-      <c r="AX6" t="s"/>
-      <c r="AY6" t="s"/>
-      <c r="AZ6" t="s"/>
-      <c r="BA6" t="s"/>
-      <c r="BB6" t="s"/>
-      <c r="BC6" t="s"/>
-      <c r="BD6" t="s"/>
-      <c r="BE6" t="s"/>
-      <c r="BF6" t="s"/>
-      <c r="BG6" t="s"/>
-      <c r="BH6" t="s"/>
-      <c r="BI6" t="s"/>
-      <c r="BJ6" t="s"/>
-      <c r="BK6" t="s"/>
-      <c r="BL6" t="s"/>
-      <c r="BM6" t="s"/>
-      <c r="BN6" t="s"/>
-      <c r="BO6" t="s"/>
-      <c r="BP6" t="s"/>
-      <c r="BQ6" t="s"/>
-      <c r="BR6" t="s"/>
-      <c r="BS6" t="s"/>
-      <c r="BT6" t="s"/>
-      <c r="BU6" t="s"/>
-      <c r="BV6" t="s"/>
-      <c r="BW6" t="s"/>
-      <c r="BX6" t="s"/>
-      <c r="BY6" t="s"/>
-      <c r="BZ6" t="s"/>
-      <c r="CA6" t="s"/>
-      <c r="CB6" t="s"/>
-      <c r="CC6" t="s"/>
-      <c r="CD6" t="s"/>
-      <c r="CE6" t="s"/>
-      <c r="CF6" t="s"/>
-      <c r="CG6" t="s"/>
-      <c r="CH6" t="s"/>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Allemagne//Export</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr"/>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="inlineStr"/>
+      <c r="AP6" t="inlineStr"/>
+      <c r="AQ6" t="inlineStr"/>
+      <c r="AR6" t="inlineStr"/>
+      <c r="AS6" t="inlineStr"/>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AU6" t="inlineStr"/>
+      <c r="AV6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr"/>
+      <c r="AX6" t="inlineStr"/>
+      <c r="AY6" t="inlineStr"/>
+      <c r="AZ6" t="inlineStr"/>
+      <c r="BA6" t="inlineStr"/>
+      <c r="BB6" t="inlineStr"/>
+      <c r="BC6" t="inlineStr"/>
+      <c r="BD6" t="inlineStr"/>
+      <c r="BE6" t="inlineStr"/>
+      <c r="BF6" t="inlineStr"/>
+      <c r="BG6" t="inlineStr"/>
+      <c r="BH6" t="inlineStr"/>
+      <c r="BI6" t="inlineStr"/>
+      <c r="BJ6" t="inlineStr"/>
+      <c r="BK6" t="inlineStr"/>
+      <c r="BL6" t="inlineStr"/>
+      <c r="BM6" t="inlineStr"/>
+      <c r="BN6" t="inlineStr"/>
+      <c r="BO6" t="inlineStr"/>
+      <c r="BP6" t="inlineStr"/>
+      <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
+      <c r="BS6" t="inlineStr"/>
+      <c r="BT6" t="inlineStr"/>
+      <c r="BU6" t="inlineStr"/>
+      <c r="BV6" t="inlineStr"/>
+      <c r="BW6" t="inlineStr"/>
+      <c r="BX6" t="inlineStr"/>
+      <c r="BY6" t="inlineStr"/>
+      <c r="BZ6" t="inlineStr"/>
+      <c r="CA6" t="inlineStr"/>
+      <c r="CB6" t="inlineStr"/>
+      <c r="CC6" t="inlineStr"/>
+      <c r="CD6" t="inlineStr"/>
+      <c r="CE6" t="inlineStr"/>
+      <c r="CF6" t="inlineStr"/>
+      <c r="CG6" t="inlineStr"/>
+      <c r="CH6" t="inlineStr"/>
       <c r="CI6" t="n">
         <v>4380.892</v>
       </c>
@@ -5943,95 +5617,97 @@
         <v>6371.285374999994</v>
       </c>
     </row>
-    <row r="7" spans="1:275">
-      <c r="A7" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
-      <c r="D7" t="s"/>
-      <c r="E7" t="s"/>
-      <c r="F7" t="s"/>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s"/>
-      <c r="J7" t="s"/>
-      <c r="K7" t="s"/>
-      <c r="L7" t="s"/>
-      <c r="M7" t="s"/>
-      <c r="N7" t="s"/>
-      <c r="O7" t="s"/>
-      <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
-      <c r="R7" t="s"/>
-      <c r="S7" t="s"/>
-      <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
-      <c r="V7" t="s"/>
-      <c r="W7" t="s"/>
-      <c r="X7" t="s"/>
-      <c r="Y7" t="s"/>
-      <c r="Z7" t="s"/>
-      <c r="AA7" t="s"/>
-      <c r="AB7" t="s"/>
-      <c r="AC7" t="s"/>
-      <c r="AD7" t="s"/>
-      <c r="AE7" t="s"/>
-      <c r="AF7" t="s"/>
-      <c r="AG7" t="s"/>
-      <c r="AH7" t="s"/>
-      <c r="AI7" t="s"/>
-      <c r="AJ7" t="s"/>
-      <c r="AK7" t="s"/>
-      <c r="AL7" t="s"/>
-      <c r="AM7" t="s"/>
-      <c r="AN7" t="s"/>
-      <c r="AO7" t="s"/>
-      <c r="AP7" t="s"/>
-      <c r="AQ7" t="s"/>
-      <c r="AR7" t="s"/>
-      <c r="AS7" t="s"/>
-      <c r="AT7" t="s"/>
-      <c r="AU7" t="s"/>
-      <c r="AV7" t="s"/>
-      <c r="AW7" t="s"/>
-      <c r="AX7" t="s"/>
-      <c r="AY7" t="s"/>
-      <c r="AZ7" t="s"/>
-      <c r="BA7" t="s"/>
-      <c r="BB7" t="s"/>
-      <c r="BC7" t="s"/>
-      <c r="BD7" t="s"/>
-      <c r="BE7" t="s"/>
-      <c r="BF7" t="s"/>
-      <c r="BG7" t="s"/>
-      <c r="BH7" t="s"/>
-      <c r="BI7" t="s"/>
-      <c r="BJ7" t="s"/>
-      <c r="BK7" t="s"/>
-      <c r="BL7" t="s"/>
-      <c r="BM7" t="s"/>
-      <c r="BN7" t="s"/>
-      <c r="BO7" t="s"/>
-      <c r="BP7" t="s"/>
-      <c r="BQ7" t="s"/>
-      <c r="BR7" t="s"/>
-      <c r="BS7" t="s"/>
-      <c r="BT7" t="s"/>
-      <c r="BU7" t="s"/>
-      <c r="BV7" t="s"/>
-      <c r="BW7" t="s"/>
-      <c r="BX7" t="s"/>
-      <c r="BY7" t="s"/>
-      <c r="BZ7" t="s"/>
-      <c r="CA7" t="s"/>
-      <c r="CB7" t="s"/>
-      <c r="CC7" t="s"/>
-      <c r="CD7" t="s"/>
-      <c r="CE7" t="s"/>
-      <c r="CF7" t="s"/>
-      <c r="CG7" t="s"/>
-      <c r="CH7" t="s"/>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Allemagne//Import</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="inlineStr"/>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="inlineStr"/>
+      <c r="AP7" t="inlineStr"/>
+      <c r="AQ7" t="inlineStr"/>
+      <c r="AR7" t="inlineStr"/>
+      <c r="AS7" t="inlineStr"/>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AU7" t="inlineStr"/>
+      <c r="AV7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr"/>
+      <c r="AX7" t="inlineStr"/>
+      <c r="AY7" t="inlineStr"/>
+      <c r="AZ7" t="inlineStr"/>
+      <c r="BA7" t="inlineStr"/>
+      <c r="BB7" t="inlineStr"/>
+      <c r="BC7" t="inlineStr"/>
+      <c r="BD7" t="inlineStr"/>
+      <c r="BE7" t="inlineStr"/>
+      <c r="BF7" t="inlineStr"/>
+      <c r="BG7" t="inlineStr"/>
+      <c r="BH7" t="inlineStr"/>
+      <c r="BI7" t="inlineStr"/>
+      <c r="BJ7" t="inlineStr"/>
+      <c r="BK7" t="inlineStr"/>
+      <c r="BL7" t="inlineStr"/>
+      <c r="BM7" t="inlineStr"/>
+      <c r="BN7" t="inlineStr"/>
+      <c r="BO7" t="inlineStr"/>
+      <c r="BP7" t="inlineStr"/>
+      <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
+      <c r="BS7" t="inlineStr"/>
+      <c r="BT7" t="inlineStr"/>
+      <c r="BU7" t="inlineStr"/>
+      <c r="BV7" t="inlineStr"/>
+      <c r="BW7" t="inlineStr"/>
+      <c r="BX7" t="inlineStr"/>
+      <c r="BY7" t="inlineStr"/>
+      <c r="BZ7" t="inlineStr"/>
+      <c r="CA7" t="inlineStr"/>
+      <c r="CB7" t="inlineStr"/>
+      <c r="CC7" t="inlineStr"/>
+      <c r="CD7" t="inlineStr"/>
+      <c r="CE7" t="inlineStr"/>
+      <c r="CF7" t="inlineStr"/>
+      <c r="CG7" t="inlineStr"/>
+      <c r="CH7" t="inlineStr"/>
       <c r="CI7" t="n">
         <v>5584.064</v>
       </c>
@@ -6600,95 +6276,97 @@
         <v>7001.380072999982</v>
       </c>
     </row>
-    <row r="8" spans="1:275">
-      <c r="A8" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
-      <c r="D8" t="s"/>
-      <c r="E8" t="s"/>
-      <c r="F8" t="s"/>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s"/>
-      <c r="J8" t="s"/>
-      <c r="K8" t="s"/>
-      <c r="L8" t="s"/>
-      <c r="M8" t="s"/>
-      <c r="N8" t="s"/>
-      <c r="O8" t="s"/>
-      <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
-      <c r="S8" t="s"/>
-      <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
-      <c r="V8" t="s"/>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
-      <c r="Y8" t="s"/>
-      <c r="Z8" t="s"/>
-      <c r="AA8" t="s"/>
-      <c r="AB8" t="s"/>
-      <c r="AC8" t="s"/>
-      <c r="AD8" t="s"/>
-      <c r="AE8" t="s"/>
-      <c r="AF8" t="s"/>
-      <c r="AG8" t="s"/>
-      <c r="AH8" t="s"/>
-      <c r="AI8" t="s"/>
-      <c r="AJ8" t="s"/>
-      <c r="AK8" t="s"/>
-      <c r="AL8" t="s"/>
-      <c r="AM8" t="s"/>
-      <c r="AN8" t="s"/>
-      <c r="AO8" t="s"/>
-      <c r="AP8" t="s"/>
-      <c r="AQ8" t="s"/>
-      <c r="AR8" t="s"/>
-      <c r="AS8" t="s"/>
-      <c r="AT8" t="s"/>
-      <c r="AU8" t="s"/>
-      <c r="AV8" t="s"/>
-      <c r="AW8" t="s"/>
-      <c r="AX8" t="s"/>
-      <c r="AY8" t="s"/>
-      <c r="AZ8" t="s"/>
-      <c r="BA8" t="s"/>
-      <c r="BB8" t="s"/>
-      <c r="BC8" t="s"/>
-      <c r="BD8" t="s"/>
-      <c r="BE8" t="s"/>
-      <c r="BF8" t="s"/>
-      <c r="BG8" t="s"/>
-      <c r="BH8" t="s"/>
-      <c r="BI8" t="s"/>
-      <c r="BJ8" t="s"/>
-      <c r="BK8" t="s"/>
-      <c r="BL8" t="s"/>
-      <c r="BM8" t="s"/>
-      <c r="BN8" t="s"/>
-      <c r="BO8" t="s"/>
-      <c r="BP8" t="s"/>
-      <c r="BQ8" t="s"/>
-      <c r="BR8" t="s"/>
-      <c r="BS8" t="s"/>
-      <c r="BT8" t="s"/>
-      <c r="BU8" t="s"/>
-      <c r="BV8" t="s"/>
-      <c r="BW8" t="s"/>
-      <c r="BX8" t="s"/>
-      <c r="BY8" t="s"/>
-      <c r="BZ8" t="s"/>
-      <c r="CA8" t="s"/>
-      <c r="CB8" t="s"/>
-      <c r="CC8" t="s"/>
-      <c r="CD8" t="s"/>
-      <c r="CE8" t="s"/>
-      <c r="CF8" t="s"/>
-      <c r="CG8" t="s"/>
-      <c r="CH8" t="s"/>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Italie//Export</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr"/>
+      <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="inlineStr"/>
+      <c r="AP8" t="inlineStr"/>
+      <c r="AQ8" t="inlineStr"/>
+      <c r="AR8" t="inlineStr"/>
+      <c r="AS8" t="inlineStr"/>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AU8" t="inlineStr"/>
+      <c r="AV8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr"/>
+      <c r="AX8" t="inlineStr"/>
+      <c r="AY8" t="inlineStr"/>
+      <c r="AZ8" t="inlineStr"/>
+      <c r="BA8" t="inlineStr"/>
+      <c r="BB8" t="inlineStr"/>
+      <c r="BC8" t="inlineStr"/>
+      <c r="BD8" t="inlineStr"/>
+      <c r="BE8" t="inlineStr"/>
+      <c r="BF8" t="inlineStr"/>
+      <c r="BG8" t="inlineStr"/>
+      <c r="BH8" t="inlineStr"/>
+      <c r="BI8" t="inlineStr"/>
+      <c r="BJ8" t="inlineStr"/>
+      <c r="BK8" t="inlineStr"/>
+      <c r="BL8" t="inlineStr"/>
+      <c r="BM8" t="inlineStr"/>
+      <c r="BN8" t="inlineStr"/>
+      <c r="BO8" t="inlineStr"/>
+      <c r="BP8" t="inlineStr"/>
+      <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
+      <c r="BS8" t="inlineStr"/>
+      <c r="BT8" t="inlineStr"/>
+      <c r="BU8" t="inlineStr"/>
+      <c r="BV8" t="inlineStr"/>
+      <c r="BW8" t="inlineStr"/>
+      <c r="BX8" t="inlineStr"/>
+      <c r="BY8" t="inlineStr"/>
+      <c r="BZ8" t="inlineStr"/>
+      <c r="CA8" t="inlineStr"/>
+      <c r="CB8" t="inlineStr"/>
+      <c r="CC8" t="inlineStr"/>
+      <c r="CD8" t="inlineStr"/>
+      <c r="CE8" t="inlineStr"/>
+      <c r="CF8" t="inlineStr"/>
+      <c r="CG8" t="inlineStr"/>
+      <c r="CH8" t="inlineStr"/>
       <c r="CI8" t="n">
         <v>2988.792</v>
       </c>
@@ -7257,95 +6935,97 @@
         <v>3522.453802</v>
       </c>
     </row>
-    <row r="9" spans="1:275">
-      <c r="A9" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
-      <c r="D9" t="s"/>
-      <c r="E9" t="s"/>
-      <c r="F9" t="s"/>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s"/>
-      <c r="J9" t="s"/>
-      <c r="K9" t="s"/>
-      <c r="L9" t="s"/>
-      <c r="M9" t="s"/>
-      <c r="N9" t="s"/>
-      <c r="O9" t="s"/>
-      <c r="P9" t="s"/>
-      <c r="Q9" t="s"/>
-      <c r="R9" t="s"/>
-      <c r="S9" t="s"/>
-      <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
-      <c r="V9" t="s"/>
-      <c r="W9" t="s"/>
-      <c r="X9" t="s"/>
-      <c r="Y9" t="s"/>
-      <c r="Z9" t="s"/>
-      <c r="AA9" t="s"/>
-      <c r="AB9" t="s"/>
-      <c r="AC9" t="s"/>
-      <c r="AD9" t="s"/>
-      <c r="AE9" t="s"/>
-      <c r="AF9" t="s"/>
-      <c r="AG9" t="s"/>
-      <c r="AH9" t="s"/>
-      <c r="AI9" t="s"/>
-      <c r="AJ9" t="s"/>
-      <c r="AK9" t="s"/>
-      <c r="AL9" t="s"/>
-      <c r="AM9" t="s"/>
-      <c r="AN9" t="s"/>
-      <c r="AO9" t="s"/>
-      <c r="AP9" t="s"/>
-      <c r="AQ9" t="s"/>
-      <c r="AR9" t="s"/>
-      <c r="AS9" t="s"/>
-      <c r="AT9" t="s"/>
-      <c r="AU9" t="s"/>
-      <c r="AV9" t="s"/>
-      <c r="AW9" t="s"/>
-      <c r="AX9" t="s"/>
-      <c r="AY9" t="s"/>
-      <c r="AZ9" t="s"/>
-      <c r="BA9" t="s"/>
-      <c r="BB9" t="s"/>
-      <c r="BC9" t="s"/>
-      <c r="BD9" t="s"/>
-      <c r="BE9" t="s"/>
-      <c r="BF9" t="s"/>
-      <c r="BG9" t="s"/>
-      <c r="BH9" t="s"/>
-      <c r="BI9" t="s"/>
-      <c r="BJ9" t="s"/>
-      <c r="BK9" t="s"/>
-      <c r="BL9" t="s"/>
-      <c r="BM9" t="s"/>
-      <c r="BN9" t="s"/>
-      <c r="BO9" t="s"/>
-      <c r="BP9" t="s"/>
-      <c r="BQ9" t="s"/>
-      <c r="BR9" t="s"/>
-      <c r="BS9" t="s"/>
-      <c r="BT9" t="s"/>
-      <c r="BU9" t="s"/>
-      <c r="BV9" t="s"/>
-      <c r="BW9" t="s"/>
-      <c r="BX9" t="s"/>
-      <c r="BY9" t="s"/>
-      <c r="BZ9" t="s"/>
-      <c r="CA9" t="s"/>
-      <c r="CB9" t="s"/>
-      <c r="CC9" t="s"/>
-      <c r="CD9" t="s"/>
-      <c r="CE9" t="s"/>
-      <c r="CF9" t="s"/>
-      <c r="CG9" t="s"/>
-      <c r="CH9" t="s"/>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Italie//Import</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr"/>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="inlineStr"/>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="inlineStr"/>
+      <c r="AP9" t="inlineStr"/>
+      <c r="AQ9" t="inlineStr"/>
+      <c r="AR9" t="inlineStr"/>
+      <c r="AS9" t="inlineStr"/>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AU9" t="inlineStr"/>
+      <c r="AV9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr"/>
+      <c r="AX9" t="inlineStr"/>
+      <c r="AY9" t="inlineStr"/>
+      <c r="AZ9" t="inlineStr"/>
+      <c r="BA9" t="inlineStr"/>
+      <c r="BB9" t="inlineStr"/>
+      <c r="BC9" t="inlineStr"/>
+      <c r="BD9" t="inlineStr"/>
+      <c r="BE9" t="inlineStr"/>
+      <c r="BF9" t="inlineStr"/>
+      <c r="BG9" t="inlineStr"/>
+      <c r="BH9" t="inlineStr"/>
+      <c r="BI9" t="inlineStr"/>
+      <c r="BJ9" t="inlineStr"/>
+      <c r="BK9" t="inlineStr"/>
+      <c r="BL9" t="inlineStr"/>
+      <c r="BM9" t="inlineStr"/>
+      <c r="BN9" t="inlineStr"/>
+      <c r="BO9" t="inlineStr"/>
+      <c r="BP9" t="inlineStr"/>
+      <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
+      <c r="BS9" t="inlineStr"/>
+      <c r="BT9" t="inlineStr"/>
+      <c r="BU9" t="inlineStr"/>
+      <c r="BV9" t="inlineStr"/>
+      <c r="BW9" t="inlineStr"/>
+      <c r="BX9" t="inlineStr"/>
+      <c r="BY9" t="inlineStr"/>
+      <c r="BZ9" t="inlineStr"/>
+      <c r="CA9" t="inlineStr"/>
+      <c r="CB9" t="inlineStr"/>
+      <c r="CC9" t="inlineStr"/>
+      <c r="CD9" t="inlineStr"/>
+      <c r="CE9" t="inlineStr"/>
+      <c r="CF9" t="inlineStr"/>
+      <c r="CG9" t="inlineStr"/>
+      <c r="CH9" t="inlineStr"/>
       <c r="CI9" t="n">
         <v>3007.068</v>
       </c>
@@ -7914,95 +7594,97 @@
         <v>3985.925334</v>
       </c>
     </row>
-    <row r="10" spans="1:275">
-      <c r="A10" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
-      <c r="D10" t="s"/>
-      <c r="E10" t="s"/>
-      <c r="F10" t="s"/>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s"/>
-      <c r="J10" t="s"/>
-      <c r="K10" t="s"/>
-      <c r="L10" t="s"/>
-      <c r="M10" t="s"/>
-      <c r="N10" t="s"/>
-      <c r="O10" t="s"/>
-      <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
-      <c r="S10" t="s"/>
-      <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
-      <c r="V10" t="s"/>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
-      <c r="Y10" t="s"/>
-      <c r="Z10" t="s"/>
-      <c r="AA10" t="s"/>
-      <c r="AB10" t="s"/>
-      <c r="AC10" t="s"/>
-      <c r="AD10" t="s"/>
-      <c r="AE10" t="s"/>
-      <c r="AF10" t="s"/>
-      <c r="AG10" t="s"/>
-      <c r="AH10" t="s"/>
-      <c r="AI10" t="s"/>
-      <c r="AJ10" t="s"/>
-      <c r="AK10" t="s"/>
-      <c r="AL10" t="s"/>
-      <c r="AM10" t="s"/>
-      <c r="AN10" t="s"/>
-      <c r="AO10" t="s"/>
-      <c r="AP10" t="s"/>
-      <c r="AQ10" t="s"/>
-      <c r="AR10" t="s"/>
-      <c r="AS10" t="s"/>
-      <c r="AT10" t="s"/>
-      <c r="AU10" t="s"/>
-      <c r="AV10" t="s"/>
-      <c r="AW10" t="s"/>
-      <c r="AX10" t="s"/>
-      <c r="AY10" t="s"/>
-      <c r="AZ10" t="s"/>
-      <c r="BA10" t="s"/>
-      <c r="BB10" t="s"/>
-      <c r="BC10" t="s"/>
-      <c r="BD10" t="s"/>
-      <c r="BE10" t="s"/>
-      <c r="BF10" t="s"/>
-      <c r="BG10" t="s"/>
-      <c r="BH10" t="s"/>
-      <c r="BI10" t="s"/>
-      <c r="BJ10" t="s"/>
-      <c r="BK10" t="s"/>
-      <c r="BL10" t="s"/>
-      <c r="BM10" t="s"/>
-      <c r="BN10" t="s"/>
-      <c r="BO10" t="s"/>
-      <c r="BP10" t="s"/>
-      <c r="BQ10" t="s"/>
-      <c r="BR10" t="s"/>
-      <c r="BS10" t="s"/>
-      <c r="BT10" t="s"/>
-      <c r="BU10" t="s"/>
-      <c r="BV10" t="s"/>
-      <c r="BW10" t="s"/>
-      <c r="BX10" t="s"/>
-      <c r="BY10" t="s"/>
-      <c r="BZ10" t="s"/>
-      <c r="CA10" t="s"/>
-      <c r="CB10" t="s"/>
-      <c r="CC10" t="s"/>
-      <c r="CD10" t="s"/>
-      <c r="CE10" t="s"/>
-      <c r="CF10" t="s"/>
-      <c r="CG10" t="s"/>
-      <c r="CH10" t="s"/>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Royaume-Uni//Export</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="inlineStr"/>
+      <c r="AH10" t="inlineStr"/>
+      <c r="AI10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="inlineStr"/>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr"/>
+      <c r="AO10" t="inlineStr"/>
+      <c r="AP10" t="inlineStr"/>
+      <c r="AQ10" t="inlineStr"/>
+      <c r="AR10" t="inlineStr"/>
+      <c r="AS10" t="inlineStr"/>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AU10" t="inlineStr"/>
+      <c r="AV10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr"/>
+      <c r="AX10" t="inlineStr"/>
+      <c r="AY10" t="inlineStr"/>
+      <c r="AZ10" t="inlineStr"/>
+      <c r="BA10" t="inlineStr"/>
+      <c r="BB10" t="inlineStr"/>
+      <c r="BC10" t="inlineStr"/>
+      <c r="BD10" t="inlineStr"/>
+      <c r="BE10" t="inlineStr"/>
+      <c r="BF10" t="inlineStr"/>
+      <c r="BG10" t="inlineStr"/>
+      <c r="BH10" t="inlineStr"/>
+      <c r="BI10" t="inlineStr"/>
+      <c r="BJ10" t="inlineStr"/>
+      <c r="BK10" t="inlineStr"/>
+      <c r="BL10" t="inlineStr"/>
+      <c r="BM10" t="inlineStr"/>
+      <c r="BN10" t="inlineStr"/>
+      <c r="BO10" t="inlineStr"/>
+      <c r="BP10" t="inlineStr"/>
+      <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
+      <c r="BS10" t="inlineStr"/>
+      <c r="BT10" t="inlineStr"/>
+      <c r="BU10" t="inlineStr"/>
+      <c r="BV10" t="inlineStr"/>
+      <c r="BW10" t="inlineStr"/>
+      <c r="BX10" t="inlineStr"/>
+      <c r="BY10" t="inlineStr"/>
+      <c r="BZ10" t="inlineStr"/>
+      <c r="CA10" t="inlineStr"/>
+      <c r="CB10" t="inlineStr"/>
+      <c r="CC10" t="inlineStr"/>
+      <c r="CD10" t="inlineStr"/>
+      <c r="CE10" t="inlineStr"/>
+      <c r="CF10" t="inlineStr"/>
+      <c r="CG10" t="inlineStr"/>
+      <c r="CH10" t="inlineStr"/>
       <c r="CI10" t="n">
         <v>2553.672</v>
       </c>
@@ -8571,95 +8253,97 @@
         <v>2675.387301</v>
       </c>
     </row>
-    <row r="11" spans="1:275">
-      <c r="A11" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
-      <c r="D11" t="s"/>
-      <c r="E11" t="s"/>
-      <c r="F11" t="s"/>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s"/>
-      <c r="J11" t="s"/>
-      <c r="K11" t="s"/>
-      <c r="L11" t="s"/>
-      <c r="M11" t="s"/>
-      <c r="N11" t="s"/>
-      <c r="O11" t="s"/>
-      <c r="P11" t="s"/>
-      <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
-      <c r="S11" t="s"/>
-      <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
-      <c r="V11" t="s"/>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
-      <c r="Y11" t="s"/>
-      <c r="Z11" t="s"/>
-      <c r="AA11" t="s"/>
-      <c r="AB11" t="s"/>
-      <c r="AC11" t="s"/>
-      <c r="AD11" t="s"/>
-      <c r="AE11" t="s"/>
-      <c r="AF11" t="s"/>
-      <c r="AG11" t="s"/>
-      <c r="AH11" t="s"/>
-      <c r="AI11" t="s"/>
-      <c r="AJ11" t="s"/>
-      <c r="AK11" t="s"/>
-      <c r="AL11" t="s"/>
-      <c r="AM11" t="s"/>
-      <c r="AN11" t="s"/>
-      <c r="AO11" t="s"/>
-      <c r="AP11" t="s"/>
-      <c r="AQ11" t="s"/>
-      <c r="AR11" t="s"/>
-      <c r="AS11" t="s"/>
-      <c r="AT11" t="s"/>
-      <c r="AU11" t="s"/>
-      <c r="AV11" t="s"/>
-      <c r="AW11" t="s"/>
-      <c r="AX11" t="s"/>
-      <c r="AY11" t="s"/>
-      <c r="AZ11" t="s"/>
-      <c r="BA11" t="s"/>
-      <c r="BB11" t="s"/>
-      <c r="BC11" t="s"/>
-      <c r="BD11" t="s"/>
-      <c r="BE11" t="s"/>
-      <c r="BF11" t="s"/>
-      <c r="BG11" t="s"/>
-      <c r="BH11" t="s"/>
-      <c r="BI11" t="s"/>
-      <c r="BJ11" t="s"/>
-      <c r="BK11" t="s"/>
-      <c r="BL11" t="s"/>
-      <c r="BM11" t="s"/>
-      <c r="BN11" t="s"/>
-      <c r="BO11" t="s"/>
-      <c r="BP11" t="s"/>
-      <c r="BQ11" t="s"/>
-      <c r="BR11" t="s"/>
-      <c r="BS11" t="s"/>
-      <c r="BT11" t="s"/>
-      <c r="BU11" t="s"/>
-      <c r="BV11" t="s"/>
-      <c r="BW11" t="s"/>
-      <c r="BX11" t="s"/>
-      <c r="BY11" t="s"/>
-      <c r="BZ11" t="s"/>
-      <c r="CA11" t="s"/>
-      <c r="CB11" t="s"/>
-      <c r="CC11" t="s"/>
-      <c r="CD11" t="s"/>
-      <c r="CE11" t="s"/>
-      <c r="CF11" t="s"/>
-      <c r="CG11" t="s"/>
-      <c r="CH11" t="s"/>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Royaume-Uni//Import</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="inlineStr"/>
+      <c r="AH11" t="inlineStr"/>
+      <c r="AI11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="inlineStr"/>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr"/>
+      <c r="AO11" t="inlineStr"/>
+      <c r="AP11" t="inlineStr"/>
+      <c r="AQ11" t="inlineStr"/>
+      <c r="AR11" t="inlineStr"/>
+      <c r="AS11" t="inlineStr"/>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AU11" t="inlineStr"/>
+      <c r="AV11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr"/>
+      <c r="AX11" t="inlineStr"/>
+      <c r="AY11" t="inlineStr"/>
+      <c r="AZ11" t="inlineStr"/>
+      <c r="BA11" t="inlineStr"/>
+      <c r="BB11" t="inlineStr"/>
+      <c r="BC11" t="inlineStr"/>
+      <c r="BD11" t="inlineStr"/>
+      <c r="BE11" t="inlineStr"/>
+      <c r="BF11" t="inlineStr"/>
+      <c r="BG11" t="inlineStr"/>
+      <c r="BH11" t="inlineStr"/>
+      <c r="BI11" t="inlineStr"/>
+      <c r="BJ11" t="inlineStr"/>
+      <c r="BK11" t="inlineStr"/>
+      <c r="BL11" t="inlineStr"/>
+      <c r="BM11" t="inlineStr"/>
+      <c r="BN11" t="inlineStr"/>
+      <c r="BO11" t="inlineStr"/>
+      <c r="BP11" t="inlineStr"/>
+      <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
+      <c r="BS11" t="inlineStr"/>
+      <c r="BT11" t="inlineStr"/>
+      <c r="BU11" t="inlineStr"/>
+      <c r="BV11" t="inlineStr"/>
+      <c r="BW11" t="inlineStr"/>
+      <c r="BX11" t="inlineStr"/>
+      <c r="BY11" t="inlineStr"/>
+      <c r="BZ11" t="inlineStr"/>
+      <c r="CA11" t="inlineStr"/>
+      <c r="CB11" t="inlineStr"/>
+      <c r="CC11" t="inlineStr"/>
+      <c r="CD11" t="inlineStr"/>
+      <c r="CE11" t="inlineStr"/>
+      <c r="CF11" t="inlineStr"/>
+      <c r="CG11" t="inlineStr"/>
+      <c r="CH11" t="inlineStr"/>
       <c r="CI11" t="n">
         <v>2294.569</v>
       </c>
@@ -9228,95 +8912,97 @@
         <v>1897.484708</v>
       </c>
     </row>
-    <row r="12" spans="1:275">
-      <c r="A12" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
-      <c r="D12" t="s"/>
-      <c r="E12" t="s"/>
-      <c r="F12" t="s"/>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s"/>
-      <c r="J12" t="s"/>
-      <c r="K12" t="s"/>
-      <c r="L12" t="s"/>
-      <c r="M12" t="s"/>
-      <c r="N12" t="s"/>
-      <c r="O12" t="s"/>
-      <c r="P12" t="s"/>
-      <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
-      <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
-      <c r="V12" t="s"/>
-      <c r="W12" t="s"/>
-      <c r="X12" t="s"/>
-      <c r="Y12" t="s"/>
-      <c r="Z12" t="s"/>
-      <c r="AA12" t="s"/>
-      <c r="AB12" t="s"/>
-      <c r="AC12" t="s"/>
-      <c r="AD12" t="s"/>
-      <c r="AE12" t="s"/>
-      <c r="AF12" t="s"/>
-      <c r="AG12" t="s"/>
-      <c r="AH12" t="s"/>
-      <c r="AI12" t="s"/>
-      <c r="AJ12" t="s"/>
-      <c r="AK12" t="s"/>
-      <c r="AL12" t="s"/>
-      <c r="AM12" t="s"/>
-      <c r="AN12" t="s"/>
-      <c r="AO12" t="s"/>
-      <c r="AP12" t="s"/>
-      <c r="AQ12" t="s"/>
-      <c r="AR12" t="s"/>
-      <c r="AS12" t="s"/>
-      <c r="AT12" t="s"/>
-      <c r="AU12" t="s"/>
-      <c r="AV12" t="s"/>
-      <c r="AW12" t="s"/>
-      <c r="AX12" t="s"/>
-      <c r="AY12" t="s"/>
-      <c r="AZ12" t="s"/>
-      <c r="BA12" t="s"/>
-      <c r="BB12" t="s"/>
-      <c r="BC12" t="s"/>
-      <c r="BD12" t="s"/>
-      <c r="BE12" t="s"/>
-      <c r="BF12" t="s"/>
-      <c r="BG12" t="s"/>
-      <c r="BH12" t="s"/>
-      <c r="BI12" t="s"/>
-      <c r="BJ12" t="s"/>
-      <c r="BK12" t="s"/>
-      <c r="BL12" t="s"/>
-      <c r="BM12" t="s"/>
-      <c r="BN12" t="s"/>
-      <c r="BO12" t="s"/>
-      <c r="BP12" t="s"/>
-      <c r="BQ12" t="s"/>
-      <c r="BR12" t="s"/>
-      <c r="BS12" t="s"/>
-      <c r="BT12" t="s"/>
-      <c r="BU12" t="s"/>
-      <c r="BV12" t="s"/>
-      <c r="BW12" t="s"/>
-      <c r="BX12" t="s"/>
-      <c r="BY12" t="s"/>
-      <c r="BZ12" t="s"/>
-      <c r="CA12" t="s"/>
-      <c r="CB12" t="s"/>
-      <c r="CC12" t="s"/>
-      <c r="CD12" t="s"/>
-      <c r="CE12" t="s"/>
-      <c r="CF12" t="s"/>
-      <c r="CG12" t="s"/>
-      <c r="CH12" t="s"/>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>EUAN (Etats Unis d'Amérique du Nord)//Export</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr"/>
+      <c r="AE12" t="inlineStr"/>
+      <c r="AF12" t="inlineStr"/>
+      <c r="AG12" t="inlineStr"/>
+      <c r="AH12" t="inlineStr"/>
+      <c r="AI12" t="inlineStr"/>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="inlineStr"/>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr"/>
+      <c r="AO12" t="inlineStr"/>
+      <c r="AP12" t="inlineStr"/>
+      <c r="AQ12" t="inlineStr"/>
+      <c r="AR12" t="inlineStr"/>
+      <c r="AS12" t="inlineStr"/>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AU12" t="inlineStr"/>
+      <c r="AV12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr"/>
+      <c r="AX12" t="inlineStr"/>
+      <c r="AY12" t="inlineStr"/>
+      <c r="AZ12" t="inlineStr"/>
+      <c r="BA12" t="inlineStr"/>
+      <c r="BB12" t="inlineStr"/>
+      <c r="BC12" t="inlineStr"/>
+      <c r="BD12" t="inlineStr"/>
+      <c r="BE12" t="inlineStr"/>
+      <c r="BF12" t="inlineStr"/>
+      <c r="BG12" t="inlineStr"/>
+      <c r="BH12" t="inlineStr"/>
+      <c r="BI12" t="inlineStr"/>
+      <c r="BJ12" t="inlineStr"/>
+      <c r="BK12" t="inlineStr"/>
+      <c r="BL12" t="inlineStr"/>
+      <c r="BM12" t="inlineStr"/>
+      <c r="BN12" t="inlineStr"/>
+      <c r="BO12" t="inlineStr"/>
+      <c r="BP12" t="inlineStr"/>
+      <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
+      <c r="BS12" t="inlineStr"/>
+      <c r="BT12" t="inlineStr"/>
+      <c r="BU12" t="inlineStr"/>
+      <c r="BV12" t="inlineStr"/>
+      <c r="BW12" t="inlineStr"/>
+      <c r="BX12" t="inlineStr"/>
+      <c r="BY12" t="inlineStr"/>
+      <c r="BZ12" t="inlineStr"/>
+      <c r="CA12" t="inlineStr"/>
+      <c r="CB12" t="inlineStr"/>
+      <c r="CC12" t="inlineStr"/>
+      <c r="CD12" t="inlineStr"/>
+      <c r="CE12" t="inlineStr"/>
+      <c r="CF12" t="inlineStr"/>
+      <c r="CG12" t="inlineStr"/>
+      <c r="CH12" t="inlineStr"/>
       <c r="CI12" t="n">
         <v>2287.229</v>
       </c>
@@ -9885,95 +9571,97 @@
         <v>3244.553962</v>
       </c>
     </row>
-    <row r="13" spans="1:275">
-      <c r="A13" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
-      <c r="D13" t="s"/>
-      <c r="E13" t="s"/>
-      <c r="F13" t="s"/>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s"/>
-      <c r="J13" t="s"/>
-      <c r="K13" t="s"/>
-      <c r="L13" t="s"/>
-      <c r="M13" t="s"/>
-      <c r="N13" t="s"/>
-      <c r="O13" t="s"/>
-      <c r="P13" t="s"/>
-      <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
-      <c r="S13" t="s"/>
-      <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
-      <c r="V13" t="s"/>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
-      <c r="Y13" t="s"/>
-      <c r="Z13" t="s"/>
-      <c r="AA13" t="s"/>
-      <c r="AB13" t="s"/>
-      <c r="AC13" t="s"/>
-      <c r="AD13" t="s"/>
-      <c r="AE13" t="s"/>
-      <c r="AF13" t="s"/>
-      <c r="AG13" t="s"/>
-      <c r="AH13" t="s"/>
-      <c r="AI13" t="s"/>
-      <c r="AJ13" t="s"/>
-      <c r="AK13" t="s"/>
-      <c r="AL13" t="s"/>
-      <c r="AM13" t="s"/>
-      <c r="AN13" t="s"/>
-      <c r="AO13" t="s"/>
-      <c r="AP13" t="s"/>
-      <c r="AQ13" t="s"/>
-      <c r="AR13" t="s"/>
-      <c r="AS13" t="s"/>
-      <c r="AT13" t="s"/>
-      <c r="AU13" t="s"/>
-      <c r="AV13" t="s"/>
-      <c r="AW13" t="s"/>
-      <c r="AX13" t="s"/>
-      <c r="AY13" t="s"/>
-      <c r="AZ13" t="s"/>
-      <c r="BA13" t="s"/>
-      <c r="BB13" t="s"/>
-      <c r="BC13" t="s"/>
-      <c r="BD13" t="s"/>
-      <c r="BE13" t="s"/>
-      <c r="BF13" t="s"/>
-      <c r="BG13" t="s"/>
-      <c r="BH13" t="s"/>
-      <c r="BI13" t="s"/>
-      <c r="BJ13" t="s"/>
-      <c r="BK13" t="s"/>
-      <c r="BL13" t="s"/>
-      <c r="BM13" t="s"/>
-      <c r="BN13" t="s"/>
-      <c r="BO13" t="s"/>
-      <c r="BP13" t="s"/>
-      <c r="BQ13" t="s"/>
-      <c r="BR13" t="s"/>
-      <c r="BS13" t="s"/>
-      <c r="BT13" t="s"/>
-      <c r="BU13" t="s"/>
-      <c r="BV13" t="s"/>
-      <c r="BW13" t="s"/>
-      <c r="BX13" t="s"/>
-      <c r="BY13" t="s"/>
-      <c r="BZ13" t="s"/>
-      <c r="CA13" t="s"/>
-      <c r="CB13" t="s"/>
-      <c r="CC13" t="s"/>
-      <c r="CD13" t="s"/>
-      <c r="CE13" t="s"/>
-      <c r="CF13" t="s"/>
-      <c r="CG13" t="s"/>
-      <c r="CH13" t="s"/>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Canada//Export</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr"/>
+      <c r="AE13" t="inlineStr"/>
+      <c r="AF13" t="inlineStr"/>
+      <c r="AG13" t="inlineStr"/>
+      <c r="AH13" t="inlineStr"/>
+      <c r="AI13" t="inlineStr"/>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="inlineStr"/>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr"/>
+      <c r="AO13" t="inlineStr"/>
+      <c r="AP13" t="inlineStr"/>
+      <c r="AQ13" t="inlineStr"/>
+      <c r="AR13" t="inlineStr"/>
+      <c r="AS13" t="inlineStr"/>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AU13" t="inlineStr"/>
+      <c r="AV13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr"/>
+      <c r="AX13" t="inlineStr"/>
+      <c r="AY13" t="inlineStr"/>
+      <c r="AZ13" t="inlineStr"/>
+      <c r="BA13" t="inlineStr"/>
+      <c r="BB13" t="inlineStr"/>
+      <c r="BC13" t="inlineStr"/>
+      <c r="BD13" t="inlineStr"/>
+      <c r="BE13" t="inlineStr"/>
+      <c r="BF13" t="inlineStr"/>
+      <c r="BG13" t="inlineStr"/>
+      <c r="BH13" t="inlineStr"/>
+      <c r="BI13" t="inlineStr"/>
+      <c r="BJ13" t="inlineStr"/>
+      <c r="BK13" t="inlineStr"/>
+      <c r="BL13" t="inlineStr"/>
+      <c r="BM13" t="inlineStr"/>
+      <c r="BN13" t="inlineStr"/>
+      <c r="BO13" t="inlineStr"/>
+      <c r="BP13" t="inlineStr"/>
+      <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
+      <c r="BS13" t="inlineStr"/>
+      <c r="BT13" t="inlineStr"/>
+      <c r="BU13" t="inlineStr"/>
+      <c r="BV13" t="inlineStr"/>
+      <c r="BW13" t="inlineStr"/>
+      <c r="BX13" t="inlineStr"/>
+      <c r="BY13" t="inlineStr"/>
+      <c r="BZ13" t="inlineStr"/>
+      <c r="CA13" t="inlineStr"/>
+      <c r="CB13" t="inlineStr"/>
+      <c r="CC13" t="inlineStr"/>
+      <c r="CD13" t="inlineStr"/>
+      <c r="CE13" t="inlineStr"/>
+      <c r="CF13" t="inlineStr"/>
+      <c r="CG13" t="inlineStr"/>
+      <c r="CH13" t="inlineStr"/>
       <c r="CI13" t="n">
         <v>210.593</v>
       </c>
@@ -10542,95 +10230,97 @@
         <v>371.233474</v>
       </c>
     </row>
-    <row r="14" spans="1:275">
-      <c r="A14" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
-      <c r="D14" t="s"/>
-      <c r="E14" t="s"/>
-      <c r="F14" t="s"/>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s"/>
-      <c r="J14" t="s"/>
-      <c r="K14" t="s"/>
-      <c r="L14" t="s"/>
-      <c r="M14" t="s"/>
-      <c r="N14" t="s"/>
-      <c r="O14" t="s"/>
-      <c r="P14" t="s"/>
-      <c r="Q14" t="s"/>
-      <c r="R14" t="s"/>
-      <c r="S14" t="s"/>
-      <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
-      <c r="V14" t="s"/>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
-      <c r="Y14" t="s"/>
-      <c r="Z14" t="s"/>
-      <c r="AA14" t="s"/>
-      <c r="AB14" t="s"/>
-      <c r="AC14" t="s"/>
-      <c r="AD14" t="s"/>
-      <c r="AE14" t="s"/>
-      <c r="AF14" t="s"/>
-      <c r="AG14" t="s"/>
-      <c r="AH14" t="s"/>
-      <c r="AI14" t="s"/>
-      <c r="AJ14" t="s"/>
-      <c r="AK14" t="s"/>
-      <c r="AL14" t="s"/>
-      <c r="AM14" t="s"/>
-      <c r="AN14" t="s"/>
-      <c r="AO14" t="s"/>
-      <c r="AP14" t="s"/>
-      <c r="AQ14" t="s"/>
-      <c r="AR14" t="s"/>
-      <c r="AS14" t="s"/>
-      <c r="AT14" t="s"/>
-      <c r="AU14" t="s"/>
-      <c r="AV14" t="s"/>
-      <c r="AW14" t="s"/>
-      <c r="AX14" t="s"/>
-      <c r="AY14" t="s"/>
-      <c r="AZ14" t="s"/>
-      <c r="BA14" t="s"/>
-      <c r="BB14" t="s"/>
-      <c r="BC14" t="s"/>
-      <c r="BD14" t="s"/>
-      <c r="BE14" t="s"/>
-      <c r="BF14" t="s"/>
-      <c r="BG14" t="s"/>
-      <c r="BH14" t="s"/>
-      <c r="BI14" t="s"/>
-      <c r="BJ14" t="s"/>
-      <c r="BK14" t="s"/>
-      <c r="BL14" t="s"/>
-      <c r="BM14" t="s"/>
-      <c r="BN14" t="s"/>
-      <c r="BO14" t="s"/>
-      <c r="BP14" t="s"/>
-      <c r="BQ14" t="s"/>
-      <c r="BR14" t="s"/>
-      <c r="BS14" t="s"/>
-      <c r="BT14" t="s"/>
-      <c r="BU14" t="s"/>
-      <c r="BV14" t="s"/>
-      <c r="BW14" t="s"/>
-      <c r="BX14" t="s"/>
-      <c r="BY14" t="s"/>
-      <c r="BZ14" t="s"/>
-      <c r="CA14" t="s"/>
-      <c r="CB14" t="s"/>
-      <c r="CC14" t="s"/>
-      <c r="CD14" t="s"/>
-      <c r="CE14" t="s"/>
-      <c r="CF14" t="s"/>
-      <c r="CG14" t="s"/>
-      <c r="CH14" t="s"/>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Canada//Import</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="inlineStr"/>
+      <c r="AD14" t="inlineStr"/>
+      <c r="AE14" t="inlineStr"/>
+      <c r="AF14" t="inlineStr"/>
+      <c r="AG14" t="inlineStr"/>
+      <c r="AH14" t="inlineStr"/>
+      <c r="AI14" t="inlineStr"/>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="inlineStr"/>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr"/>
+      <c r="AO14" t="inlineStr"/>
+      <c r="AP14" t="inlineStr"/>
+      <c r="AQ14" t="inlineStr"/>
+      <c r="AR14" t="inlineStr"/>
+      <c r="AS14" t="inlineStr"/>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AU14" t="inlineStr"/>
+      <c r="AV14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr"/>
+      <c r="AX14" t="inlineStr"/>
+      <c r="AY14" t="inlineStr"/>
+      <c r="AZ14" t="inlineStr"/>
+      <c r="BA14" t="inlineStr"/>
+      <c r="BB14" t="inlineStr"/>
+      <c r="BC14" t="inlineStr"/>
+      <c r="BD14" t="inlineStr"/>
+      <c r="BE14" t="inlineStr"/>
+      <c r="BF14" t="inlineStr"/>
+      <c r="BG14" t="inlineStr"/>
+      <c r="BH14" t="inlineStr"/>
+      <c r="BI14" t="inlineStr"/>
+      <c r="BJ14" t="inlineStr"/>
+      <c r="BK14" t="inlineStr"/>
+      <c r="BL14" t="inlineStr"/>
+      <c r="BM14" t="inlineStr"/>
+      <c r="BN14" t="inlineStr"/>
+      <c r="BO14" t="inlineStr"/>
+      <c r="BP14" t="inlineStr"/>
+      <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
+      <c r="BS14" t="inlineStr"/>
+      <c r="BT14" t="inlineStr"/>
+      <c r="BU14" t="inlineStr"/>
+      <c r="BV14" t="inlineStr"/>
+      <c r="BW14" t="inlineStr"/>
+      <c r="BX14" t="inlineStr"/>
+      <c r="BY14" t="inlineStr"/>
+      <c r="BZ14" t="inlineStr"/>
+      <c r="CA14" t="inlineStr"/>
+      <c r="CB14" t="inlineStr"/>
+      <c r="CC14" t="inlineStr"/>
+      <c r="CD14" t="inlineStr"/>
+      <c r="CE14" t="inlineStr"/>
+      <c r="CF14" t="inlineStr"/>
+      <c r="CG14" t="inlineStr"/>
+      <c r="CH14" t="inlineStr"/>
       <c r="CI14" t="n">
         <v>240.461</v>
       </c>
@@ -11199,95 +10889,97 @@
         <v>241.140204</v>
       </c>
     </row>
-    <row r="15" spans="1:275">
-      <c r="A15" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
-      <c r="D15" t="s"/>
-      <c r="E15" t="s"/>
-      <c r="F15" t="s"/>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s"/>
-      <c r="J15" t="s"/>
-      <c r="K15" t="s"/>
-      <c r="L15" t="s"/>
-      <c r="M15" t="s"/>
-      <c r="N15" t="s"/>
-      <c r="O15" t="s"/>
-      <c r="P15" t="s"/>
-      <c r="Q15" t="s"/>
-      <c r="R15" t="s"/>
-      <c r="S15" t="s"/>
-      <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
-      <c r="V15" t="s"/>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
-      <c r="Y15" t="s"/>
-      <c r="Z15" t="s"/>
-      <c r="AA15" t="s"/>
-      <c r="AB15" t="s"/>
-      <c r="AC15" t="s"/>
-      <c r="AD15" t="s"/>
-      <c r="AE15" t="s"/>
-      <c r="AF15" t="s"/>
-      <c r="AG15" t="s"/>
-      <c r="AH15" t="s"/>
-      <c r="AI15" t="s"/>
-      <c r="AJ15" t="s"/>
-      <c r="AK15" t="s"/>
-      <c r="AL15" t="s"/>
-      <c r="AM15" t="s"/>
-      <c r="AN15" t="s"/>
-      <c r="AO15" t="s"/>
-      <c r="AP15" t="s"/>
-      <c r="AQ15" t="s"/>
-      <c r="AR15" t="s"/>
-      <c r="AS15" t="s"/>
-      <c r="AT15" t="s"/>
-      <c r="AU15" t="s"/>
-      <c r="AV15" t="s"/>
-      <c r="AW15" t="s"/>
-      <c r="AX15" t="s"/>
-      <c r="AY15" t="s"/>
-      <c r="AZ15" t="s"/>
-      <c r="BA15" t="s"/>
-      <c r="BB15" t="s"/>
-      <c r="BC15" t="s"/>
-      <c r="BD15" t="s"/>
-      <c r="BE15" t="s"/>
-      <c r="BF15" t="s"/>
-      <c r="BG15" t="s"/>
-      <c r="BH15" t="s"/>
-      <c r="BI15" t="s"/>
-      <c r="BJ15" t="s"/>
-      <c r="BK15" t="s"/>
-      <c r="BL15" t="s"/>
-      <c r="BM15" t="s"/>
-      <c r="BN15" t="s"/>
-      <c r="BO15" t="s"/>
-      <c r="BP15" t="s"/>
-      <c r="BQ15" t="s"/>
-      <c r="BR15" t="s"/>
-      <c r="BS15" t="s"/>
-      <c r="BT15" t="s"/>
-      <c r="BU15" t="s"/>
-      <c r="BV15" t="s"/>
-      <c r="BW15" t="s"/>
-      <c r="BX15" t="s"/>
-      <c r="BY15" t="s"/>
-      <c r="BZ15" t="s"/>
-      <c r="CA15" t="s"/>
-      <c r="CB15" t="s"/>
-      <c r="CC15" t="s"/>
-      <c r="CD15" t="s"/>
-      <c r="CE15" t="s"/>
-      <c r="CF15" t="s"/>
-      <c r="CG15" t="s"/>
-      <c r="CH15" t="s"/>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Australie//Export</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr"/>
+      <c r="AE15" t="inlineStr"/>
+      <c r="AF15" t="inlineStr"/>
+      <c r="AG15" t="inlineStr"/>
+      <c r="AH15" t="inlineStr"/>
+      <c r="AI15" t="inlineStr"/>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="inlineStr"/>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr"/>
+      <c r="AO15" t="inlineStr"/>
+      <c r="AP15" t="inlineStr"/>
+      <c r="AQ15" t="inlineStr"/>
+      <c r="AR15" t="inlineStr"/>
+      <c r="AS15" t="inlineStr"/>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AU15" t="inlineStr"/>
+      <c r="AV15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr"/>
+      <c r="AX15" t="inlineStr"/>
+      <c r="AY15" t="inlineStr"/>
+      <c r="AZ15" t="inlineStr"/>
+      <c r="BA15" t="inlineStr"/>
+      <c r="BB15" t="inlineStr"/>
+      <c r="BC15" t="inlineStr"/>
+      <c r="BD15" t="inlineStr"/>
+      <c r="BE15" t="inlineStr"/>
+      <c r="BF15" t="inlineStr"/>
+      <c r="BG15" t="inlineStr"/>
+      <c r="BH15" t="inlineStr"/>
+      <c r="BI15" t="inlineStr"/>
+      <c r="BJ15" t="inlineStr"/>
+      <c r="BK15" t="inlineStr"/>
+      <c r="BL15" t="inlineStr"/>
+      <c r="BM15" t="inlineStr"/>
+      <c r="BN15" t="inlineStr"/>
+      <c r="BO15" t="inlineStr"/>
+      <c r="BP15" t="inlineStr"/>
+      <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
+      <c r="BS15" t="inlineStr"/>
+      <c r="BT15" t="inlineStr"/>
+      <c r="BU15" t="inlineStr"/>
+      <c r="BV15" t="inlineStr"/>
+      <c r="BW15" t="inlineStr"/>
+      <c r="BX15" t="inlineStr"/>
+      <c r="BY15" t="inlineStr"/>
+      <c r="BZ15" t="inlineStr"/>
+      <c r="CA15" t="inlineStr"/>
+      <c r="CB15" t="inlineStr"/>
+      <c r="CC15" t="inlineStr"/>
+      <c r="CD15" t="inlineStr"/>
+      <c r="CE15" t="inlineStr"/>
+      <c r="CF15" t="inlineStr"/>
+      <c r="CG15" t="inlineStr"/>
+      <c r="CH15" t="inlineStr"/>
       <c r="CI15" t="n">
         <v>143.04</v>
       </c>
@@ -11856,95 +11548,97 @@
         <v>258.252918</v>
       </c>
     </row>
-    <row r="16" spans="1:275">
-      <c r="A16" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
-      <c r="D16" t="s"/>
-      <c r="E16" t="s"/>
-      <c r="F16" t="s"/>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s"/>
-      <c r="J16" t="s"/>
-      <c r="K16" t="s"/>
-      <c r="L16" t="s"/>
-      <c r="M16" t="s"/>
-      <c r="N16" t="s"/>
-      <c r="O16" t="s"/>
-      <c r="P16" t="s"/>
-      <c r="Q16" t="s"/>
-      <c r="R16" t="s"/>
-      <c r="S16" t="s"/>
-      <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
-      <c r="V16" t="s"/>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
-      <c r="Y16" t="s"/>
-      <c r="Z16" t="s"/>
-      <c r="AA16" t="s"/>
-      <c r="AB16" t="s"/>
-      <c r="AC16" t="s"/>
-      <c r="AD16" t="s"/>
-      <c r="AE16" t="s"/>
-      <c r="AF16" t="s"/>
-      <c r="AG16" t="s"/>
-      <c r="AH16" t="s"/>
-      <c r="AI16" t="s"/>
-      <c r="AJ16" t="s"/>
-      <c r="AK16" t="s"/>
-      <c r="AL16" t="s"/>
-      <c r="AM16" t="s"/>
-      <c r="AN16" t="s"/>
-      <c r="AO16" t="s"/>
-      <c r="AP16" t="s"/>
-      <c r="AQ16" t="s"/>
-      <c r="AR16" t="s"/>
-      <c r="AS16" t="s"/>
-      <c r="AT16" t="s"/>
-      <c r="AU16" t="s"/>
-      <c r="AV16" t="s"/>
-      <c r="AW16" t="s"/>
-      <c r="AX16" t="s"/>
-      <c r="AY16" t="s"/>
-      <c r="AZ16" t="s"/>
-      <c r="BA16" t="s"/>
-      <c r="BB16" t="s"/>
-      <c r="BC16" t="s"/>
-      <c r="BD16" t="s"/>
-      <c r="BE16" t="s"/>
-      <c r="BF16" t="s"/>
-      <c r="BG16" t="s"/>
-      <c r="BH16" t="s"/>
-      <c r="BI16" t="s"/>
-      <c r="BJ16" t="s"/>
-      <c r="BK16" t="s"/>
-      <c r="BL16" t="s"/>
-      <c r="BM16" t="s"/>
-      <c r="BN16" t="s"/>
-      <c r="BO16" t="s"/>
-      <c r="BP16" t="s"/>
-      <c r="BQ16" t="s"/>
-      <c r="BR16" t="s"/>
-      <c r="BS16" t="s"/>
-      <c r="BT16" t="s"/>
-      <c r="BU16" t="s"/>
-      <c r="BV16" t="s"/>
-      <c r="BW16" t="s"/>
-      <c r="BX16" t="s"/>
-      <c r="BY16" t="s"/>
-      <c r="BZ16" t="s"/>
-      <c r="CA16" t="s"/>
-      <c r="CB16" t="s"/>
-      <c r="CC16" t="s"/>
-      <c r="CD16" t="s"/>
-      <c r="CE16" t="s"/>
-      <c r="CF16" t="s"/>
-      <c r="CG16" t="s"/>
-      <c r="CH16" t="s"/>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Australie//Import</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr"/>
+      <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="inlineStr"/>
+      <c r="AD16" t="inlineStr"/>
+      <c r="AE16" t="inlineStr"/>
+      <c r="AF16" t="inlineStr"/>
+      <c r="AG16" t="inlineStr"/>
+      <c r="AH16" t="inlineStr"/>
+      <c r="AI16" t="inlineStr"/>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="inlineStr"/>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr"/>
+      <c r="AO16" t="inlineStr"/>
+      <c r="AP16" t="inlineStr"/>
+      <c r="AQ16" t="inlineStr"/>
+      <c r="AR16" t="inlineStr"/>
+      <c r="AS16" t="inlineStr"/>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AU16" t="inlineStr"/>
+      <c r="AV16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr"/>
+      <c r="AX16" t="inlineStr"/>
+      <c r="AY16" t="inlineStr"/>
+      <c r="AZ16" t="inlineStr"/>
+      <c r="BA16" t="inlineStr"/>
+      <c r="BB16" t="inlineStr"/>
+      <c r="BC16" t="inlineStr"/>
+      <c r="BD16" t="inlineStr"/>
+      <c r="BE16" t="inlineStr"/>
+      <c r="BF16" t="inlineStr"/>
+      <c r="BG16" t="inlineStr"/>
+      <c r="BH16" t="inlineStr"/>
+      <c r="BI16" t="inlineStr"/>
+      <c r="BJ16" t="inlineStr"/>
+      <c r="BK16" t="inlineStr"/>
+      <c r="BL16" t="inlineStr"/>
+      <c r="BM16" t="inlineStr"/>
+      <c r="BN16" t="inlineStr"/>
+      <c r="BO16" t="inlineStr"/>
+      <c r="BP16" t="inlineStr"/>
+      <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr"/>
+      <c r="BS16" t="inlineStr"/>
+      <c r="BT16" t="inlineStr"/>
+      <c r="BU16" t="inlineStr"/>
+      <c r="BV16" t="inlineStr"/>
+      <c r="BW16" t="inlineStr"/>
+      <c r="BX16" t="inlineStr"/>
+      <c r="BY16" t="inlineStr"/>
+      <c r="BZ16" t="inlineStr"/>
+      <c r="CA16" t="inlineStr"/>
+      <c r="CB16" t="inlineStr"/>
+      <c r="CC16" t="inlineStr"/>
+      <c r="CD16" t="inlineStr"/>
+      <c r="CE16" t="inlineStr"/>
+      <c r="CF16" t="inlineStr"/>
+      <c r="CG16" t="inlineStr"/>
+      <c r="CH16" t="inlineStr"/>
       <c r="CI16" t="n">
         <v>113.066</v>
       </c>
@@ -12513,95 +12207,97 @@
         <v>93.28040300000001</v>
       </c>
     </row>
-    <row r="17" spans="1:275">
-      <c r="A17" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
-      <c r="D17" t="s"/>
-      <c r="E17" t="s"/>
-      <c r="F17" t="s"/>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s"/>
-      <c r="J17" t="s"/>
-      <c r="K17" t="s"/>
-      <c r="L17" t="s"/>
-      <c r="M17" t="s"/>
-      <c r="N17" t="s"/>
-      <c r="O17" t="s"/>
-      <c r="P17" t="s"/>
-      <c r="Q17" t="s"/>
-      <c r="R17" t="s"/>
-      <c r="S17" t="s"/>
-      <c r="T17" t="s"/>
-      <c r="U17" t="s"/>
-      <c r="V17" t="s"/>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
-      <c r="Y17" t="s"/>
-      <c r="Z17" t="s"/>
-      <c r="AA17" t="s"/>
-      <c r="AB17" t="s"/>
-      <c r="AC17" t="s"/>
-      <c r="AD17" t="s"/>
-      <c r="AE17" t="s"/>
-      <c r="AF17" t="s"/>
-      <c r="AG17" t="s"/>
-      <c r="AH17" t="s"/>
-      <c r="AI17" t="s"/>
-      <c r="AJ17" t="s"/>
-      <c r="AK17" t="s"/>
-      <c r="AL17" t="s"/>
-      <c r="AM17" t="s"/>
-      <c r="AN17" t="s"/>
-      <c r="AO17" t="s"/>
-      <c r="AP17" t="s"/>
-      <c r="AQ17" t="s"/>
-      <c r="AR17" t="s"/>
-      <c r="AS17" t="s"/>
-      <c r="AT17" t="s"/>
-      <c r="AU17" t="s"/>
-      <c r="AV17" t="s"/>
-      <c r="AW17" t="s"/>
-      <c r="AX17" t="s"/>
-      <c r="AY17" t="s"/>
-      <c r="AZ17" t="s"/>
-      <c r="BA17" t="s"/>
-      <c r="BB17" t="s"/>
-      <c r="BC17" t="s"/>
-      <c r="BD17" t="s"/>
-      <c r="BE17" t="s"/>
-      <c r="BF17" t="s"/>
-      <c r="BG17" t="s"/>
-      <c r="BH17" t="s"/>
-      <c r="BI17" t="s"/>
-      <c r="BJ17" t="s"/>
-      <c r="BK17" t="s"/>
-      <c r="BL17" t="s"/>
-      <c r="BM17" t="s"/>
-      <c r="BN17" t="s"/>
-      <c r="BO17" t="s"/>
-      <c r="BP17" t="s"/>
-      <c r="BQ17" t="s"/>
-      <c r="BR17" t="s"/>
-      <c r="BS17" t="s"/>
-      <c r="BT17" t="s"/>
-      <c r="BU17" t="s"/>
-      <c r="BV17" t="s"/>
-      <c r="BW17" t="s"/>
-      <c r="BX17" t="s"/>
-      <c r="BY17" t="s"/>
-      <c r="BZ17" t="s"/>
-      <c r="CA17" t="s"/>
-      <c r="CB17" t="s"/>
-      <c r="CC17" t="s"/>
-      <c r="CD17" t="s"/>
-      <c r="CE17" t="s"/>
-      <c r="CF17" t="s"/>
-      <c r="CG17" t="s"/>
-      <c r="CH17" t="s"/>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Japon//Export</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr"/>
+      <c r="AB17" t="inlineStr"/>
+      <c r="AC17" t="inlineStr"/>
+      <c r="AD17" t="inlineStr"/>
+      <c r="AE17" t="inlineStr"/>
+      <c r="AF17" t="inlineStr"/>
+      <c r="AG17" t="inlineStr"/>
+      <c r="AH17" t="inlineStr"/>
+      <c r="AI17" t="inlineStr"/>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="inlineStr"/>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr"/>
+      <c r="AO17" t="inlineStr"/>
+      <c r="AP17" t="inlineStr"/>
+      <c r="AQ17" t="inlineStr"/>
+      <c r="AR17" t="inlineStr"/>
+      <c r="AS17" t="inlineStr"/>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AU17" t="inlineStr"/>
+      <c r="AV17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr"/>
+      <c r="AX17" t="inlineStr"/>
+      <c r="AY17" t="inlineStr"/>
+      <c r="AZ17" t="inlineStr"/>
+      <c r="BA17" t="inlineStr"/>
+      <c r="BB17" t="inlineStr"/>
+      <c r="BC17" t="inlineStr"/>
+      <c r="BD17" t="inlineStr"/>
+      <c r="BE17" t="inlineStr"/>
+      <c r="BF17" t="inlineStr"/>
+      <c r="BG17" t="inlineStr"/>
+      <c r="BH17" t="inlineStr"/>
+      <c r="BI17" t="inlineStr"/>
+      <c r="BJ17" t="inlineStr"/>
+      <c r="BK17" t="inlineStr"/>
+      <c r="BL17" t="inlineStr"/>
+      <c r="BM17" t="inlineStr"/>
+      <c r="BN17" t="inlineStr"/>
+      <c r="BO17" t="inlineStr"/>
+      <c r="BP17" t="inlineStr"/>
+      <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
+      <c r="BS17" t="inlineStr"/>
+      <c r="BT17" t="inlineStr"/>
+      <c r="BU17" t="inlineStr"/>
+      <c r="BV17" t="inlineStr"/>
+      <c r="BW17" t="inlineStr"/>
+      <c r="BX17" t="inlineStr"/>
+      <c r="BY17" t="inlineStr"/>
+      <c r="BZ17" t="inlineStr"/>
+      <c r="CA17" t="inlineStr"/>
+      <c r="CB17" t="inlineStr"/>
+      <c r="CC17" t="inlineStr"/>
+      <c r="CD17" t="inlineStr"/>
+      <c r="CE17" t="inlineStr"/>
+      <c r="CF17" t="inlineStr"/>
+      <c r="CG17" t="inlineStr"/>
+      <c r="CH17" t="inlineStr"/>
       <c r="CI17" t="n">
         <v>518.455</v>
       </c>
@@ -13170,95 +12866,97 @@
         <v>906.189936</v>
       </c>
     </row>
-    <row r="18" spans="1:275">
-      <c r="A18" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
-      <c r="D18" t="s"/>
-      <c r="E18" t="s"/>
-      <c r="F18" t="s"/>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s"/>
-      <c r="J18" t="s"/>
-      <c r="K18" t="s"/>
-      <c r="L18" t="s"/>
-      <c r="M18" t="s"/>
-      <c r="N18" t="s"/>
-      <c r="O18" t="s"/>
-      <c r="P18" t="s"/>
-      <c r="Q18" t="s"/>
-      <c r="R18" t="s"/>
-      <c r="S18" t="s"/>
-      <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
-      <c r="V18" t="s"/>
-      <c r="W18" t="s"/>
-      <c r="X18" t="s"/>
-      <c r="Y18" t="s"/>
-      <c r="Z18" t="s"/>
-      <c r="AA18" t="s"/>
-      <c r="AB18" t="s"/>
-      <c r="AC18" t="s"/>
-      <c r="AD18" t="s"/>
-      <c r="AE18" t="s"/>
-      <c r="AF18" t="s"/>
-      <c r="AG18" t="s"/>
-      <c r="AH18" t="s"/>
-      <c r="AI18" t="s"/>
-      <c r="AJ18" t="s"/>
-      <c r="AK18" t="s"/>
-      <c r="AL18" t="s"/>
-      <c r="AM18" t="s"/>
-      <c r="AN18" t="s"/>
-      <c r="AO18" t="s"/>
-      <c r="AP18" t="s"/>
-      <c r="AQ18" t="s"/>
-      <c r="AR18" t="s"/>
-      <c r="AS18" t="s"/>
-      <c r="AT18" t="s"/>
-      <c r="AU18" t="s"/>
-      <c r="AV18" t="s"/>
-      <c r="AW18" t="s"/>
-      <c r="AX18" t="s"/>
-      <c r="AY18" t="s"/>
-      <c r="AZ18" t="s"/>
-      <c r="BA18" t="s"/>
-      <c r="BB18" t="s"/>
-      <c r="BC18" t="s"/>
-      <c r="BD18" t="s"/>
-      <c r="BE18" t="s"/>
-      <c r="BF18" t="s"/>
-      <c r="BG18" t="s"/>
-      <c r="BH18" t="s"/>
-      <c r="BI18" t="s"/>
-      <c r="BJ18" t="s"/>
-      <c r="BK18" t="s"/>
-      <c r="BL18" t="s"/>
-      <c r="BM18" t="s"/>
-      <c r="BN18" t="s"/>
-      <c r="BO18" t="s"/>
-      <c r="BP18" t="s"/>
-      <c r="BQ18" t="s"/>
-      <c r="BR18" t="s"/>
-      <c r="BS18" t="s"/>
-      <c r="BT18" t="s"/>
-      <c r="BU18" t="s"/>
-      <c r="BV18" t="s"/>
-      <c r="BW18" t="s"/>
-      <c r="BX18" t="s"/>
-      <c r="BY18" t="s"/>
-      <c r="BZ18" t="s"/>
-      <c r="CA18" t="s"/>
-      <c r="CB18" t="s"/>
-      <c r="CC18" t="s"/>
-      <c r="CD18" t="s"/>
-      <c r="CE18" t="s"/>
-      <c r="CF18" t="s"/>
-      <c r="CG18" t="s"/>
-      <c r="CH18" t="s"/>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Japon//Import</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr"/>
+      <c r="AB18" t="inlineStr"/>
+      <c r="AC18" t="inlineStr"/>
+      <c r="AD18" t="inlineStr"/>
+      <c r="AE18" t="inlineStr"/>
+      <c r="AF18" t="inlineStr"/>
+      <c r="AG18" t="inlineStr"/>
+      <c r="AH18" t="inlineStr"/>
+      <c r="AI18" t="inlineStr"/>
+      <c r="AJ18" t="inlineStr"/>
+      <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="inlineStr"/>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr"/>
+      <c r="AO18" t="inlineStr"/>
+      <c r="AP18" t="inlineStr"/>
+      <c r="AQ18" t="inlineStr"/>
+      <c r="AR18" t="inlineStr"/>
+      <c r="AS18" t="inlineStr"/>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AU18" t="inlineStr"/>
+      <c r="AV18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr"/>
+      <c r="AX18" t="inlineStr"/>
+      <c r="AY18" t="inlineStr"/>
+      <c r="AZ18" t="inlineStr"/>
+      <c r="BA18" t="inlineStr"/>
+      <c r="BB18" t="inlineStr"/>
+      <c r="BC18" t="inlineStr"/>
+      <c r="BD18" t="inlineStr"/>
+      <c r="BE18" t="inlineStr"/>
+      <c r="BF18" t="inlineStr"/>
+      <c r="BG18" t="inlineStr"/>
+      <c r="BH18" t="inlineStr"/>
+      <c r="BI18" t="inlineStr"/>
+      <c r="BJ18" t="inlineStr"/>
+      <c r="BK18" t="inlineStr"/>
+      <c r="BL18" t="inlineStr"/>
+      <c r="BM18" t="inlineStr"/>
+      <c r="BN18" t="inlineStr"/>
+      <c r="BO18" t="inlineStr"/>
+      <c r="BP18" t="inlineStr"/>
+      <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
+      <c r="BS18" t="inlineStr"/>
+      <c r="BT18" t="inlineStr"/>
+      <c r="BU18" t="inlineStr"/>
+      <c r="BV18" t="inlineStr"/>
+      <c r="BW18" t="inlineStr"/>
+      <c r="BX18" t="inlineStr"/>
+      <c r="BY18" t="inlineStr"/>
+      <c r="BZ18" t="inlineStr"/>
+      <c r="CA18" t="inlineStr"/>
+      <c r="CB18" t="inlineStr"/>
+      <c r="CC18" t="inlineStr"/>
+      <c r="CD18" t="inlineStr"/>
+      <c r="CE18" t="inlineStr"/>
+      <c r="CF18" t="inlineStr"/>
+      <c r="CG18" t="inlineStr"/>
+      <c r="CH18" t="inlineStr"/>
       <c r="CI18" t="n">
         <v>819.902</v>
       </c>
@@ -13827,95 +13525,97 @@
         <v>879.540887</v>
       </c>
     </row>
-    <row r="19" spans="1:275">
-      <c r="A19" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
-      <c r="D19" t="s"/>
-      <c r="E19" t="s"/>
-      <c r="F19" t="s"/>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s"/>
-      <c r="J19" t="s"/>
-      <c r="K19" t="s"/>
-      <c r="L19" t="s"/>
-      <c r="M19" t="s"/>
-      <c r="N19" t="s"/>
-      <c r="O19" t="s"/>
-      <c r="P19" t="s"/>
-      <c r="Q19" t="s"/>
-      <c r="R19" t="s"/>
-      <c r="S19" t="s"/>
-      <c r="T19" t="s"/>
-      <c r="U19" t="s"/>
-      <c r="V19" t="s"/>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
-      <c r="Y19" t="s"/>
-      <c r="Z19" t="s"/>
-      <c r="AA19" t="s"/>
-      <c r="AB19" t="s"/>
-      <c r="AC19" t="s"/>
-      <c r="AD19" t="s"/>
-      <c r="AE19" t="s"/>
-      <c r="AF19" t="s"/>
-      <c r="AG19" t="s"/>
-      <c r="AH19" t="s"/>
-      <c r="AI19" t="s"/>
-      <c r="AJ19" t="s"/>
-      <c r="AK19" t="s"/>
-      <c r="AL19" t="s"/>
-      <c r="AM19" t="s"/>
-      <c r="AN19" t="s"/>
-      <c r="AO19" t="s"/>
-      <c r="AP19" t="s"/>
-      <c r="AQ19" t="s"/>
-      <c r="AR19" t="s"/>
-      <c r="AS19" t="s"/>
-      <c r="AT19" t="s"/>
-      <c r="AU19" t="s"/>
-      <c r="AV19" t="s"/>
-      <c r="AW19" t="s"/>
-      <c r="AX19" t="s"/>
-      <c r="AY19" t="s"/>
-      <c r="AZ19" t="s"/>
-      <c r="BA19" t="s"/>
-      <c r="BB19" t="s"/>
-      <c r="BC19" t="s"/>
-      <c r="BD19" t="s"/>
-      <c r="BE19" t="s"/>
-      <c r="BF19" t="s"/>
-      <c r="BG19" t="s"/>
-      <c r="BH19" t="s"/>
-      <c r="BI19" t="s"/>
-      <c r="BJ19" t="s"/>
-      <c r="BK19" t="s"/>
-      <c r="BL19" t="s"/>
-      <c r="BM19" t="s"/>
-      <c r="BN19" t="s"/>
-      <c r="BO19" t="s"/>
-      <c r="BP19" t="s"/>
-      <c r="BQ19" t="s"/>
-      <c r="BR19" t="s"/>
-      <c r="BS19" t="s"/>
-      <c r="BT19" t="s"/>
-      <c r="BU19" t="s"/>
-      <c r="BV19" t="s"/>
-      <c r="BW19" t="s"/>
-      <c r="BX19" t="s"/>
-      <c r="BY19" t="s"/>
-      <c r="BZ19" t="s"/>
-      <c r="CA19" t="s"/>
-      <c r="CB19" t="s"/>
-      <c r="CC19" t="s"/>
-      <c r="CD19" t="s"/>
-      <c r="CE19" t="s"/>
-      <c r="CF19" t="s"/>
-      <c r="CG19" t="s"/>
-      <c r="CH19" t="s"/>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Chine//Export</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr"/>
+      <c r="AB19" t="inlineStr"/>
+      <c r="AC19" t="inlineStr"/>
+      <c r="AD19" t="inlineStr"/>
+      <c r="AE19" t="inlineStr"/>
+      <c r="AF19" t="inlineStr"/>
+      <c r="AG19" t="inlineStr"/>
+      <c r="AH19" t="inlineStr"/>
+      <c r="AI19" t="inlineStr"/>
+      <c r="AJ19" t="inlineStr"/>
+      <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="inlineStr"/>
+      <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr"/>
+      <c r="AO19" t="inlineStr"/>
+      <c r="AP19" t="inlineStr"/>
+      <c r="AQ19" t="inlineStr"/>
+      <c r="AR19" t="inlineStr"/>
+      <c r="AS19" t="inlineStr"/>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AU19" t="inlineStr"/>
+      <c r="AV19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr"/>
+      <c r="AX19" t="inlineStr"/>
+      <c r="AY19" t="inlineStr"/>
+      <c r="AZ19" t="inlineStr"/>
+      <c r="BA19" t="inlineStr"/>
+      <c r="BB19" t="inlineStr"/>
+      <c r="BC19" t="inlineStr"/>
+      <c r="BD19" t="inlineStr"/>
+      <c r="BE19" t="inlineStr"/>
+      <c r="BF19" t="inlineStr"/>
+      <c r="BG19" t="inlineStr"/>
+      <c r="BH19" t="inlineStr"/>
+      <c r="BI19" t="inlineStr"/>
+      <c r="BJ19" t="inlineStr"/>
+      <c r="BK19" t="inlineStr"/>
+      <c r="BL19" t="inlineStr"/>
+      <c r="BM19" t="inlineStr"/>
+      <c r="BN19" t="inlineStr"/>
+      <c r="BO19" t="inlineStr"/>
+      <c r="BP19" t="inlineStr"/>
+      <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
+      <c r="BS19" t="inlineStr"/>
+      <c r="BT19" t="inlineStr"/>
+      <c r="BU19" t="inlineStr"/>
+      <c r="BV19" t="inlineStr"/>
+      <c r="BW19" t="inlineStr"/>
+      <c r="BX19" t="inlineStr"/>
+      <c r="BY19" t="inlineStr"/>
+      <c r="BZ19" t="inlineStr"/>
+      <c r="CA19" t="inlineStr"/>
+      <c r="CB19" t="inlineStr"/>
+      <c r="CC19" t="inlineStr"/>
+      <c r="CD19" t="inlineStr"/>
+      <c r="CE19" t="inlineStr"/>
+      <c r="CF19" t="inlineStr"/>
+      <c r="CG19" t="inlineStr"/>
+      <c r="CH19" t="inlineStr"/>
       <c r="CI19" t="n">
         <v>453.316</v>
       </c>
@@ -14484,9 +14184,11 @@
         <v>1953.30463</v>
       </c>
     </row>
-    <row r="20" spans="1:275">
-      <c r="A20" s="1" t="s">
-        <v>292</v>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Chine//Import</t>
+        </is>
       </c>
       <c r="B20" t="n">
         <v>551.831</v>

--- a/data/132/DOUANES/Merchandise Trade NSA_historical.xlsx
+++ b/data/132/DOUANES/Merchandise Trade NSA_historical.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JO20"/>
+  <dimension ref="A1:JR20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1735,6 +1735,21 @@
       <c r="JO1" s="1" t="inlineStr">
         <is>
           <t>2021-10</t>
+        </is>
+      </c>
+      <c r="JP1" s="1" t="inlineStr">
+        <is>
+          <t>2021-11</t>
+        </is>
+      </c>
+      <c r="JQ1" s="1" t="inlineStr">
+        <is>
+          <t>2021-12</t>
+        </is>
+      </c>
+      <c r="JR1" s="1" t="inlineStr">
+        <is>
+          <t>2022-01</t>
         </is>
       </c>
     </row>
@@ -2369,178 +2384,187 @@
         <v>18818.648797</v>
       </c>
       <c r="HJ2" t="n">
-        <v>19550.875994</v>
+        <v>19551.205756</v>
       </c>
       <c r="HK2" t="n">
-        <v>19566.297629</v>
+        <v>19566.547154</v>
       </c>
       <c r="HL2" t="n">
-        <v>23301.158968</v>
+        <v>23301.39023</v>
       </c>
       <c r="HM2" t="n">
-        <v>18783.627904</v>
+        <v>18783.830579</v>
       </c>
       <c r="HN2" t="n">
-        <v>20912.095462</v>
+        <v>20912.26464</v>
       </c>
       <c r="HO2" t="n">
-        <v>21834.202397</v>
+        <v>21834.420875</v>
       </c>
       <c r="HP2" t="n">
-        <v>19433.272477</v>
+        <v>19433.496182</v>
       </c>
       <c r="HQ2" t="n">
-        <v>16182.210594</v>
+        <v>16182.478824</v>
       </c>
       <c r="HR2" t="n">
-        <v>20883.726979</v>
+        <v>20882.371965</v>
       </c>
       <c r="HS2" t="n">
-        <v>21829.566981</v>
+        <v>21826.00923</v>
       </c>
       <c r="HT2" t="n">
-        <v>22151.743667</v>
+        <v>22157.489311</v>
       </c>
       <c r="HU2" t="n">
-        <v>18635.585202</v>
+        <v>18635.887017</v>
       </c>
       <c r="HV2" t="n">
-        <v>21424.039058</v>
+        <v>21424.304259</v>
       </c>
       <c r="HW2" t="n">
-        <v>21098.647374</v>
+        <v>21098.895757</v>
       </c>
       <c r="HX2" t="n">
-        <v>22991.211005</v>
+        <v>22991.605124</v>
       </c>
       <c r="HY2" t="n">
-        <v>21011.275087</v>
+        <v>21011.53471</v>
       </c>
       <c r="HZ2" t="n">
-        <v>21030.292337</v>
+        <v>21030.524521</v>
       </c>
       <c r="IA2" t="n">
-        <v>22855.267093</v>
+        <v>22855.563513</v>
       </c>
       <c r="IB2" t="n">
-        <v>21417.147291</v>
+        <v>21417.639665</v>
       </c>
       <c r="IC2" t="n">
-        <v>16949.236796</v>
+        <v>16949.613431</v>
       </c>
       <c r="ID2" t="n">
-        <v>20540.931577</v>
+        <v>20541.264305</v>
       </c>
       <c r="IE2" t="n">
-        <v>23116.669793</v>
+        <v>23117.570687</v>
       </c>
       <c r="IF2" t="n">
-        <v>22432.017153</v>
+        <v>22432.303903</v>
       </c>
       <c r="IG2" t="n">
-        <v>18843.608882</v>
+        <v>18844.036887</v>
       </c>
       <c r="IH2" t="n">
-        <v>22034.061809</v>
+        <v>22039.164839</v>
       </c>
       <c r="II2" t="n">
-        <v>21818.63066200001</v>
+        <v>21819.94259</v>
       </c>
       <c r="IJ2" t="n">
-        <v>23636.996997</v>
+        <v>23637.881912</v>
       </c>
       <c r="IK2" t="n">
-        <v>22115.40861800001</v>
+        <v>22120.53366</v>
       </c>
       <c r="IL2" t="n">
-        <v>22503.116707</v>
+        <v>22510.959624</v>
       </c>
       <c r="IM2" t="n">
-        <v>21291.56767100001</v>
+        <v>21294.840544</v>
       </c>
       <c r="IN2" t="n">
-        <v>22716.07533900001</v>
+        <v>22718.218685</v>
       </c>
       <c r="IO2" t="n">
-        <v>16654.525466</v>
+        <v>16658.500524</v>
       </c>
       <c r="IP2" t="n">
-        <v>21001.575542</v>
+        <v>21005.764053</v>
       </c>
       <c r="IQ2" t="n">
-        <v>23109.963856</v>
+        <v>23116.809253</v>
       </c>
       <c r="IR2" t="n">
-        <v>21614.910262</v>
+        <v>21619.236345</v>
       </c>
       <c r="IS2" t="n">
-        <v>19212.72694300001</v>
+        <v>19229.793532</v>
       </c>
       <c r="IT2" t="n">
-        <v>21284.890081</v>
+        <v>21288.702089</v>
       </c>
       <c r="IU2" t="n">
-        <v>22017.020724</v>
+        <v>22020.484961</v>
       </c>
       <c r="IV2" t="n">
-        <v>19778.812524</v>
+        <v>19782.453918</v>
       </c>
       <c r="IW2" t="n">
-        <v>12789.92655</v>
+        <v>12796.678904</v>
       </c>
       <c r="IX2" t="n">
-        <v>14189.295746</v>
+        <v>14193.92807</v>
       </c>
       <c r="IY2" t="n">
-        <v>18592.10104600001</v>
+        <v>18594.991589</v>
       </c>
       <c r="IZ2" t="n">
-        <v>19026.52853100001</v>
+        <v>19025.48804</v>
       </c>
       <c r="JA2" t="n">
-        <v>14788.658468</v>
+        <v>14787.621312</v>
       </c>
       <c r="JB2" t="n">
-        <v>20852.41038299999</v>
+        <v>20848.07902</v>
       </c>
       <c r="JC2" t="n">
-        <v>21561.244594</v>
+        <v>21553.93213</v>
       </c>
       <c r="JD2" t="n">
-        <v>21109.581047</v>
+        <v>21102.174809</v>
       </c>
       <c r="JE2" t="n">
-        <v>18712.216484</v>
+        <v>18706.027437</v>
       </c>
       <c r="JF2" t="n">
-        <v>19756.489536</v>
+        <v>19767.469822</v>
       </c>
       <c r="JG2" t="n">
-        <v>19939.471682</v>
+        <v>19978.060502</v>
       </c>
       <c r="JH2" t="n">
-        <v>24194.57656199999</v>
+        <v>24216.055205</v>
       </c>
       <c r="JI2" t="n">
-        <v>20918.301522</v>
+        <v>20953.322335</v>
       </c>
       <c r="JJ2" t="n">
-        <v>20043.12336999999</v>
+        <v>20065.411812</v>
       </c>
       <c r="JK2" t="n">
-        <v>24578.820442</v>
+        <v>24603.327012</v>
       </c>
       <c r="JL2" t="n">
-        <v>21244.896681</v>
+        <v>21279.8648</v>
       </c>
       <c r="JM2" t="n">
-        <v>17889.93552599999</v>
+        <v>17903.024122</v>
       </c>
       <c r="JN2" t="n">
-        <v>23399.51296900001</v>
+        <v>23387.506361</v>
       </c>
       <c r="JO2" t="n">
-        <v>24113.243044</v>
+        <v>24116.327717</v>
+      </c>
+      <c r="JP2" t="n">
+        <v>25222.169324</v>
+      </c>
+      <c r="JQ2" t="n">
+        <v>23395.937175</v>
+      </c>
+      <c r="JR2" t="n">
+        <v>25063.16044</v>
       </c>
     </row>
     <row r="3">
@@ -3171,181 +3195,190 @@
         <v>24478.78172</v>
       </c>
       <c r="HI3" t="n">
-        <v>23255.532989</v>
+        <v>23255.56216</v>
       </c>
       <c r="HJ3" t="n">
-        <v>24259.589125</v>
+        <v>24259.8467</v>
       </c>
       <c r="HK3" t="n">
-        <v>23661.850249</v>
+        <v>23661.957788</v>
       </c>
       <c r="HL3" t="n">
-        <v>27218.154454</v>
+        <v>27218.300672</v>
       </c>
       <c r="HM3" t="n">
-        <v>23009.989858</v>
+        <v>23010.592156</v>
       </c>
       <c r="HN3" t="n">
-        <v>25127.47195</v>
+        <v>25127.799939</v>
       </c>
       <c r="HO3" t="n">
-        <v>25336.467025</v>
+        <v>25336.71269</v>
       </c>
       <c r="HP3" t="n">
-        <v>23674.094735</v>
+        <v>23674.802</v>
       </c>
       <c r="HQ3" t="n">
-        <v>19406.658281</v>
+        <v>19406.811407</v>
       </c>
       <c r="HR3" t="n">
-        <v>24554.688523</v>
+        <v>24556.064498</v>
       </c>
       <c r="HS3" t="n">
-        <v>26233.526244</v>
+        <v>26234.588109</v>
       </c>
       <c r="HT3" t="n">
-        <v>26888.973811</v>
+        <v>26889.425929</v>
       </c>
       <c r="HU3" t="n">
-        <v>22571.023184</v>
+        <v>22573.095933</v>
       </c>
       <c r="HV3" t="n">
-        <v>25059.661337</v>
+        <v>25060.303648</v>
       </c>
       <c r="HW3" t="n">
-        <v>24546.848785</v>
+        <v>24548.060266</v>
       </c>
       <c r="HX3" t="n">
-        <v>27231.439823</v>
+        <v>27232.860678</v>
       </c>
       <c r="HY3" t="n">
-        <v>25270.921687</v>
+        <v>25271.622961</v>
       </c>
       <c r="HZ3" t="n">
-        <v>25461.586711</v>
+        <v>25462.120724</v>
       </c>
       <c r="IA3" t="n">
-        <v>26962.586135</v>
+        <v>26963.171246</v>
       </c>
       <c r="IB3" t="n">
-        <v>25234.834665</v>
+        <v>25235.404755</v>
       </c>
       <c r="IC3" t="n">
-        <v>20261.218513</v>
+        <v>20261.816731</v>
       </c>
       <c r="ID3" t="n">
-        <v>24576.122333</v>
+        <v>24577.488855</v>
       </c>
       <c r="IE3" t="n">
-        <v>27358.362091</v>
+        <v>27359.327524</v>
       </c>
       <c r="IF3" t="n">
-        <v>26319.404249</v>
+        <v>26320.328356</v>
       </c>
       <c r="IG3" t="n">
-        <v>22793.758684</v>
+        <v>22797.060592</v>
       </c>
       <c r="IH3" t="n">
-        <v>24980.952429</v>
+        <v>24982.070104</v>
       </c>
       <c r="II3" t="n">
-        <v>25590.545704</v>
+        <v>25593.672907</v>
       </c>
       <c r="IJ3" t="n">
-        <v>27545.04625600001</v>
+        <v>27546.098049</v>
       </c>
       <c r="IK3" t="n">
-        <v>25648.87102600001</v>
+        <v>25654.050245</v>
       </c>
       <c r="IL3" t="n">
-        <v>26891.376965</v>
+        <v>26896.311872</v>
       </c>
       <c r="IM3" t="n">
-        <v>25516.663446</v>
+        <v>25520.470542</v>
       </c>
       <c r="IN3" t="n">
-        <v>26455.74003300001</v>
+        <v>26458.419389</v>
       </c>
       <c r="IO3" t="n">
-        <v>19254.991886</v>
+        <v>19258.730842</v>
       </c>
       <c r="IP3" t="n">
-        <v>25291.334536</v>
+        <v>25294.795529</v>
       </c>
       <c r="IQ3" t="n">
-        <v>27465.71764</v>
+        <v>27471.523651</v>
       </c>
       <c r="IR3" t="n">
-        <v>25328.07366599999</v>
+        <v>25331.298465</v>
       </c>
       <c r="IS3" t="n">
-        <v>22812.61001100001</v>
+        <v>22819.442287</v>
       </c>
       <c r="IT3" t="n">
-        <v>24499.080953</v>
+        <v>24502.117277</v>
       </c>
       <c r="IU3" t="n">
-        <v>24868.427443</v>
+        <v>24870.587249</v>
       </c>
       <c r="IV3" t="n">
-        <v>22414.72187899999</v>
+        <v>22422.481392</v>
       </c>
       <c r="IW3" t="n">
-        <v>15361.420659</v>
+        <v>15364.441007</v>
       </c>
       <c r="IX3" t="n">
-        <v>18074.378455</v>
+        <v>18076.343612</v>
       </c>
       <c r="IY3" t="n">
-        <v>23541.385679</v>
+        <v>23550.610489</v>
       </c>
       <c r="IZ3" t="n">
-        <v>23556.324297</v>
+        <v>23561.982259</v>
       </c>
       <c r="JA3" t="n">
-        <v>18496.09907599999</v>
+        <v>18496.418675</v>
       </c>
       <c r="JB3" t="n">
-        <v>25125.07508</v>
+        <v>25127.912671</v>
       </c>
       <c r="JC3" t="n">
-        <v>26075.773934</v>
+        <v>26077.301771</v>
       </c>
       <c r="JD3" t="n">
-        <v>24969.644087</v>
+        <v>24964.54949</v>
       </c>
       <c r="JE3" t="n">
-        <v>23564.68245</v>
+        <v>23569.915014</v>
       </c>
       <c r="JF3" t="n">
-        <v>23158.73837700001</v>
+        <v>23171.843672</v>
       </c>
       <c r="JG3" t="n">
-        <v>24540.940742</v>
+        <v>24551.299375</v>
       </c>
       <c r="JH3" t="n">
-        <v>28709.361563</v>
+        <v>28721.685311</v>
       </c>
       <c r="JI3" t="n">
-        <v>26694.997606</v>
+        <v>26701.848758</v>
       </c>
       <c r="JJ3" t="n">
-        <v>25364.891562</v>
+        <v>25381.410734</v>
       </c>
       <c r="JK3" t="n">
-        <v>28358.81647400001</v>
+        <v>28400.517012</v>
       </c>
       <c r="JL3" t="n">
-        <v>25969.474486</v>
+        <v>25993.518081</v>
       </c>
       <c r="JM3" t="n">
-        <v>21985.74060099999</v>
+        <v>22008.431966</v>
       </c>
       <c r="JN3" t="n">
-        <v>27497.595329</v>
+        <v>27481.2782</v>
       </c>
       <c r="JO3" t="n">
-        <v>28491.58510399999</v>
+        <v>28489.97684</v>
+      </c>
+      <c r="JP3" t="n">
+        <v>30577.76075</v>
+      </c>
+      <c r="JQ3" t="n">
+        <v>29850.622975</v>
+      </c>
+      <c r="JR3" t="n">
+        <v>28592.439661</v>
       </c>
     </row>
     <row r="4">
@@ -4048,109 +4081,118 @@
         <v>2426.484809</v>
       </c>
       <c r="IG4" t="n">
-        <v>2353.731723</v>
+        <v>2353.73019</v>
       </c>
       <c r="IH4" t="n">
-        <v>1788.721929</v>
+        <v>1788.689223</v>
       </c>
       <c r="II4" t="n">
-        <v>1994.976575</v>
+        <v>1994.839179</v>
       </c>
       <c r="IJ4" t="n">
-        <v>2366.78182</v>
+        <v>2366.598957</v>
       </c>
       <c r="IK4" t="n">
-        <v>2546.45345</v>
+        <v>2546.283104</v>
       </c>
       <c r="IL4" t="n">
-        <v>2122.443404</v>
+        <v>2122.302823</v>
       </c>
       <c r="IM4" t="n">
-        <v>1992.873201</v>
+        <v>1992.782134</v>
       </c>
       <c r="IN4" t="n">
-        <v>2233.749325</v>
+        <v>2233.631086</v>
       </c>
       <c r="IO4" t="n">
-        <v>1625.122363</v>
+        <v>1625.007153</v>
       </c>
       <c r="IP4" t="n">
-        <v>1876.431373</v>
+        <v>1876.321173</v>
       </c>
       <c r="IQ4" t="n">
-        <v>2316.269895</v>
+        <v>2316.07161</v>
       </c>
       <c r="IR4" t="n">
-        <v>2546.29476</v>
+        <v>2546.064474</v>
       </c>
       <c r="IS4" t="n">
-        <v>2469.569745</v>
+        <v>2469.386077</v>
       </c>
       <c r="IT4" t="n">
-        <v>1789.786885</v>
+        <v>1789.736367</v>
       </c>
       <c r="IU4" t="n">
-        <v>2260.491284</v>
+        <v>2260.300841</v>
       </c>
       <c r="IV4" t="n">
-        <v>2008.931499</v>
+        <v>2008.758719</v>
       </c>
       <c r="IW4" t="n">
-        <v>1599.283059</v>
+        <v>1599.096087</v>
       </c>
       <c r="IX4" t="n">
-        <v>1401.078431</v>
+        <v>1401.85839</v>
       </c>
       <c r="IY4" t="n">
-        <v>1848.25813</v>
+        <v>1848.045732</v>
       </c>
       <c r="IZ4" t="n">
-        <v>2116.927354</v>
+        <v>2116.690331</v>
       </c>
       <c r="JA4" t="n">
-        <v>1379.440046</v>
+        <v>1378.796228</v>
       </c>
       <c r="JB4" t="n">
-        <v>1681.568534</v>
+        <v>1680.878828</v>
       </c>
       <c r="JC4" t="n">
-        <v>1890.915238</v>
+        <v>1890.181498</v>
       </c>
       <c r="JD4" t="n">
-        <v>2167.162818</v>
+        <v>2166.087488</v>
       </c>
       <c r="JE4" t="n">
-        <v>2135.799059</v>
+        <v>2134.821802</v>
       </c>
       <c r="JF4" t="n">
-        <v>1782.215162</v>
+        <v>1781.659647</v>
       </c>
       <c r="JG4" t="n">
-        <v>2026.521868</v>
+        <v>2026.066474</v>
       </c>
       <c r="JH4" t="n">
-        <v>2158.149508</v>
+        <v>2158.350239</v>
       </c>
       <c r="JI4" t="n">
-        <v>2028.640417</v>
+        <v>2029.047861</v>
       </c>
       <c r="JJ4" t="n">
-        <v>1715.500438</v>
+        <v>1714.443482</v>
       </c>
       <c r="JK4" t="n">
-        <v>1924.681481</v>
+        <v>1924.451907</v>
       </c>
       <c r="JL4" t="n">
-        <v>1837.476893</v>
+        <v>1837.411484</v>
       </c>
       <c r="JM4" t="n">
-        <v>1701.114059</v>
+        <v>1700.236841</v>
       </c>
       <c r="JN4" t="n">
-        <v>1957.27571</v>
+        <v>1959.303467</v>
       </c>
       <c r="JO4" t="n">
-        <v>1909.699226</v>
+        <v>1917.525541</v>
+      </c>
+      <c r="JP4" t="n">
+        <v>1884.238842</v>
+      </c>
+      <c r="JQ4" t="n">
+        <v>2558.557936</v>
+      </c>
+      <c r="JR4" t="n">
+        <v>1806.5138</v>
       </c>
     </row>
     <row r="5">
@@ -4790,22 +4832,22 @@
         <v>1838.574338</v>
       </c>
       <c r="HL5" t="n">
-        <v>1915.662253</v>
+        <v>1915.662117</v>
       </c>
       <c r="HM5" t="n">
         <v>1879.431045</v>
       </c>
       <c r="HN5" t="n">
-        <v>2058.721872</v>
+        <v>2058.721804</v>
       </c>
       <c r="HO5" t="n">
-        <v>1830.669776</v>
+        <v>1830.669001</v>
       </c>
       <c r="HP5" t="n">
-        <v>1770.542154</v>
+        <v>1770.541882</v>
       </c>
       <c r="HQ5" t="n">
-        <v>1674.402178</v>
+        <v>1674.401362</v>
       </c>
       <c r="HR5" t="n">
         <v>1614.406432</v>
@@ -4820,142 +4862,151 @@
         <v>2034.957658</v>
       </c>
       <c r="HV5" t="n">
-        <v>2294.088964</v>
+        <v>2294.100959</v>
       </c>
       <c r="HW5" t="n">
-        <v>2026.539752</v>
+        <v>2026.607958</v>
       </c>
       <c r="HX5" t="n">
-        <v>2156.85442</v>
+        <v>2156.913414</v>
       </c>
       <c r="HY5" t="n">
-        <v>2226.82931</v>
+        <v>2226.89112</v>
       </c>
       <c r="HZ5" t="n">
-        <v>2088.597787</v>
+        <v>2088.62027</v>
       </c>
       <c r="IA5" t="n">
-        <v>2082.970584</v>
+        <v>2083.096574</v>
       </c>
       <c r="IB5" t="n">
-        <v>2279.345359</v>
+        <v>2279.351042</v>
       </c>
       <c r="IC5" t="n">
-        <v>1746.565844</v>
+        <v>1746.629238</v>
       </c>
       <c r="ID5" t="n">
-        <v>2286.837648</v>
+        <v>2286.852825</v>
       </c>
       <c r="IE5" t="n">
-        <v>2939.656949</v>
+        <v>2939.7305</v>
       </c>
       <c r="IF5" t="n">
-        <v>2255.125283</v>
+        <v>2255.192141</v>
       </c>
       <c r="IG5" t="n">
-        <v>2026.547449</v>
+        <v>2026.6107</v>
       </c>
       <c r="IH5" t="n">
-        <v>2283.102306</v>
+        <v>2283.098592</v>
       </c>
       <c r="II5" t="n">
-        <v>2129.969246</v>
+        <v>2129.980392</v>
       </c>
       <c r="IJ5" t="n">
-        <v>2340.081855</v>
+        <v>2340.092125</v>
       </c>
       <c r="IK5" t="n">
-        <v>2433.05463</v>
+        <v>2433.049378</v>
       </c>
       <c r="IL5" t="n">
-        <v>2273.51573</v>
+        <v>2273.518708</v>
       </c>
       <c r="IM5" t="n">
-        <v>2050.954638</v>
+        <v>2050.944959</v>
       </c>
       <c r="IN5" t="n">
-        <v>2351.992767</v>
+        <v>2351.992432</v>
       </c>
       <c r="IO5" t="n">
-        <v>1898.39058</v>
+        <v>1898.380743</v>
       </c>
       <c r="IP5" t="n">
-        <v>1756.279502</v>
+        <v>1756.275721</v>
       </c>
       <c r="IQ5" t="n">
-        <v>2370.906374</v>
+        <v>2370.943653</v>
       </c>
       <c r="IR5" t="n">
-        <v>2138.797334</v>
+        <v>2138.764818</v>
       </c>
       <c r="IS5" t="n">
-        <v>2052.338753</v>
+        <v>2052.328428</v>
       </c>
       <c r="IT5" t="n">
-        <v>1877.622493</v>
+        <v>1877.684124</v>
       </c>
       <c r="IU5" t="n">
-        <v>2157.550968</v>
+        <v>2157.725857</v>
       </c>
       <c r="IV5" t="n">
-        <v>1595.345074</v>
+        <v>1595.320601</v>
       </c>
       <c r="IW5" t="n">
-        <v>1077.906448</v>
+        <v>1077.839282</v>
       </c>
       <c r="IX5" t="n">
-        <v>1210.697166</v>
+        <v>1210.717617</v>
       </c>
       <c r="IY5" t="n">
-        <v>1581.452167</v>
+        <v>1581.474798</v>
       </c>
       <c r="IZ5" t="n">
-        <v>1623.293558</v>
+        <v>1623.350991</v>
       </c>
       <c r="JA5" t="n">
-        <v>1278.041721</v>
+        <v>1277.997816</v>
       </c>
       <c r="JB5" t="n">
-        <v>1751.7141</v>
+        <v>1751.715424</v>
       </c>
       <c r="JC5" t="n">
-        <v>1654.156645</v>
+        <v>1654.870717</v>
       </c>
       <c r="JD5" t="n">
-        <v>1733.884827</v>
+        <v>1735.872469</v>
       </c>
       <c r="JE5" t="n">
-        <v>1622.425727</v>
+        <v>1622.465215</v>
       </c>
       <c r="JF5" t="n">
-        <v>1605.161794</v>
+        <v>1607.984509</v>
       </c>
       <c r="JG5" t="n">
-        <v>1884.755113</v>
+        <v>1884.113106</v>
       </c>
       <c r="JH5" t="n">
-        <v>2322.767156</v>
+        <v>2323.406628</v>
       </c>
       <c r="JI5" t="n">
-        <v>2118.957104</v>
+        <v>2118.101316</v>
       </c>
       <c r="JJ5" t="n">
-        <v>1907.954312</v>
+        <v>1907.951024</v>
       </c>
       <c r="JK5" t="n">
-        <v>2000.450638</v>
+        <v>2000.589559</v>
       </c>
       <c r="JL5" t="n">
-        <v>1791.981314</v>
+        <v>1791.570713</v>
       </c>
       <c r="JM5" t="n">
-        <v>2097.179228</v>
+        <v>2095.278649</v>
       </c>
       <c r="JN5" t="n">
-        <v>2302.284129</v>
+        <v>2306.967968</v>
       </c>
       <c r="JO5" t="n">
-        <v>2227.870571</v>
+        <v>2319.026159</v>
+      </c>
+      <c r="JP5" t="n">
+        <v>2776.918799</v>
+      </c>
+      <c r="JQ5" t="n">
+        <v>2520.713805</v>
+      </c>
+      <c r="JR5" t="n">
+        <v>2711.79715</v>
       </c>
     </row>
     <row r="6">
@@ -5443,178 +5494,187 @@
         <v>5583.918779</v>
       </c>
       <c r="HJ6" t="n">
-        <v>5853.596419</v>
+        <v>5853.604782</v>
       </c>
       <c r="HK6" t="n">
-        <v>5905.834808</v>
+        <v>5905.844415</v>
       </c>
       <c r="HL6" t="n">
-        <v>6584.589462</v>
+        <v>6584.593168</v>
       </c>
       <c r="HM6" t="n">
-        <v>5429.952921</v>
+        <v>5429.965332</v>
       </c>
       <c r="HN6" t="n">
-        <v>5718.339437</v>
+        <v>5718.352886</v>
       </c>
       <c r="HO6" t="n">
-        <v>6051.54971</v>
+        <v>6051.554472</v>
       </c>
       <c r="HP6" t="n">
-        <v>5527.524195</v>
+        <v>5527.536996</v>
       </c>
       <c r="HQ6" t="n">
-        <v>4914.433749</v>
+        <v>4914.452273</v>
       </c>
       <c r="HR6" t="n">
-        <v>5765.496907</v>
+        <v>5765.512093</v>
       </c>
       <c r="HS6" t="n">
-        <v>6098.710485</v>
+        <v>6098.759527</v>
       </c>
       <c r="HT6" t="n">
-        <v>6090.258424</v>
+        <v>6090.265508</v>
       </c>
       <c r="HU6" t="n">
-        <v>4943.629835</v>
+        <v>4943.637125</v>
       </c>
       <c r="HV6" t="n">
-        <v>6093.008052</v>
+        <v>6093.027447</v>
       </c>
       <c r="HW6" t="n">
-        <v>6068.027478</v>
+        <v>6068.035582</v>
       </c>
       <c r="HX6" t="n">
-        <v>6362.179345</v>
+        <v>6362.263346</v>
       </c>
       <c r="HY6" t="n">
-        <v>5826.36436</v>
+        <v>5826.418273</v>
       </c>
       <c r="HZ6" t="n">
-        <v>5741.842605</v>
+        <v>5741.907801</v>
       </c>
       <c r="IA6" t="n">
-        <v>6078.855112</v>
+        <v>6078.899344</v>
       </c>
       <c r="IB6" t="n">
-        <v>5999.535437</v>
+        <v>5999.587133</v>
       </c>
       <c r="IC6" t="n">
-        <v>4921.107782</v>
+        <v>4921.156484</v>
       </c>
       <c r="ID6" t="n">
-        <v>5899.219613</v>
+        <v>5899.24399</v>
       </c>
       <c r="IE6" t="n">
-        <v>6421.669809</v>
+        <v>6422.674958</v>
       </c>
       <c r="IF6" t="n">
-        <v>6126.29659</v>
+        <v>6126.342411</v>
       </c>
       <c r="IG6" t="n">
-        <v>5147.472590000003</v>
+        <v>5147.488451</v>
       </c>
       <c r="IH6" t="n">
-        <v>5994.963579999998</v>
+        <v>5994.958524</v>
       </c>
       <c r="II6" t="n">
-        <v>6038.21722000001</v>
+        <v>6038.297735</v>
       </c>
       <c r="IJ6" t="n">
-        <v>6573.410326999996</v>
+        <v>6573.427097</v>
       </c>
       <c r="IK6" t="n">
-        <v>5827.44888700001</v>
+        <v>5827.38196</v>
       </c>
       <c r="IL6" t="n">
-        <v>5745.810323</v>
+        <v>5745.695073</v>
       </c>
       <c r="IM6" t="n">
-        <v>5649.492528000008</v>
+        <v>5649.926532</v>
       </c>
       <c r="IN6" t="n">
-        <v>6120.97995700001</v>
+        <v>6120.413556</v>
       </c>
       <c r="IO6" t="n">
-        <v>4817.204052000003</v>
+        <v>4816.504604</v>
       </c>
       <c r="IP6" t="n">
-        <v>5738.703553999996</v>
+        <v>5737.663028</v>
       </c>
       <c r="IQ6" t="n">
-        <v>6389.808134999999</v>
+        <v>6390.861879</v>
       </c>
       <c r="IR6" t="n">
-        <v>5485.143249000001</v>
+        <v>5484.557089</v>
       </c>
       <c r="IS6" t="n">
-        <v>5506.313316000011</v>
+        <v>5511.406225</v>
       </c>
       <c r="IT6" t="n">
-        <v>5684.488539999996</v>
+        <v>5685.224505</v>
       </c>
       <c r="IU6" t="n">
-        <v>5967.17913</v>
+        <v>5967.711298</v>
       </c>
       <c r="IV6" t="n">
-        <v>5385.287389000001</v>
+        <v>5385.487174</v>
       </c>
       <c r="IW6" t="n">
-        <v>3461.251750999997</v>
+        <v>3462.253067</v>
       </c>
       <c r="IX6" t="n">
-        <v>3944.523174999997</v>
+        <v>3946.376041</v>
       </c>
       <c r="IY6" t="n">
-        <v>4701.522287000011</v>
+        <v>4702.207716</v>
       </c>
       <c r="IZ6" t="n">
-        <v>4886.666679000007</v>
+        <v>4886.231188</v>
       </c>
       <c r="JA6" t="n">
-        <v>4187.943512000005</v>
+        <v>4187.590755</v>
       </c>
       <c r="JB6" t="n">
-        <v>5664.16738499999</v>
+        <v>5662.978814</v>
       </c>
       <c r="JC6" t="n">
-        <v>5919.582573999996</v>
+        <v>5919.56825</v>
       </c>
       <c r="JD6" t="n">
-        <v>6058.878744000001</v>
+        <v>6057.83023</v>
       </c>
       <c r="JE6" t="n">
-        <v>4910.955895999999</v>
+        <v>4914.444914</v>
       </c>
       <c r="JF6" t="n">
-        <v>5144.013619999996</v>
+        <v>5145.101297</v>
       </c>
       <c r="JG6" t="n">
-        <v>5223.277048</v>
+        <v>5227.892709</v>
       </c>
       <c r="JH6" t="n">
-        <v>6628.237118999992</v>
+        <v>6628.419011</v>
       </c>
       <c r="JI6" t="n">
-        <v>5293.775052999999</v>
+        <v>5298.377514</v>
       </c>
       <c r="JJ6" t="n">
-        <v>5118.596406999994</v>
+        <v>5125.46624</v>
       </c>
       <c r="JK6" t="n">
-        <v>6150.943508000004</v>
+        <v>6165.716771</v>
       </c>
       <c r="JL6" t="n">
-        <v>5588.074754999994</v>
+        <v>5605.066638</v>
       </c>
       <c r="JM6" t="n">
-        <v>4955.310656999993</v>
+        <v>4963.237474</v>
       </c>
       <c r="JN6" t="n">
-        <v>6034.181629000008</v>
+        <v>6036.825166</v>
       </c>
       <c r="JO6" t="n">
-        <v>6371.285374999994</v>
+        <v>6372.460099</v>
+      </c>
+      <c r="JP6" t="n">
+        <v>6309.514515</v>
+      </c>
+      <c r="JQ6" t="n">
+        <v>5676.955169</v>
+      </c>
+      <c r="JR6" t="n">
+        <v>6312.712454</v>
       </c>
     </row>
     <row r="7">
@@ -6099,7 +6159,7 @@
         <v>7701.963597</v>
       </c>
       <c r="HI7" t="n">
-        <v>6998.874692</v>
+        <v>6998.903863</v>
       </c>
       <c r="HJ7" t="n">
         <v>7221.143836</v>
@@ -6123,157 +6183,166 @@
         <v>7054.825118</v>
       </c>
       <c r="HQ7" t="n">
-        <v>5963.825419</v>
+        <v>5963.881893</v>
       </c>
       <c r="HR7" t="n">
-        <v>7382.360554</v>
+        <v>7382.4156</v>
       </c>
       <c r="HS7" t="n">
-        <v>7368.71758</v>
+        <v>7368.930033</v>
       </c>
       <c r="HT7" t="n">
-        <v>8030.43588</v>
+        <v>8030.585699</v>
       </c>
       <c r="HU7" t="n">
-        <v>6294.735681</v>
+        <v>6294.804388</v>
       </c>
       <c r="HV7" t="n">
-        <v>7942.421486</v>
+        <v>7942.486719</v>
       </c>
       <c r="HW7" t="n">
-        <v>7217.134711</v>
+        <v>7217.204695</v>
       </c>
       <c r="HX7" t="n">
-        <v>7997.268869</v>
+        <v>7997.324969</v>
       </c>
       <c r="HY7" t="n">
-        <v>7292.327545</v>
+        <v>7292.418002</v>
       </c>
       <c r="HZ7" t="n">
-        <v>7113.303667</v>
+        <v>7113.404305</v>
       </c>
       <c r="IA7" t="n">
-        <v>7579.560074</v>
+        <v>7579.643294</v>
       </c>
       <c r="IB7" t="n">
-        <v>7263.863267</v>
+        <v>7263.925963</v>
       </c>
       <c r="IC7" t="n">
-        <v>5841.125988</v>
+        <v>5841.177284</v>
       </c>
       <c r="ID7" t="n">
-        <v>7232.687969</v>
+        <v>7232.873643</v>
       </c>
       <c r="IE7" t="n">
-        <v>7666.576082</v>
+        <v>7666.64012</v>
       </c>
       <c r="IF7" t="n">
-        <v>7318.488590999998</v>
+        <v>7318.548917</v>
       </c>
       <c r="IG7" t="n">
-        <v>6293.727691000004</v>
+        <v>6294.598368</v>
       </c>
       <c r="IH7" t="n">
-        <v>7140.834884999998</v>
+        <v>7140.978042</v>
       </c>
       <c r="II7" t="n">
-        <v>7159.561713000001</v>
+        <v>7159.880865</v>
       </c>
       <c r="IJ7" t="n">
-        <v>7948.391988000003</v>
+        <v>7948.454275</v>
       </c>
       <c r="IK7" t="n">
-        <v>7214.846235000005</v>
+        <v>7214.870267</v>
       </c>
       <c r="IL7" t="n">
-        <v>7615.942940000003</v>
+        <v>7616.034738</v>
       </c>
       <c r="IM7" t="n">
-        <v>6697.616812000002</v>
+        <v>6697.920734</v>
       </c>
       <c r="IN7" t="n">
-        <v>7382.683027000005</v>
+        <v>7382.861696</v>
       </c>
       <c r="IO7" t="n">
-        <v>5515.953410999999</v>
+        <v>5516.024049</v>
       </c>
       <c r="IP7" t="n">
-        <v>7286.327242000003</v>
+        <v>7286.697969</v>
       </c>
       <c r="IQ7" t="n">
-        <v>7833.580845999999</v>
+        <v>7835.030444</v>
       </c>
       <c r="IR7" t="n">
-        <v>7219.289005999994</v>
+        <v>7220.11365</v>
       </c>
       <c r="IS7" t="n">
-        <v>6013.271572000011</v>
+        <v>6014.283709</v>
       </c>
       <c r="IT7" t="n">
-        <v>6632.501385999998</v>
+        <v>6634.539347</v>
       </c>
       <c r="IU7" t="n">
-        <v>6994.653685000003</v>
+        <v>6995.739865</v>
       </c>
       <c r="IV7" t="n">
-        <v>6005.930551999991</v>
+        <v>6006.989949</v>
       </c>
       <c r="IW7" t="n">
-        <v>4102.039333999994</v>
+        <v>4102.856785</v>
       </c>
       <c r="IX7" t="n">
-        <v>4956.683848999999</v>
+        <v>4958.610046</v>
       </c>
       <c r="IY7" t="n">
-        <v>5862.512434</v>
+        <v>5865.401662</v>
       </c>
       <c r="IZ7" t="n">
-        <v>5999.472864999998</v>
+        <v>6004.220849</v>
       </c>
       <c r="JA7" t="n">
-        <v>4727.950398999992</v>
+        <v>4729.956403</v>
       </c>
       <c r="JB7" t="n">
-        <v>6690.397537999996</v>
+        <v>6694.21835</v>
       </c>
       <c r="JC7" t="n">
-        <v>6892.083310000005</v>
+        <v>6897.370982</v>
       </c>
       <c r="JD7" t="n">
-        <v>6828.544337000001</v>
+        <v>6830.726012</v>
       </c>
       <c r="JE7" t="n">
-        <v>6053.673353000002</v>
+        <v>6058.312193</v>
       </c>
       <c r="JF7" t="n">
-        <v>5989.441231000006</v>
+        <v>5999.0464</v>
       </c>
       <c r="JG7" t="n">
-        <v>6350.326153000005</v>
+        <v>6358.598454</v>
       </c>
       <c r="JH7" t="n">
-        <v>7452.438186000003</v>
+        <v>7464.373138</v>
       </c>
       <c r="JI7" t="n">
-        <v>6803.839414000004</v>
+        <v>6816.270009</v>
       </c>
       <c r="JJ7" t="n">
-        <v>6498.797266999996</v>
+        <v>6507.17383</v>
       </c>
       <c r="JK7" t="n">
-        <v>7135.802973000013</v>
+        <v>7144.468337</v>
       </c>
       <c r="JL7" t="n">
-        <v>6426.011483</v>
+        <v>6441.614049</v>
       </c>
       <c r="JM7" t="n">
-        <v>5583.851694999996</v>
+        <v>5601.150013</v>
       </c>
       <c r="JN7" t="n">
-        <v>6818.989686000004</v>
+        <v>6817.000152</v>
       </c>
       <c r="JO7" t="n">
-        <v>7001.380072999982</v>
+        <v>7002.817351</v>
+      </c>
+      <c r="JP7" t="n">
+        <v>7720.574481</v>
+      </c>
+      <c r="JQ7" t="n">
+        <v>7388.63473</v>
+      </c>
+      <c r="JR7" t="n">
+        <v>6864.099558</v>
       </c>
     </row>
     <row r="8">
@@ -6776,7 +6845,7 @@
         <v>3181.12223</v>
       </c>
       <c r="HO8" t="n">
-        <v>3150.570521</v>
+        <v>3150.571036</v>
       </c>
       <c r="HP8" t="n">
         <v>3094.679675</v>
@@ -6785,10 +6854,10 @@
         <v>2030.037609</v>
       </c>
       <c r="HR8" t="n">
-        <v>3040.352442</v>
+        <v>3040.352657</v>
       </c>
       <c r="HS8" t="n">
-        <v>3151.204553</v>
+        <v>3151.210941</v>
       </c>
       <c r="HT8" t="n">
         <v>3161.132863</v>
@@ -6803,136 +6872,145 @@
         <v>3023.942574</v>
       </c>
       <c r="HX8" t="n">
-        <v>3344.28988</v>
+        <v>3344.29736</v>
       </c>
       <c r="HY8" t="n">
-        <v>2998.103426</v>
+        <v>2998.108486</v>
       </c>
       <c r="HZ8" t="n">
-        <v>3107.477652</v>
+        <v>3107.491433</v>
       </c>
       <c r="IA8" t="n">
-        <v>3276.321268</v>
+        <v>3276.333768</v>
       </c>
       <c r="IB8" t="n">
-        <v>3173.136789</v>
+        <v>3173.14264</v>
       </c>
       <c r="IC8" t="n">
-        <v>2156.376467</v>
+        <v>2156.379828</v>
       </c>
       <c r="ID8" t="n">
-        <v>2969.143226</v>
+        <v>2969.148741</v>
       </c>
       <c r="IE8" t="n">
-        <v>3274.933017</v>
+        <v>3274.937438</v>
       </c>
       <c r="IF8" t="n">
-        <v>3256.590539</v>
+        <v>3256.594641</v>
       </c>
       <c r="IG8" t="n">
-        <v>2625.903723</v>
+        <v>2625.905867</v>
       </c>
       <c r="IH8" t="n">
-        <v>3313.373403</v>
+        <v>3313.404565</v>
       </c>
       <c r="II8" t="n">
-        <v>3142.152821</v>
+        <v>3142.436536</v>
       </c>
       <c r="IJ8" t="n">
-        <v>3432.539078</v>
+        <v>3432.680686</v>
       </c>
       <c r="IK8" t="n">
-        <v>3204.303141</v>
+        <v>3203.743296</v>
       </c>
       <c r="IL8" t="n">
-        <v>3349.863385</v>
+        <v>3353.279308</v>
       </c>
       <c r="IM8" t="n">
-        <v>3227.62051</v>
+        <v>3229.769919</v>
       </c>
       <c r="IN8" t="n">
-        <v>3387.287356</v>
+        <v>3387.936775</v>
       </c>
       <c r="IO8" t="n">
-        <v>2182.62381</v>
+        <v>2182.845034</v>
       </c>
       <c r="IP8" t="n">
-        <v>3060.352525</v>
+        <v>3061.395925</v>
       </c>
       <c r="IQ8" t="n">
-        <v>3413.218125</v>
+        <v>3413.628546</v>
       </c>
       <c r="IR8" t="n">
-        <v>3204.222937</v>
+        <v>3204.830943</v>
       </c>
       <c r="IS8" t="n">
-        <v>2661.476067</v>
+        <v>2670.111619</v>
       </c>
       <c r="IT8" t="n">
-        <v>3124.357411</v>
+        <v>3125.340058</v>
       </c>
       <c r="IU8" t="n">
-        <v>3188.1039</v>
+        <v>3189.150071</v>
       </c>
       <c r="IV8" t="n">
-        <v>2693.517937</v>
+        <v>2693.175387</v>
       </c>
       <c r="IW8" t="n">
-        <v>1986.307856</v>
+        <v>1986.83002</v>
       </c>
       <c r="IX8" t="n">
-        <v>2104.312298</v>
+        <v>2105.516783</v>
       </c>
       <c r="IY8" t="n">
-        <v>2612.096515</v>
+        <v>2613.246701</v>
       </c>
       <c r="IZ8" t="n">
-        <v>2865.152612</v>
+        <v>2866.591018</v>
       </c>
       <c r="JA8" t="n">
-        <v>1762.66626</v>
+        <v>1763.54074</v>
       </c>
       <c r="JB8" t="n">
-        <v>2905.548402</v>
+        <v>2906.724187</v>
       </c>
       <c r="JC8" t="n">
-        <v>3217.049658</v>
+        <v>3218.025882</v>
       </c>
       <c r="JD8" t="n">
-        <v>3080.142399</v>
+        <v>3080.060839</v>
       </c>
       <c r="JE8" t="n">
-        <v>2715.883131</v>
+        <v>2715.7792</v>
       </c>
       <c r="JF8" t="n">
-        <v>2931.076262</v>
+        <v>2938.972698</v>
       </c>
       <c r="JG8" t="n">
-        <v>2967.440692</v>
+        <v>2977.20664</v>
       </c>
       <c r="JH8" t="n">
-        <v>3473.543079</v>
+        <v>3477.585125</v>
       </c>
       <c r="JI8" t="n">
-        <v>3104.955535</v>
+        <v>3124.176951</v>
       </c>
       <c r="JJ8" t="n">
-        <v>3039.425999</v>
+        <v>3043.886928</v>
       </c>
       <c r="JK8" t="n">
-        <v>3720.048482</v>
+        <v>3726.118507</v>
       </c>
       <c r="JL8" t="n">
-        <v>3316.288907</v>
+        <v>3324.355679</v>
       </c>
       <c r="JM8" t="n">
-        <v>2172.99662</v>
+        <v>2176.875381</v>
       </c>
       <c r="JN8" t="n">
-        <v>3453.958067</v>
+        <v>3452.766072</v>
       </c>
       <c r="JO8" t="n">
-        <v>3522.453802</v>
+        <v>3525.400601</v>
+      </c>
+      <c r="JP8" t="n">
+        <v>3839.872022</v>
+      </c>
+      <c r="JQ8" t="n">
+        <v>3465.594854</v>
+      </c>
+      <c r="JR8" t="n">
+        <v>4138.44579</v>
       </c>
     </row>
     <row r="9">
@@ -7420,178 +7498,187 @@
         <v>3229.972783</v>
       </c>
       <c r="HJ9" t="n">
-        <v>3061.047745</v>
+        <v>3061.119966</v>
       </c>
       <c r="HK9" t="n">
-        <v>3383.617747</v>
+        <v>3383.726333</v>
       </c>
       <c r="HL9" t="n">
-        <v>4034.206984</v>
+        <v>4034.307175</v>
       </c>
       <c r="HM9" t="n">
-        <v>3250.328755</v>
+        <v>3250.438125</v>
       </c>
       <c r="HN9" t="n">
-        <v>3842.405182</v>
+        <v>3842.563592</v>
       </c>
       <c r="HO9" t="n">
-        <v>3794.649611</v>
+        <v>3794.68946</v>
       </c>
       <c r="HP9" t="n">
-        <v>3683.565546</v>
+        <v>3683.618038</v>
       </c>
       <c r="HQ9" t="n">
-        <v>2714.330326</v>
+        <v>2714.34452</v>
       </c>
       <c r="HR9" t="n">
-        <v>3570.049145</v>
+        <v>3570.085451</v>
       </c>
       <c r="HS9" t="n">
-        <v>3780.803368</v>
+        <v>3780.843456</v>
       </c>
       <c r="HT9" t="n">
-        <v>3829.153553</v>
+        <v>3829.225108</v>
       </c>
       <c r="HU9" t="n">
-        <v>3199.699369</v>
+        <v>3200.042603</v>
       </c>
       <c r="HV9" t="n">
-        <v>3276.08421</v>
+        <v>3276.178447</v>
       </c>
       <c r="HW9" t="n">
-        <v>3533.71478</v>
+        <v>3534.142435</v>
       </c>
       <c r="HX9" t="n">
-        <v>3928.911492</v>
+        <v>3929.179658</v>
       </c>
       <c r="HY9" t="n">
-        <v>3541.488148</v>
+        <v>3541.515503</v>
       </c>
       <c r="HZ9" t="n">
-        <v>3785.614681</v>
+        <v>3785.650684</v>
       </c>
       <c r="IA9" t="n">
-        <v>3939.491788</v>
+        <v>3939.544023</v>
       </c>
       <c r="IB9" t="n">
-        <v>3724.933227</v>
+        <v>3725.07672</v>
       </c>
       <c r="IC9" t="n">
-        <v>2794.737415</v>
+        <v>2794.779432</v>
       </c>
       <c r="ID9" t="n">
-        <v>3506.810438</v>
+        <v>3507.296007</v>
       </c>
       <c r="IE9" t="n">
-        <v>3864.2667</v>
+        <v>3864.510997</v>
       </c>
       <c r="IF9" t="n">
-        <v>3764.279577</v>
+        <v>3764.34008</v>
       </c>
       <c r="IG9" t="n">
-        <v>3237.27451</v>
+        <v>3239.235702</v>
       </c>
       <c r="IH9" t="n">
-        <v>3432.301323</v>
+        <v>3432.560327</v>
       </c>
       <c r="II9" t="n">
-        <v>3599.410569</v>
+        <v>3599.891851</v>
       </c>
       <c r="IJ9" t="n">
-        <v>3875.947549</v>
+        <v>3876.531324</v>
       </c>
       <c r="IK9" t="n">
-        <v>3565.80561</v>
+        <v>3566.586592</v>
       </c>
       <c r="IL9" t="n">
-        <v>3830.968107</v>
+        <v>3831.52412</v>
       </c>
       <c r="IM9" t="n">
-        <v>3884.043996</v>
+        <v>3885.030666</v>
       </c>
       <c r="IN9" t="n">
-        <v>4136.56982</v>
+        <v>4137.39507</v>
       </c>
       <c r="IO9" t="n">
-        <v>2569.766058</v>
+        <v>2570.523509</v>
       </c>
       <c r="IP9" t="n">
-        <v>3619.13682</v>
+        <v>3619.622566</v>
       </c>
       <c r="IQ9" t="n">
-        <v>4034.104139</v>
+        <v>4034.987989</v>
       </c>
       <c r="IR9" t="n">
-        <v>3629.230861</v>
+        <v>3629.792074</v>
       </c>
       <c r="IS9" t="n">
-        <v>3326.045402</v>
+        <v>3330.774486</v>
       </c>
       <c r="IT9" t="n">
-        <v>3358.454902</v>
+        <v>3359.492194</v>
       </c>
       <c r="IU9" t="n">
-        <v>3633.515129</v>
+        <v>3634.827448</v>
       </c>
       <c r="IV9" t="n">
-        <v>3056.461746</v>
+        <v>3057.701907</v>
       </c>
       <c r="IW9" t="n">
-        <v>1934.671747</v>
+        <v>1935.334414</v>
       </c>
       <c r="IX9" t="n">
-        <v>2608.564309</v>
+        <v>2609.447228</v>
       </c>
       <c r="IY9" t="n">
-        <v>3449.097196</v>
+        <v>3451.21676</v>
       </c>
       <c r="IZ9" t="n">
-        <v>3673.901079</v>
+        <v>3675.395756</v>
       </c>
       <c r="JA9" t="n">
-        <v>2617.188371</v>
+        <v>2618.645533</v>
       </c>
       <c r="JB9" t="n">
-        <v>3905.414255</v>
+        <v>3907.175364</v>
       </c>
       <c r="JC9" t="n">
-        <v>3835.316429</v>
+        <v>3837.194395</v>
       </c>
       <c r="JD9" t="n">
-        <v>3679.21418</v>
+        <v>3678.54641</v>
       </c>
       <c r="JE9" t="n">
-        <v>3479.566129</v>
+        <v>3487.108935</v>
       </c>
       <c r="JF9" t="n">
-        <v>3163.45794</v>
+        <v>3167.344196</v>
       </c>
       <c r="JG9" t="n">
-        <v>3538.78189</v>
+        <v>3539.935906</v>
       </c>
       <c r="JH9" t="n">
-        <v>4244.684146</v>
+        <v>4243.925612</v>
       </c>
       <c r="JI9" t="n">
-        <v>3900.180491</v>
+        <v>3898.476815</v>
       </c>
       <c r="JJ9" t="n">
-        <v>3833.373757</v>
+        <v>3833.639856</v>
       </c>
       <c r="JK9" t="n">
-        <v>4114.820165</v>
+        <v>4114.562647</v>
       </c>
       <c r="JL9" t="n">
-        <v>4029.368993</v>
+        <v>4028.649531</v>
       </c>
       <c r="JM9" t="n">
-        <v>2939.616607</v>
+        <v>2941.097239</v>
       </c>
       <c r="JN9" t="n">
-        <v>4086.774194</v>
+        <v>4085.010852</v>
       </c>
       <c r="JO9" t="n">
-        <v>3985.925334</v>
+        <v>3991.524288</v>
+      </c>
+      <c r="JP9" t="n">
+        <v>4204.807473</v>
+      </c>
+      <c r="JQ9" t="n">
+        <v>4175.801622</v>
+      </c>
+      <c r="JR9" t="n">
+        <v>3456.911971</v>
       </c>
     </row>
     <row r="10">
@@ -8079,178 +8166,187 @@
         <v>2456.997528</v>
       </c>
       <c r="HJ10" t="n">
-        <v>2371.989727</v>
+        <v>2371.997633</v>
       </c>
       <c r="HK10" t="n">
-        <v>2445.706019</v>
+        <v>2445.71365</v>
       </c>
       <c r="HL10" t="n">
-        <v>2818.882114</v>
+        <v>2818.885294</v>
       </c>
       <c r="HM10" t="n">
-        <v>2463.958665</v>
+        <v>2463.961275</v>
       </c>
       <c r="HN10" t="n">
-        <v>2611.367589</v>
+        <v>2611.373772</v>
       </c>
       <c r="HO10" t="n">
-        <v>2823.417423</v>
+        <v>2823.419102</v>
       </c>
       <c r="HP10" t="n">
-        <v>2609.893737</v>
+        <v>2609.904976</v>
       </c>
       <c r="HQ10" t="n">
-        <v>2348.955874</v>
+        <v>2348.976494</v>
       </c>
       <c r="HR10" t="n">
-        <v>2689.906274</v>
+        <v>2689.911837</v>
       </c>
       <c r="HS10" t="n">
-        <v>2721.982566</v>
+        <v>2721.987734</v>
       </c>
       <c r="HT10" t="n">
-        <v>2932.711142</v>
+        <v>2932.718404</v>
       </c>
       <c r="HU10" t="n">
-        <v>2365.534446</v>
+        <v>2365.544414</v>
       </c>
       <c r="HV10" t="n">
-        <v>2627.409855</v>
+        <v>2627.418231</v>
       </c>
       <c r="HW10" t="n">
-        <v>2575.75359</v>
+        <v>2575.760099</v>
       </c>
       <c r="HX10" t="n">
-        <v>2714.240684</v>
+        <v>2714.258618</v>
       </c>
       <c r="HY10" t="n">
-        <v>2657.717316</v>
+        <v>2657.733561</v>
       </c>
       <c r="HZ10" t="n">
-        <v>2494.096931</v>
+        <v>2494.118908</v>
       </c>
       <c r="IA10" t="n">
-        <v>2779.570407</v>
+        <v>2779.589447</v>
       </c>
       <c r="IB10" t="n">
-        <v>2795.991341</v>
+        <v>2796.032336</v>
       </c>
       <c r="IC10" t="n">
-        <v>2356.694997</v>
+        <v>2356.738031</v>
       </c>
       <c r="ID10" t="n">
-        <v>2751.248178</v>
+        <v>2751.262331</v>
       </c>
       <c r="IE10" t="n">
-        <v>3221.844641</v>
+        <v>3222.241826</v>
       </c>
       <c r="IF10" t="n">
-        <v>3042.101588</v>
+        <v>3044.643408</v>
       </c>
       <c r="IG10" t="n">
-        <v>2660.395696</v>
+        <v>2660.715291</v>
       </c>
       <c r="IH10" t="n">
-        <v>2941.776696</v>
+        <v>2942.233264</v>
       </c>
       <c r="II10" t="n">
-        <v>3154.217974</v>
+        <v>3155.17116</v>
       </c>
       <c r="IJ10" t="n">
-        <v>3834.252554</v>
+        <v>3834.989789</v>
       </c>
       <c r="IK10" t="n">
-        <v>2557.243379</v>
+        <v>2559.448902</v>
       </c>
       <c r="IL10" t="n">
-        <v>2453.607966999999</v>
+        <v>2454.760415</v>
       </c>
       <c r="IM10" t="n">
-        <v>2653.407521</v>
+        <v>2654.837159</v>
       </c>
       <c r="IN10" t="n">
-        <v>2932.82431</v>
+        <v>2933.811772</v>
       </c>
       <c r="IO10" t="n">
-        <v>2667.568745</v>
+        <v>2668.237038</v>
       </c>
       <c r="IP10" t="n">
-        <v>2749.189433999999</v>
+        <v>2750.905575</v>
       </c>
       <c r="IQ10" t="n">
-        <v>3140.991855000001</v>
+        <v>3143.259155</v>
       </c>
       <c r="IR10" t="n">
-        <v>2656.487932999999</v>
+        <v>2659.029613</v>
       </c>
       <c r="IS10" t="n">
-        <v>2642.491695</v>
+        <v>2644.315143</v>
       </c>
       <c r="IT10" t="n">
-        <v>2347.068732</v>
+        <v>2349.719108</v>
       </c>
       <c r="IU10" t="n">
-        <v>2722.730838</v>
+        <v>2725.293827</v>
       </c>
       <c r="IV10" t="n">
-        <v>2583.399542</v>
+        <v>2585.729228</v>
       </c>
       <c r="IW10" t="n">
-        <v>1218.243994</v>
+        <v>1219.470613</v>
       </c>
       <c r="IX10" t="n">
-        <v>1472.295948</v>
+        <v>1475.187284</v>
       </c>
       <c r="IY10" t="n">
-        <v>2019.376836</v>
+        <v>2022.386226</v>
       </c>
       <c r="IZ10" t="n">
-        <v>2246.951817</v>
+        <v>2249.170773</v>
       </c>
       <c r="JA10" t="n">
-        <v>1767.292367</v>
+        <v>1768.77534</v>
       </c>
       <c r="JB10" t="n">
-        <v>2586.210894</v>
+        <v>2586.420483</v>
       </c>
       <c r="JC10" t="n">
-        <v>2661.67246</v>
+        <v>2661.085562</v>
       </c>
       <c r="JD10" t="n">
-        <v>2576.85852</v>
+        <v>2576.658646</v>
       </c>
       <c r="JE10" t="n">
-        <v>2738.806694999999</v>
+        <v>2738.887082</v>
       </c>
       <c r="JF10" t="n">
-        <v>1834.734093</v>
+        <v>1836.560534</v>
       </c>
       <c r="JG10" t="n">
-        <v>2137.23894</v>
+        <v>2137.292104</v>
       </c>
       <c r="JH10" t="n">
-        <v>2490.336453</v>
+        <v>2492.448591</v>
       </c>
       <c r="JI10" t="n">
-        <v>2280.799137</v>
+        <v>2281.937205</v>
       </c>
       <c r="JJ10" t="n">
-        <v>2177.916244999999</v>
+        <v>2175.488283</v>
       </c>
       <c r="JK10" t="n">
-        <v>2581.407831</v>
+        <v>2580.052751</v>
       </c>
       <c r="JL10" t="n">
-        <v>2354.706269000001</v>
+        <v>2354.473184</v>
       </c>
       <c r="JM10" t="n">
-        <v>2254.204784</v>
+        <v>2253.260532</v>
       </c>
       <c r="JN10" t="n">
-        <v>2602.96164</v>
+        <v>2604.350381</v>
       </c>
       <c r="JO10" t="n">
-        <v>2675.387301</v>
+        <v>2661.675558</v>
+      </c>
+      <c r="JP10" t="n">
+        <v>2746.593513</v>
+      </c>
+      <c r="JQ10" t="n">
+        <v>2912.505361</v>
+      </c>
+      <c r="JR10" t="n">
+        <v>2260.218607</v>
       </c>
     </row>
     <row r="11">
@@ -8729,7 +8825,7 @@
         <v>1855.182009</v>
       </c>
       <c r="HG11" t="n">
-        <v>1738.448818</v>
+        <v>1737.994652</v>
       </c>
       <c r="HH11" t="n">
         <v>1844.168606</v>
@@ -8741,7 +8837,7 @@
         <v>1796.562076</v>
       </c>
       <c r="HK11" t="n">
-        <v>1754.58899</v>
+        <v>1754.588965</v>
       </c>
       <c r="HL11" t="n">
         <v>2125.491216</v>
@@ -8759,157 +8855,166 @@
         <v>1731.044126</v>
       </c>
       <c r="HQ11" t="n">
-        <v>1472.975857</v>
+        <v>1472.978626</v>
       </c>
       <c r="HR11" t="n">
-        <v>1865.134021</v>
+        <v>1865.135715</v>
       </c>
       <c r="HS11" t="n">
-        <v>1820.035864</v>
+        <v>1820.036987</v>
       </c>
       <c r="HT11" t="n">
-        <v>1964.7656</v>
+        <v>1964.767498</v>
       </c>
       <c r="HU11" t="n">
-        <v>1821.838827</v>
+        <v>1821.843817</v>
       </c>
       <c r="HV11" t="n">
-        <v>1723.484327</v>
+        <v>1723.531059</v>
       </c>
       <c r="HW11" t="n">
-        <v>1767.885249</v>
+        <v>1767.909001</v>
       </c>
       <c r="HX11" t="n">
-        <v>1866.277714</v>
+        <v>1866.287161</v>
       </c>
       <c r="HY11" t="n">
-        <v>1712.683085</v>
+        <v>1712.692279</v>
       </c>
       <c r="HZ11" t="n">
-        <v>1712.637643</v>
+        <v>1712.659106</v>
       </c>
       <c r="IA11" t="n">
-        <v>1806.212443</v>
+        <v>1806.221644</v>
       </c>
       <c r="IB11" t="n">
-        <v>1735.829174</v>
+        <v>1735.848888</v>
       </c>
       <c r="IC11" t="n">
-        <v>1410.102313</v>
+        <v>1410.112082</v>
       </c>
       <c r="ID11" t="n">
-        <v>1703.216224</v>
+        <v>1703.262291</v>
       </c>
       <c r="IE11" t="n">
-        <v>1819.369013</v>
+        <v>1819.391936</v>
       </c>
       <c r="IF11" t="n">
-        <v>1818.018143</v>
+        <v>1818.065047</v>
       </c>
       <c r="IG11" t="n">
-        <v>1554.36241</v>
+        <v>1554.396857</v>
       </c>
       <c r="IH11" t="n">
-        <v>1804.108796</v>
+        <v>1803.75905</v>
       </c>
       <c r="II11" t="n">
-        <v>1824.909335</v>
+        <v>1824.313162</v>
       </c>
       <c r="IJ11" t="n">
-        <v>2390.310710999999</v>
+        <v>2389.557333</v>
       </c>
       <c r="IK11" t="n">
-        <v>1737.167445999999</v>
+        <v>1736.681013</v>
       </c>
       <c r="IL11" t="n">
-        <v>1685.901069</v>
+        <v>1685.448382</v>
       </c>
       <c r="IM11" t="n">
-        <v>1738.724968</v>
+        <v>1738.02795</v>
       </c>
       <c r="IN11" t="n">
-        <v>1705.348546</v>
+        <v>1704.682288</v>
       </c>
       <c r="IO11" t="n">
-        <v>1614.678616</v>
+        <v>1614.111066</v>
       </c>
       <c r="IP11" t="n">
-        <v>1785.761888999999</v>
+        <v>1784.98593</v>
       </c>
       <c r="IQ11" t="n">
-        <v>2125.438963000001</v>
+        <v>2124.24659</v>
       </c>
       <c r="IR11" t="n">
-        <v>1687.023077</v>
+        <v>1686.185325</v>
       </c>
       <c r="IS11" t="n">
-        <v>1684.105600999999</v>
+        <v>1683.568897</v>
       </c>
       <c r="IT11" t="n">
-        <v>1654.750688</v>
+        <v>1654.362698</v>
       </c>
       <c r="IU11" t="n">
-        <v>1736.383853</v>
+        <v>1735.453268</v>
       </c>
       <c r="IV11" t="n">
-        <v>1450.662280999999</v>
+        <v>1449.684734</v>
       </c>
       <c r="IW11" t="n">
-        <v>917.809176</v>
+        <v>917.539596</v>
       </c>
       <c r="IX11" t="n">
-        <v>1091.069873</v>
+        <v>1089.991018</v>
       </c>
       <c r="IY11" t="n">
-        <v>1404.02695</v>
+        <v>1402.081736</v>
       </c>
       <c r="IZ11" t="n">
-        <v>1358.759784</v>
+        <v>1357.38058</v>
       </c>
       <c r="JA11" t="n">
-        <v>1179.423072</v>
+        <v>1178.372498</v>
       </c>
       <c r="JB11" t="n">
-        <v>1623.708241</v>
+        <v>1621.297626</v>
       </c>
       <c r="JC11" t="n">
-        <v>1609.835828</v>
+        <v>1606.624738</v>
       </c>
       <c r="JD11" t="n">
-        <v>1549.548042</v>
+        <v>1546.413372</v>
       </c>
       <c r="JE11" t="n">
-        <v>1569.067277</v>
+        <v>1566.987221</v>
       </c>
       <c r="JF11" t="n">
-        <v>1114.953728</v>
+        <v>1111.978995</v>
       </c>
       <c r="JG11" t="n">
-        <v>1542.744652</v>
+        <v>1538.823811</v>
       </c>
       <c r="JH11" t="n">
-        <v>1930.513659</v>
+        <v>1925.694664</v>
       </c>
       <c r="JI11" t="n">
-        <v>1710.795673</v>
+        <v>1706.831248</v>
       </c>
       <c r="JJ11" t="n">
-        <v>1762.879735</v>
+        <v>1759.176277</v>
       </c>
       <c r="JK11" t="n">
-        <v>1931.091544</v>
+        <v>1927.645394</v>
       </c>
       <c r="JL11" t="n">
-        <v>2045.301337</v>
+        <v>2044.9182</v>
       </c>
       <c r="JM11" t="n">
-        <v>1485.567563</v>
+        <v>1483.543708</v>
       </c>
       <c r="JN11" t="n">
-        <v>1922.786992</v>
+        <v>1921.807367</v>
       </c>
       <c r="JO11" t="n">
-        <v>1897.484708</v>
+        <v>1893.279695</v>
+      </c>
+      <c r="JP11" t="n">
+        <v>2141.820409</v>
+      </c>
+      <c r="JQ11" t="n">
+        <v>2074.613887</v>
+      </c>
+      <c r="JR11" t="n">
+        <v>1851.492887</v>
       </c>
     </row>
     <row r="12">
@@ -9421,7 +9526,7 @@
         <v>2603.413639</v>
       </c>
       <c r="HR12" t="n">
-        <v>2996.267433</v>
+        <v>2996.256433</v>
       </c>
       <c r="HS12" t="n">
         <v>2961.417669</v>
@@ -9463,112 +9568,121 @@
         <v>4430.295583</v>
       </c>
       <c r="IF12" t="n">
-        <v>3156.013099000002</v>
+        <v>3156.013099</v>
       </c>
       <c r="IG12" t="n">
-        <v>3253.659893</v>
+        <v>3253.652688</v>
       </c>
       <c r="IH12" t="n">
-        <v>3238.605096000001</v>
+        <v>3238.46036</v>
       </c>
       <c r="II12" t="n">
-        <v>3166.058355000001</v>
+        <v>3165.499641</v>
       </c>
       <c r="IJ12" t="n">
-        <v>3578.848065999999</v>
+        <v>3577.863935</v>
       </c>
       <c r="IK12" t="n">
-        <v>3647.470791999997</v>
+        <v>3646.356185</v>
       </c>
       <c r="IL12" t="n">
-        <v>3826.315758000001</v>
+        <v>3825.451975</v>
       </c>
       <c r="IM12" t="n">
-        <v>3789.412508999999</v>
+        <v>3788.866051</v>
       </c>
       <c r="IN12" t="n">
-        <v>4482.403200000001</v>
+        <v>4481.692738</v>
       </c>
       <c r="IO12" t="n">
-        <v>2987.23552</v>
+        <v>2986.750495</v>
       </c>
       <c r="IP12" t="n">
-        <v>3403.127129000001</v>
+        <v>3402.583499</v>
       </c>
       <c r="IQ12" t="n">
-        <v>3812.206751000002</v>
+        <v>3811.247858</v>
       </c>
       <c r="IR12" t="n">
-        <v>2932.036945999998</v>
+        <v>2931.51267</v>
       </c>
       <c r="IS12" t="n">
-        <v>3115.081976000001</v>
+        <v>3114.406605</v>
       </c>
       <c r="IT12" t="n">
-        <v>2868.885941</v>
+        <v>2868.092278</v>
       </c>
       <c r="IU12" t="n">
-        <v>2987.619860000002</v>
+        <v>2986.786638</v>
       </c>
       <c r="IV12" t="n">
-        <v>3705.266601000001</v>
+        <v>3704.358771</v>
       </c>
       <c r="IW12" t="n">
-        <v>2021.724086000002</v>
+        <v>2021.132596</v>
       </c>
       <c r="IX12" t="n">
-        <v>1901.168796</v>
+        <v>1901.401031</v>
       </c>
       <c r="IY12" t="n">
-        <v>2508.741915000001</v>
+        <v>2508.154428</v>
       </c>
       <c r="IZ12" t="n">
-        <v>3139.23829</v>
+        <v>3138.482872</v>
       </c>
       <c r="JA12" t="n">
-        <v>2050.646334</v>
+        <v>2049.660988</v>
       </c>
       <c r="JB12" t="n">
-        <v>3007.345044000003</v>
+        <v>3005.636564</v>
       </c>
       <c r="JC12" t="n">
-        <v>2937.919224999999</v>
+        <v>2936.291628</v>
       </c>
       <c r="JD12" t="n">
-        <v>2574.987775000002</v>
+        <v>2573.369869</v>
       </c>
       <c r="JE12" t="n">
-        <v>2562.679290999999</v>
+        <v>2543.839416</v>
       </c>
       <c r="JF12" t="n">
-        <v>2537.558227</v>
+        <v>2537.330196</v>
       </c>
       <c r="JG12" t="n">
-        <v>2469.177319000002</v>
+        <v>2450.454273</v>
       </c>
       <c r="JH12" t="n">
-        <v>3158.110522999998</v>
+        <v>3146.824598</v>
       </c>
       <c r="JI12" t="n">
-        <v>2964.171533</v>
+        <v>2968.774557</v>
       </c>
       <c r="JJ12" t="n">
-        <v>2913.847182</v>
+        <v>2898.170639</v>
       </c>
       <c r="JK12" t="n">
-        <v>3330.926602</v>
+        <v>3350.573063</v>
       </c>
       <c r="JL12" t="n">
-        <v>3148.610022000003</v>
+        <v>3149.901591</v>
       </c>
       <c r="JM12" t="n">
-        <v>2972.234185999998</v>
+        <v>2976.963882</v>
       </c>
       <c r="JN12" t="n">
-        <v>3059.711597000001</v>
+        <v>3068.742058</v>
       </c>
       <c r="JO12" t="n">
-        <v>3244.553962</v>
+        <v>3229.948675</v>
+      </c>
+      <c r="JP12" t="n">
+        <v>3130.00837</v>
+      </c>
+      <c r="JQ12" t="n">
+        <v>3332.877469</v>
+      </c>
+      <c r="JR12" t="n">
+        <v>4594.685714</v>
       </c>
     </row>
     <row r="13">
@@ -10125,109 +10239,118 @@
         <v>293.982658</v>
       </c>
       <c r="IG13" t="n">
-        <v>258.501626</v>
+        <v>258.501461</v>
       </c>
       <c r="IH13" t="n">
-        <v>276.428909</v>
+        <v>276.405386</v>
       </c>
       <c r="II13" t="n">
-        <v>295.248296</v>
+        <v>295.17032</v>
       </c>
       <c r="IJ13" t="n">
-        <v>328.237851</v>
+        <v>328.116458</v>
       </c>
       <c r="IK13" t="n">
-        <v>314.401265</v>
+        <v>314.254644</v>
       </c>
       <c r="IL13" t="n">
-        <v>337.733156</v>
+        <v>337.608175</v>
       </c>
       <c r="IM13" t="n">
-        <v>321.31193</v>
+        <v>321.244253</v>
       </c>
       <c r="IN13" t="n">
-        <v>371.260641</v>
+        <v>371.171797</v>
       </c>
       <c r="IO13" t="n">
-        <v>281.789129</v>
+        <v>281.711806</v>
       </c>
       <c r="IP13" t="n">
-        <v>300.571118</v>
+        <v>300.486783</v>
       </c>
       <c r="IQ13" t="n">
-        <v>369.964595</v>
+        <v>369.802771</v>
       </c>
       <c r="IR13" t="n">
-        <v>292.479909</v>
+        <v>292.376692</v>
       </c>
       <c r="IS13" t="n">
-        <v>263.021604</v>
+        <v>262.939419</v>
       </c>
       <c r="IT13" t="n">
-        <v>241.570747</v>
+        <v>241.484828</v>
       </c>
       <c r="IU13" t="n">
-        <v>278.053711</v>
+        <v>277.925631</v>
       </c>
       <c r="IV13" t="n">
-        <v>298.220998</v>
+        <v>297.709909</v>
       </c>
       <c r="IW13" t="n">
-        <v>212.364297</v>
+        <v>212.260127</v>
       </c>
       <c r="IX13" t="n">
-        <v>203.076642</v>
+        <v>203.008479</v>
       </c>
       <c r="IY13" t="n">
-        <v>261.643373</v>
+        <v>261.532516</v>
       </c>
       <c r="IZ13" t="n">
-        <v>302.38382</v>
+        <v>302.256722</v>
       </c>
       <c r="JA13" t="n">
-        <v>250.299376</v>
+        <v>250.135852</v>
       </c>
       <c r="JB13" t="n">
-        <v>282.658206</v>
+        <v>282.412835</v>
       </c>
       <c r="JC13" t="n">
-        <v>304.489049</v>
+        <v>304.242931</v>
       </c>
       <c r="JD13" t="n">
-        <v>259.528182</v>
+        <v>259.296422</v>
       </c>
       <c r="JE13" t="n">
-        <v>243.612871</v>
+        <v>243.404365</v>
       </c>
       <c r="JF13" t="n">
-        <v>254.894037</v>
+        <v>254.78615</v>
       </c>
       <c r="JG13" t="n">
-        <v>253.311951</v>
+        <v>253.46862</v>
       </c>
       <c r="JH13" t="n">
-        <v>285.733508</v>
+        <v>286.879696</v>
       </c>
       <c r="JI13" t="n">
-        <v>320.767288</v>
+        <v>321.197773</v>
       </c>
       <c r="JJ13" t="n">
-        <v>275.117142</v>
+        <v>274.943357</v>
       </c>
       <c r="JK13" t="n">
-        <v>316.697574</v>
+        <v>316.64241</v>
       </c>
       <c r="JL13" t="n">
-        <v>320.52468</v>
+        <v>320.653498</v>
       </c>
       <c r="JM13" t="n">
-        <v>280.569661</v>
+        <v>280.125163</v>
       </c>
       <c r="JN13" t="n">
-        <v>328.782086</v>
+        <v>328.671503</v>
       </c>
       <c r="JO13" t="n">
-        <v>371.233474</v>
+        <v>369.646088</v>
+      </c>
+      <c r="JP13" t="n">
+        <v>288.24193</v>
+      </c>
+      <c r="JQ13" t="n">
+        <v>291.025761</v>
+      </c>
+      <c r="JR13" t="n">
+        <v>266.58317</v>
       </c>
     </row>
     <row r="14">
@@ -10754,7 +10877,7 @@
         <v>244.610372</v>
       </c>
       <c r="HW14" t="n">
-        <v>231.292878</v>
+        <v>231.311911</v>
       </c>
       <c r="HX14" t="n">
         <v>271.050435</v>
@@ -10769,7 +10892,7 @@
         <v>180.235048</v>
       </c>
       <c r="IB14" t="n">
-        <v>274.269796</v>
+        <v>274.269837</v>
       </c>
       <c r="IC14" t="n">
         <v>216.847043</v>
@@ -10784,109 +10907,118 @@
         <v>239.97959</v>
       </c>
       <c r="IG14" t="n">
-        <v>295.51778</v>
+        <v>295.51733</v>
       </c>
       <c r="IH14" t="n">
-        <v>241.202421</v>
+        <v>241.202015</v>
       </c>
       <c r="II14" t="n">
-        <v>184.314951</v>
+        <v>184.315211</v>
       </c>
       <c r="IJ14" t="n">
-        <v>240.196928</v>
+        <v>240.197984</v>
       </c>
       <c r="IK14" t="n">
-        <v>249.577411</v>
+        <v>249.576487</v>
       </c>
       <c r="IL14" t="n">
-        <v>262.288989</v>
+        <v>262.287949</v>
       </c>
       <c r="IM14" t="n">
-        <v>216.569268</v>
+        <v>216.568054</v>
       </c>
       <c r="IN14" t="n">
-        <v>313.1555</v>
+        <v>313.151779</v>
       </c>
       <c r="IO14" t="n">
-        <v>319.37516</v>
+        <v>319.371482</v>
       </c>
       <c r="IP14" t="n">
-        <v>247.050358</v>
+        <v>247.048799</v>
       </c>
       <c r="IQ14" t="n">
-        <v>283.774184</v>
+        <v>283.774327</v>
       </c>
       <c r="IR14" t="n">
-        <v>245.092018</v>
+        <v>245.085885</v>
       </c>
       <c r="IS14" t="n">
-        <v>296.082175</v>
+        <v>296.072205</v>
       </c>
       <c r="IT14" t="n">
-        <v>346.248288</v>
+        <v>346.238829</v>
       </c>
       <c r="IU14" t="n">
-        <v>298.00444</v>
+        <v>298.003918</v>
       </c>
       <c r="IV14" t="n">
-        <v>274.885572</v>
+        <v>274.876146</v>
       </c>
       <c r="IW14" t="n">
-        <v>232.469534</v>
+        <v>232.40053</v>
       </c>
       <c r="IX14" t="n">
-        <v>242.137984</v>
+        <v>242.073785</v>
       </c>
       <c r="IY14" t="n">
-        <v>228.474004</v>
+        <v>228.401398</v>
       </c>
       <c r="IZ14" t="n">
-        <v>205.279344</v>
+        <v>205.216033</v>
       </c>
       <c r="JA14" t="n">
-        <v>203.650383</v>
+        <v>210.632872</v>
       </c>
       <c r="JB14" t="n">
-        <v>288.894117</v>
+        <v>291.305476</v>
       </c>
       <c r="JC14" t="n">
-        <v>307.167296</v>
+        <v>306.26498</v>
       </c>
       <c r="JD14" t="n">
-        <v>257.750627</v>
+        <v>260.909414</v>
       </c>
       <c r="JE14" t="n">
-        <v>228.835379</v>
+        <v>231.458898</v>
       </c>
       <c r="JF14" t="n">
-        <v>278.224221</v>
+        <v>278.327424</v>
       </c>
       <c r="JG14" t="n">
-        <v>270.428773</v>
+        <v>270.457361</v>
       </c>
       <c r="JH14" t="n">
-        <v>312.390304</v>
+        <v>312.844728</v>
       </c>
       <c r="JI14" t="n">
-        <v>323.251557</v>
+        <v>326.055635</v>
       </c>
       <c r="JJ14" t="n">
-        <v>196.779337</v>
+        <v>196.69269</v>
       </c>
       <c r="JK14" t="n">
-        <v>353.30269</v>
+        <v>353.394358</v>
       </c>
       <c r="JL14" t="n">
-        <v>399.539993</v>
+        <v>399.450729</v>
       </c>
       <c r="JM14" t="n">
-        <v>326.321881</v>
+        <v>340.586044</v>
       </c>
       <c r="JN14" t="n">
-        <v>381.860426</v>
+        <v>382.513375</v>
       </c>
       <c r="JO14" t="n">
-        <v>241.140204</v>
+        <v>238.597873</v>
+      </c>
+      <c r="JP14" t="n">
+        <v>373.031849</v>
+      </c>
+      <c r="JQ14" t="n">
+        <v>425.844392</v>
+      </c>
+      <c r="JR14" t="n">
+        <v>340.840608</v>
       </c>
     </row>
     <row r="15">
@@ -11443,109 +11575,118 @@
         <v>198.376021</v>
       </c>
       <c r="IG15" t="n">
-        <v>219.181434</v>
+        <v>219.181242</v>
       </c>
       <c r="IH15" t="n">
-        <v>204.00465</v>
+        <v>204.003082</v>
       </c>
       <c r="II15" t="n">
-        <v>203.5282</v>
+        <v>203.515226</v>
       </c>
       <c r="IJ15" t="n">
-        <v>210.251162</v>
+        <v>210.208554</v>
       </c>
       <c r="IK15" t="n">
-        <v>205.639853</v>
+        <v>205.593104</v>
       </c>
       <c r="IL15" t="n">
-        <v>250.579407</v>
+        <v>250.556316</v>
       </c>
       <c r="IM15" t="n">
-        <v>212.778294</v>
+        <v>212.767924</v>
       </c>
       <c r="IN15" t="n">
-        <v>295.396551</v>
+        <v>295.36556</v>
       </c>
       <c r="IO15" t="n">
-        <v>195.699981</v>
+        <v>195.67719</v>
       </c>
       <c r="IP15" t="n">
-        <v>215.052197</v>
+        <v>215.029795</v>
       </c>
       <c r="IQ15" t="n">
-        <v>254.238752</v>
+        <v>254.207518</v>
       </c>
       <c r="IR15" t="n">
-        <v>188.808967</v>
+        <v>188.794159</v>
       </c>
       <c r="IS15" t="n">
-        <v>216.754787</v>
+        <v>216.739913</v>
       </c>
       <c r="IT15" t="n">
-        <v>161.735725</v>
+        <v>161.717165</v>
       </c>
       <c r="IU15" t="n">
-        <v>214.972675</v>
+        <v>214.936826</v>
       </c>
       <c r="IV15" t="n">
-        <v>209.965618</v>
+        <v>209.933076</v>
       </c>
       <c r="IW15" t="n">
-        <v>149.54007</v>
+        <v>149.512731</v>
       </c>
       <c r="IX15" t="n">
-        <v>195.210952</v>
+        <v>195.780719</v>
       </c>
       <c r="IY15" t="n">
-        <v>249.905184</v>
+        <v>249.867395</v>
       </c>
       <c r="IZ15" t="n">
-        <v>261.029145</v>
+        <v>261.102349</v>
       </c>
       <c r="JA15" t="n">
-        <v>220.281703</v>
+        <v>220.213952</v>
       </c>
       <c r="JB15" t="n">
-        <v>252.204833</v>
+        <v>252.092891</v>
       </c>
       <c r="JC15" t="n">
-        <v>255.582414</v>
+        <v>255.453851</v>
       </c>
       <c r="JD15" t="n">
-        <v>261.035455</v>
+        <v>260.903804</v>
       </c>
       <c r="JE15" t="n">
-        <v>270.367428</v>
+        <v>270.237208</v>
       </c>
       <c r="JF15" t="n">
-        <v>213.240678</v>
+        <v>213.26914</v>
       </c>
       <c r="JG15" t="n">
-        <v>243.412801</v>
+        <v>243.535808</v>
       </c>
       <c r="JH15" t="n">
-        <v>256.113908</v>
+        <v>257.134756</v>
       </c>
       <c r="JI15" t="n">
-        <v>228.794073</v>
+        <v>229.845138</v>
       </c>
       <c r="JJ15" t="n">
-        <v>270.835075</v>
+        <v>270.922922</v>
       </c>
       <c r="JK15" t="n">
-        <v>269.133197</v>
+        <v>269.244719</v>
       </c>
       <c r="JL15" t="n">
-        <v>257.92509</v>
+        <v>258.436076</v>
       </c>
       <c r="JM15" t="n">
-        <v>239.783082</v>
+        <v>239.772887</v>
       </c>
       <c r="JN15" t="n">
-        <v>255.734048</v>
+        <v>256.358012</v>
       </c>
       <c r="JO15" t="n">
-        <v>258.252918</v>
+        <v>257.958716</v>
+      </c>
+      <c r="JP15" t="n">
+        <v>247.24601</v>
+      </c>
+      <c r="JQ15" t="n">
+        <v>282.223429</v>
+      </c>
+      <c r="JR15" t="n">
+        <v>243.477225</v>
       </c>
     </row>
     <row r="16">
@@ -12102,109 +12243,118 @@
         <v>80.60775099999999</v>
       </c>
       <c r="IG16" t="n">
-        <v>94.442173</v>
+        <v>94.442573</v>
       </c>
       <c r="IH16" t="n">
-        <v>80.94690900000001</v>
+        <v>80.94743699999999</v>
       </c>
       <c r="II16" t="n">
-        <v>103.283279</v>
+        <v>103.284527</v>
       </c>
       <c r="IJ16" t="n">
-        <v>88.637197</v>
+        <v>88.638842</v>
       </c>
       <c r="IK16" t="n">
-        <v>112.963609</v>
+        <v>112.964558</v>
       </c>
       <c r="IL16" t="n">
-        <v>120.245946</v>
+        <v>120.247156</v>
       </c>
       <c r="IM16" t="n">
-        <v>65.798068</v>
+        <v>65.798872</v>
       </c>
       <c r="IN16" t="n">
-        <v>102.657051</v>
+        <v>102.561942</v>
       </c>
       <c r="IO16" t="n">
-        <v>77.423815</v>
+        <v>77.42415</v>
       </c>
       <c r="IP16" t="n">
-        <v>85.827082</v>
+        <v>85.818406</v>
       </c>
       <c r="IQ16" t="n">
-        <v>114.213725</v>
+        <v>114.202769</v>
       </c>
       <c r="IR16" t="n">
-        <v>72.93228999999999</v>
+        <v>72.930907</v>
       </c>
       <c r="IS16" t="n">
-        <v>94.549904</v>
+        <v>90.073329</v>
       </c>
       <c r="IT16" t="n">
-        <v>49.472077</v>
+        <v>49.464737</v>
       </c>
       <c r="IU16" t="n">
-        <v>78.456839</v>
+        <v>78.44164499999999</v>
       </c>
       <c r="IV16" t="n">
-        <v>46.639449</v>
+        <v>46.62656</v>
       </c>
       <c r="IW16" t="n">
-        <v>60.622801</v>
+        <v>60.604733</v>
       </c>
       <c r="IX16" t="n">
-        <v>77.778182</v>
+        <v>77.804956</v>
       </c>
       <c r="IY16" t="n">
-        <v>54.999249</v>
+        <v>54.977026</v>
       </c>
       <c r="IZ16" t="n">
-        <v>76.468447</v>
+        <v>75.21813</v>
       </c>
       <c r="JA16" t="n">
-        <v>28.529039</v>
+        <v>28.518852</v>
       </c>
       <c r="JB16" t="n">
-        <v>61.439112</v>
+        <v>61.334114</v>
       </c>
       <c r="JC16" t="n">
-        <v>42.091777</v>
+        <v>42.07639</v>
       </c>
       <c r="JD16" t="n">
-        <v>60.036792</v>
+        <v>60.016088</v>
       </c>
       <c r="JE16" t="n">
-        <v>74.237137</v>
+        <v>74.04219999999999</v>
       </c>
       <c r="JF16" t="n">
-        <v>51.292135</v>
+        <v>51.265409</v>
       </c>
       <c r="JG16" t="n">
-        <v>60.36827</v>
+        <v>59.717372</v>
       </c>
       <c r="JH16" t="n">
-        <v>104.639877</v>
+        <v>104.797622</v>
       </c>
       <c r="JI16" t="n">
-        <v>119.188135</v>
+        <v>119.133137</v>
       </c>
       <c r="JJ16" t="n">
-        <v>75.968107</v>
+        <v>75.92125799999999</v>
       </c>
       <c r="JK16" t="n">
-        <v>112.835553</v>
+        <v>113.066551</v>
       </c>
       <c r="JL16" t="n">
-        <v>104.992056</v>
+        <v>105.034095</v>
       </c>
       <c r="JM16" t="n">
-        <v>51.336457</v>
+        <v>51.233514</v>
       </c>
       <c r="JN16" t="n">
-        <v>62.632372</v>
+        <v>62.434313</v>
       </c>
       <c r="JO16" t="n">
-        <v>93.28040300000001</v>
+        <v>93.063784</v>
+      </c>
+      <c r="JP16" t="n">
+        <v>93.667306</v>
+      </c>
+      <c r="JQ16" t="n">
+        <v>36.512437</v>
+      </c>
+      <c r="JR16" t="n">
+        <v>246.393022</v>
       </c>
     </row>
     <row r="17">
@@ -12761,109 +12911,118 @@
         <v>567.025787</v>
       </c>
       <c r="IG17" t="n">
-        <v>564.706239</v>
+        <v>564.705616</v>
       </c>
       <c r="IH17" t="n">
-        <v>498.977295</v>
+        <v>498.967201</v>
       </c>
       <c r="II17" t="n">
-        <v>559.341087</v>
+        <v>559.29572</v>
       </c>
       <c r="IJ17" t="n">
-        <v>858.378923</v>
+        <v>858.250322</v>
       </c>
       <c r="IK17" t="n">
-        <v>528.844292</v>
+        <v>528.7310230000001</v>
       </c>
       <c r="IL17" t="n">
-        <v>805.3186920000001</v>
+        <v>805.216513</v>
       </c>
       <c r="IM17" t="n">
-        <v>697.609238</v>
+        <v>697.5806250000001</v>
       </c>
       <c r="IN17" t="n">
-        <v>659.337054</v>
+        <v>659.294281</v>
       </c>
       <c r="IO17" t="n">
-        <v>571.409252</v>
+        <v>571.375344</v>
       </c>
       <c r="IP17" t="n">
-        <v>630.923514</v>
+        <v>630.889301</v>
       </c>
       <c r="IQ17" t="n">
-        <v>792.811605</v>
+        <v>792.7339030000001</v>
       </c>
       <c r="IR17" t="n">
-        <v>480.894953</v>
+        <v>480.85336</v>
       </c>
       <c r="IS17" t="n">
-        <v>630.180538</v>
+        <v>630.146801</v>
       </c>
       <c r="IT17" t="n">
-        <v>484.703052</v>
+        <v>484.655379</v>
       </c>
       <c r="IU17" t="n">
-        <v>469.507485</v>
+        <v>469.440959</v>
       </c>
       <c r="IV17" t="n">
-        <v>490.530726</v>
+        <v>490.468292</v>
       </c>
       <c r="IW17" t="n">
-        <v>395.27897</v>
+        <v>395.218493</v>
       </c>
       <c r="IX17" t="n">
-        <v>453.382917</v>
+        <v>453.317498</v>
       </c>
       <c r="IY17" t="n">
-        <v>394.572763</v>
+        <v>394.519047</v>
       </c>
       <c r="IZ17" t="n">
-        <v>445.748025</v>
+        <v>445.670888</v>
       </c>
       <c r="JA17" t="n">
-        <v>337.57631</v>
+        <v>337.524276</v>
       </c>
       <c r="JB17" t="n">
-        <v>525.804877</v>
+        <v>525.6109729999999</v>
       </c>
       <c r="JC17" t="n">
-        <v>479.396078</v>
+        <v>479.17057</v>
       </c>
       <c r="JD17" t="n">
-        <v>432.417031</v>
+        <v>432.215244</v>
       </c>
       <c r="JE17" t="n">
-        <v>766.034365</v>
+        <v>765.712773</v>
       </c>
       <c r="JF17" t="n">
-        <v>557.471151</v>
+        <v>557.277695</v>
       </c>
       <c r="JG17" t="n">
-        <v>408.023549</v>
+        <v>408.187957</v>
       </c>
       <c r="JH17" t="n">
-        <v>519.812768</v>
+        <v>519.982727</v>
       </c>
       <c r="JI17" t="n">
-        <v>513.439896</v>
+        <v>513.813185</v>
       </c>
       <c r="JJ17" t="n">
-        <v>401.561395</v>
+        <v>401.228091</v>
       </c>
       <c r="JK17" t="n">
-        <v>566.057978</v>
+        <v>565.865455</v>
       </c>
       <c r="JL17" t="n">
-        <v>420.386139</v>
+        <v>420.753512</v>
       </c>
       <c r="JM17" t="n">
-        <v>583.931513</v>
+        <v>583.579699</v>
       </c>
       <c r="JN17" t="n">
-        <v>667.93918</v>
+        <v>668.357047</v>
       </c>
       <c r="JO17" t="n">
-        <v>906.189936</v>
+        <v>905.023772</v>
+      </c>
+      <c r="JP17" t="n">
+        <v>469.541732</v>
+      </c>
+      <c r="JQ17" t="n">
+        <v>651.7027869999999</v>
+      </c>
+      <c r="JR17" t="n">
+        <v>447.730377</v>
       </c>
     </row>
     <row r="18">
@@ -13342,7 +13501,7 @@
         <v>814.2565959999999</v>
       </c>
       <c r="HG18" t="n">
-        <v>766.407601</v>
+        <v>766.387251</v>
       </c>
       <c r="HH18" t="n">
         <v>906.152781</v>
@@ -13390,7 +13549,7 @@
         <v>934.23649</v>
       </c>
       <c r="HW18" t="n">
-        <v>777.1800490000001</v>
+        <v>777.181569</v>
       </c>
       <c r="HX18" t="n">
         <v>959.61169</v>
@@ -13405,124 +13564,133 @@
         <v>899.02904</v>
       </c>
       <c r="IB18" t="n">
-        <v>835.098163</v>
+        <v>835.101313</v>
       </c>
       <c r="IC18" t="n">
         <v>683.740985</v>
       </c>
       <c r="ID18" t="n">
-        <v>801.130572</v>
+        <v>801.133104</v>
       </c>
       <c r="IE18" t="n">
-        <v>932.06414</v>
+        <v>932.065622</v>
       </c>
       <c r="IF18" t="n">
-        <v>919.912916</v>
+        <v>919.913574</v>
       </c>
       <c r="IG18" t="n">
-        <v>755.127524</v>
+        <v>755.1301549999999</v>
       </c>
       <c r="IH18" t="n">
-        <v>921.4277530000001</v>
+        <v>921.419299</v>
       </c>
       <c r="II18" t="n">
-        <v>836.1867999999999</v>
+        <v>836.181947</v>
       </c>
       <c r="IJ18" t="n">
-        <v>964.147139</v>
+        <v>964.097853</v>
       </c>
       <c r="IK18" t="n">
-        <v>889.277929</v>
+        <v>889.218856</v>
       </c>
       <c r="IL18" t="n">
-        <v>896.040985</v>
+        <v>896.015356</v>
       </c>
       <c r="IM18" t="n">
-        <v>825.222542</v>
+        <v>825.196943</v>
       </c>
       <c r="IN18" t="n">
-        <v>912.0984580000001</v>
+        <v>912.058004</v>
       </c>
       <c r="IO18" t="n">
-        <v>709.465875</v>
+        <v>709.416006</v>
       </c>
       <c r="IP18" t="n">
-        <v>930.923523</v>
+        <v>930.8099099999999</v>
       </c>
       <c r="IQ18" t="n">
-        <v>980.326819</v>
+        <v>980.213441</v>
       </c>
       <c r="IR18" t="n">
-        <v>811.169272</v>
+        <v>811.194392</v>
       </c>
       <c r="IS18" t="n">
-        <v>737.204261</v>
+        <v>737.1205</v>
       </c>
       <c r="IT18" t="n">
-        <v>879.8234629999999</v>
+        <v>879.6687429999999</v>
       </c>
       <c r="IU18" t="n">
-        <v>751.542894</v>
+        <v>751.424052</v>
       </c>
       <c r="IV18" t="n">
-        <v>766.4960139999999</v>
+        <v>766.240667</v>
       </c>
       <c r="IW18" t="n">
-        <v>589.707911</v>
+        <v>589.503044</v>
       </c>
       <c r="IX18" t="n">
-        <v>599.767611</v>
+        <v>599.656044</v>
       </c>
       <c r="IY18" t="n">
-        <v>768.7363800000001</v>
+        <v>768.5091660000001</v>
       </c>
       <c r="IZ18" t="n">
-        <v>640.453939</v>
+        <v>640.2686200000001</v>
       </c>
       <c r="JA18" t="n">
-        <v>618.783691</v>
+        <v>618.671026</v>
       </c>
       <c r="JB18" t="n">
-        <v>730.202418</v>
+        <v>730.1127739999999</v>
       </c>
       <c r="JC18" t="n">
-        <v>693.801185</v>
+        <v>693.7376379999999</v>
       </c>
       <c r="JD18" t="n">
-        <v>707.447961</v>
+        <v>707.567185</v>
       </c>
       <c r="JE18" t="n">
-        <v>694.080538</v>
+        <v>694.181379</v>
       </c>
       <c r="JF18" t="n">
-        <v>744.980454</v>
+        <v>745.156308</v>
       </c>
       <c r="JG18" t="n">
-        <v>783.713677</v>
+        <v>783.815229</v>
       </c>
       <c r="JH18" t="n">
-        <v>861.561777</v>
+        <v>861.51136</v>
       </c>
       <c r="JI18" t="n">
-        <v>795.656186</v>
+        <v>795.592088</v>
       </c>
       <c r="JJ18" t="n">
-        <v>777.958261</v>
+        <v>777.685173</v>
       </c>
       <c r="JK18" t="n">
-        <v>864.356612</v>
+        <v>864.29108</v>
       </c>
       <c r="JL18" t="n">
-        <v>767.626838</v>
+        <v>769.511927</v>
       </c>
       <c r="JM18" t="n">
-        <v>590.04603</v>
+        <v>590.111113</v>
       </c>
       <c r="JN18" t="n">
-        <v>751.196244</v>
+        <v>751.545259</v>
       </c>
       <c r="JO18" t="n">
-        <v>879.540887</v>
+        <v>879.5925549999999</v>
+      </c>
+      <c r="JP18" t="n">
+        <v>804.661893</v>
+      </c>
+      <c r="JQ18" t="n">
+        <v>766.5579269999999</v>
+      </c>
+      <c r="JR18" t="n">
+        <v>748.342146</v>
       </c>
     </row>
     <row r="19">
@@ -14079,109 +14247,118 @@
         <v>2340.550069</v>
       </c>
       <c r="IG19" t="n">
-        <v>2215.73838</v>
+        <v>2215.736663</v>
       </c>
       <c r="IH19" t="n">
-        <v>2210.304199</v>
+        <v>2210.292726</v>
       </c>
       <c r="II19" t="n">
-        <v>1637.565763</v>
+        <v>1637.453637</v>
       </c>
       <c r="IJ19" t="n">
-        <v>1523.061578</v>
+        <v>1523.045098</v>
       </c>
       <c r="IK19" t="n">
-        <v>1648.722624</v>
+        <v>1648.69093</v>
       </c>
       <c r="IL19" t="n">
-        <v>1801.723134</v>
+        <v>1801.713596</v>
       </c>
       <c r="IM19" t="n">
-        <v>1732.976235</v>
+        <v>1732.96052</v>
       </c>
       <c r="IN19" t="n">
-        <v>1603.433329999999</v>
+        <v>1603.486256</v>
       </c>
       <c r="IO19" t="n">
-        <v>1255.526968000001</v>
+        <v>1255.553164</v>
       </c>
       <c r="IP19" t="n">
-        <v>1525.321807</v>
+        <v>1525.291315</v>
       </c>
       <c r="IQ19" t="n">
-        <v>2026.328026</v>
+        <v>2026.236879</v>
       </c>
       <c r="IR19" t="n">
-        <v>1971.000396</v>
+        <v>1970.902049</v>
       </c>
       <c r="IS19" t="n">
-        <v>2002.203609</v>
+        <v>2002.153739</v>
       </c>
       <c r="IT19" t="n">
-        <v>1146.836623</v>
+        <v>1146.561368</v>
       </c>
       <c r="IU19" t="n">
-        <v>1040.419117000001</v>
+        <v>1040.368359</v>
       </c>
       <c r="IV19" t="n">
-        <v>1365.903147</v>
+        <v>1365.854061</v>
       </c>
       <c r="IW19" t="n">
-        <v>1238.118409</v>
+        <v>1238.106871</v>
       </c>
       <c r="IX19" t="n">
-        <v>1102.221265</v>
+        <v>1102.644667</v>
       </c>
       <c r="IY19" t="n">
-        <v>1454.319091</v>
+        <v>1454.237096</v>
       </c>
       <c r="IZ19" t="n">
-        <v>1534.083275</v>
+        <v>1534.081332</v>
       </c>
       <c r="JA19" t="n">
-        <v>1248.410254</v>
+        <v>1248.034432</v>
       </c>
       <c r="JB19" t="n">
-        <v>1413.820719</v>
+        <v>1413.205848</v>
       </c>
       <c r="JC19" t="n">
-        <v>1591.409381</v>
+        <v>1590.628412</v>
       </c>
       <c r="JD19" t="n">
-        <v>1916.422115</v>
+        <v>1915.422348</v>
       </c>
       <c r="JE19" t="n">
-        <v>2564.086791</v>
+        <v>2562.82646</v>
       </c>
       <c r="JF19" t="n">
-        <v>1549.654158999999</v>
+        <v>1549.318916</v>
       </c>
       <c r="JG19" t="n">
-        <v>1718.748925999999</v>
+        <v>1718.545893</v>
       </c>
       <c r="JH19" t="n">
-        <v>1813.204306000001</v>
+        <v>1813.594078</v>
       </c>
       <c r="JI19" t="n">
-        <v>2569.453255</v>
+        <v>2569.415775</v>
       </c>
       <c r="JJ19" t="n">
-        <v>2009.838643</v>
+        <v>2009.161242</v>
       </c>
       <c r="JK19" t="n">
-        <v>2348.525293</v>
+        <v>2347.53563</v>
       </c>
       <c r="JL19" t="n">
-        <v>1994.862266</v>
+        <v>1995.322648</v>
       </c>
       <c r="JM19" t="n">
-        <v>2053.30327</v>
+        <v>2052.408917</v>
       </c>
       <c r="JN19" t="n">
-        <v>1946.431224</v>
+        <v>1946.290506</v>
       </c>
       <c r="JO19" t="n">
-        <v>1953.30463</v>
+        <v>1972.063034</v>
+      </c>
+      <c r="JP19" t="n">
+        <v>2057.723717</v>
+      </c>
+      <c r="JQ19" t="n">
+        <v>2373.782429</v>
+      </c>
+      <c r="JR19" t="n">
+        <v>1700.371349</v>
       </c>
     </row>
     <row r="20">
@@ -14839,178 +15016,187 @@
         <v>4208.51477</v>
       </c>
       <c r="HJ20" t="n">
-        <v>4318.157649</v>
+        <v>4317.989856</v>
       </c>
       <c r="HK20" t="n">
-        <v>3643.479414</v>
+        <v>3643.309168</v>
       </c>
       <c r="HL20" t="n">
-        <v>3921.456467</v>
+        <v>3921.165307</v>
       </c>
       <c r="HM20" t="n">
-        <v>3367.224557</v>
+        <v>3367.215156</v>
       </c>
       <c r="HN20" t="n">
-        <v>3922.908215</v>
+        <v>3922.888123</v>
       </c>
       <c r="HO20" t="n">
-        <v>4218.867368</v>
+        <v>4218.841053</v>
       </c>
       <c r="HP20" t="n">
-        <v>4326.632298</v>
+        <v>4326.561929</v>
       </c>
       <c r="HQ20" t="n">
-        <v>4269.067032</v>
+        <v>4268.826482</v>
       </c>
       <c r="HR20" t="n">
-        <v>4466.272223</v>
+        <v>4466.143628</v>
       </c>
       <c r="HS20" t="n">
-        <v>4546.828525</v>
+        <v>4546.783782</v>
       </c>
       <c r="HT20" t="n">
-        <v>4656.979253</v>
+        <v>4656.960003</v>
       </c>
       <c r="HU20" t="n">
-        <v>4234.561837</v>
+        <v>4234.536493</v>
       </c>
       <c r="HV20" t="n">
-        <v>4802.894206</v>
+        <v>4802.792244</v>
       </c>
       <c r="HW20" t="n">
-        <v>3869.872665</v>
+        <v>3869.752204</v>
       </c>
       <c r="HX20" t="n">
-        <v>3988.795292</v>
+        <v>3988.487393</v>
       </c>
       <c r="HY20" t="n">
-        <v>3328.518758</v>
+        <v>3328.50933</v>
       </c>
       <c r="HZ20" t="n">
-        <v>3813.855404</v>
+        <v>3813.854349</v>
       </c>
       <c r="IA20" t="n">
-        <v>4079.027951</v>
+        <v>4079.079435</v>
       </c>
       <c r="IB20" t="n">
-        <v>4559.577773</v>
+        <v>4559.545113</v>
       </c>
       <c r="IC20" t="n">
-        <v>4388.069376</v>
+        <v>4388.045008</v>
       </c>
       <c r="ID20" t="n">
-        <v>4224.418775</v>
+        <v>4224.170412</v>
       </c>
       <c r="IE20" t="n">
-        <v>5109.252749</v>
+        <v>5109.01455</v>
       </c>
       <c r="IF20" t="n">
-        <v>4824.294633000001</v>
+        <v>4824.252123</v>
       </c>
       <c r="IG20" t="n">
-        <v>4154.114648999999</v>
+        <v>4153.983385</v>
       </c>
       <c r="IH20" t="n">
-        <v>4665.7204</v>
+        <v>4665.538225</v>
       </c>
       <c r="II20" t="n">
-        <v>4153.880074999999</v>
+        <v>4153.612463</v>
       </c>
       <c r="IJ20" t="n">
-        <v>3964.957473</v>
+        <v>3964.819889</v>
       </c>
       <c r="IK20" t="n">
-        <v>3935.862081999999</v>
+        <v>3935.48927</v>
       </c>
       <c r="IL20" t="n">
-        <v>4126.512935000002</v>
+        <v>4126.016248</v>
       </c>
       <c r="IM20" t="n">
-        <v>4162.850864</v>
+        <v>4162.338563</v>
       </c>
       <c r="IN20" t="n">
-        <v>4726.079190000001</v>
+        <v>4724.96118</v>
       </c>
       <c r="IO20" t="n">
-        <v>4402.051745</v>
+        <v>4401.344538</v>
       </c>
       <c r="IP20" t="n">
-        <v>4812.369443</v>
+        <v>4811.414922</v>
       </c>
       <c r="IQ20" t="n">
-        <v>5210.421834000001</v>
+        <v>5209.391075</v>
       </c>
       <c r="IR20" t="n">
-        <v>4752.415494000002</v>
+        <v>4751.11774</v>
       </c>
       <c r="IS20" t="n">
-        <v>4341.321398999999</v>
+        <v>4340.257453</v>
       </c>
       <c r="IT20" t="n">
-        <v>4670.945222</v>
+        <v>4669.881664</v>
       </c>
       <c r="IU20" t="n">
-        <v>4187.971566</v>
+        <v>4186.945137</v>
       </c>
       <c r="IV20" t="n">
-        <v>3265.347952</v>
+        <v>3264.688528</v>
       </c>
       <c r="IW20" t="n">
-        <v>3558.03926</v>
+        <v>3557.170735</v>
       </c>
       <c r="IX20" t="n">
-        <v>5039.284200999999</v>
+        <v>5038.295037</v>
       </c>
       <c r="IY20" t="n">
-        <v>5392.692792</v>
+        <v>5395.129624</v>
       </c>
       <c r="IZ20" t="n">
-        <v>5179.28091</v>
+        <v>5178.729216</v>
       </c>
       <c r="JA20" t="n">
-        <v>4729.843089999999</v>
+        <v>4729.758933</v>
       </c>
       <c r="JB20" t="n">
-        <v>5222.813262000001</v>
+        <v>5222.286015</v>
       </c>
       <c r="JC20" t="n">
-        <v>5031.360965999999</v>
+        <v>5031.009488</v>
       </c>
       <c r="JD20" t="n">
-        <v>5236.946330999999</v>
+        <v>5236.561081</v>
       </c>
       <c r="JE20" t="n">
-        <v>4976.762726</v>
+        <v>4977.017686</v>
       </c>
       <c r="JF20" t="n">
-        <v>4949.001538</v>
+        <v>4950.85603</v>
       </c>
       <c r="JG20" t="n">
-        <v>4339.778451</v>
+        <v>4340.772213</v>
       </c>
       <c r="JH20" t="n">
-        <v>5249.454402999999</v>
+        <v>5249.552894</v>
       </c>
       <c r="JI20" t="n">
-        <v>4695.067162</v>
+        <v>4694.79885</v>
       </c>
       <c r="JJ20" t="n">
-        <v>4761.688065</v>
+        <v>4759.774392</v>
       </c>
       <c r="JK20" t="n">
-        <v>4901.994132999999</v>
+        <v>4904.36146</v>
       </c>
       <c r="JL20" t="n">
-        <v>5036.225980999999</v>
+        <v>5041.144478</v>
       </c>
       <c r="JM20" t="n">
-        <v>5338.583203999999</v>
+        <v>5340.25269</v>
       </c>
       <c r="JN20" t="n">
-        <v>5732.427113</v>
+        <v>5740.124052</v>
       </c>
       <c r="JO20" t="n">
-        <v>5822.393082</v>
+        <v>5841.946137</v>
+      </c>
+      <c r="JP20" t="n">
+        <v>6167.228702</v>
+      </c>
+      <c r="JQ20" t="n">
+        <v>6807.961154</v>
+      </c>
+      <c r="JR20" t="n">
+        <v>6694.393319</v>
       </c>
     </row>
   </sheetData>
